--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0.仕様書概要" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="8.命名規則" sheetId="13" r:id="rId9"/>
     <sheet name="9.フロチャート" sheetId="7" r:id="rId10"/>
     <sheet name="10.画面仕様" sheetId="8" r:id="rId11"/>
+    <sheet name="レイヤー" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
   <si>
     <t>1.2チームメンバー</t>
     <phoneticPr fontId="2"/>
@@ -418,6 +419,475 @@
   </si>
   <si>
     <t>6.エフェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レイヤー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>z軸</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>墨</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <rPh sb="0" eb="1">
+      <t>カタナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寿司</t>
+    <rPh sb="0" eb="2">
+      <t>スシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>机</t>
+    <rPh sb="0" eb="1">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>忍者</t>
+    <rPh sb="0" eb="2">
+      <t>ニンジャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">单词首字母大写，直接连接 </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例：GameController</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8.1 基本ルール</t>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マグロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maguro</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タコ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tako</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fugu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カニ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kani</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8.3 人</t>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元データ</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MaguroFailedHead</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MaguroFailedTail</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>失敗した様子ー頭</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>失敗した様子ー後ろ半部</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MaguroNiku</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成功した様子、寿司肉</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MaguroSushi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出来上がるマグロ寿司</t>
+    <rPh sb="0" eb="3">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TakoSumi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>墨</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TakoFailFoot</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>失敗した様子ー足</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TakoNiku</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TakoSushi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出来上がるタコ寿司</t>
+    <rPh sb="0" eb="3">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FuguNikuPoison</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FuguNikuGolden</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FuguSushiPoison</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FuguSushiGolden</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>失敗したフグ肉</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成功したフグ肉</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出来上がるフグ毒寿司</t>
+    <rPh sb="0" eb="3">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出来上がるフグ寿司（ピカピカ）</t>
+    <rPh sb="0" eb="3">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KaniShell</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元データ、殻がない</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カニの殻</t>
+    <rPh sb="3" eb="4">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8.2 寿司</t>
+    <rPh sb="4" eb="6">
+      <t>スシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SaraKome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SaraKara</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>米がある皿</t>
+    <rPh sb="0" eb="1">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空の皿</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奥さんの手✋</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般人</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ManStand</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ManWalkFront</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ManWalkSide</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ManWalkBack</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般人が立っている</t>
+    <rPh sb="0" eb="3">
+      <t>イッパンジン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面に向かって歩く</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横に向かって歩く</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面を背向いて歩く</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アル</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -425,7 +895,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +976,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -641,10 +1122,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,21 +1160,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - アクセント 6" xfId="3" builtinId="52"/>
@@ -720,7 +1202,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -764,7 +1252,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -808,7 +1302,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -857,7 +1357,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -906,7 +1412,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -968,7 +1480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1030,7 +1548,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1092,7 +1616,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1154,20 +1684,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24"/>
+        <xdr:cNvPr id="25" name="グループ化 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8315325" y="4120025"/>
-          <a:ext cx="2524125" cy="2114697"/>
+          <a:off x="8250555" y="3958100"/>
+          <a:ext cx="2503170" cy="2028972"/>
           <a:chOff x="8315325" y="4120025"/>
           <a:chExt cx="2524125" cy="2114697"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="図 3"/>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1196,7 +1738,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+          <xdr:cNvPr id="20" name="正方形/長方形 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1243,7 +1791,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1306,20 +1860,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="グループ化 25"/>
+        <xdr:cNvPr id="26" name="グループ化 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11639550" y="4110500"/>
-          <a:ext cx="2524125" cy="2114697"/>
+          <a:off x="11548110" y="3948575"/>
+          <a:ext cx="2503170" cy="2028972"/>
           <a:chOff x="8315325" y="4120025"/>
           <a:chExt cx="2524125" cy="2114697"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="27" name="図 26"/>
+          <xdr:cNvPr id="27" name="図 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1348,7 +1914,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1395,7 +1967,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1458,7 +2036,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1507,7 +2091,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1561,20 +2151,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="グループ化 56"/>
+        <xdr:cNvPr id="57" name="グループ化 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="962025" y="2019300"/>
-          <a:ext cx="6153150" cy="5762625"/>
+          <a:off x="954405" y="1943100"/>
+          <a:ext cx="6105525" cy="5534025"/>
           <a:chOff x="333375" y="1885950"/>
           <a:chExt cx="6153150" cy="5762625"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="16" name="グループ化 15"/>
+          <xdr:cNvPr id="16" name="グループ化 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1587,7 +2189,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="角丸四角形 13"/>
+            <xdr:cNvPr id="14" name="角丸四角形 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1624,7 +2232,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="角丸四角形 1"/>
+            <xdr:cNvPr id="2" name="角丸四角形 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1666,7 +2280,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="15" name="グループ化 14"/>
+            <xdr:cNvPr id="15" name="グループ化 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -1679,7 +2299,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+              <xdr:cNvPr id="5" name="正方形/長方形 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1721,7 +2347,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+              <xdr:cNvPr id="6" name="正方形/長方形 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1763,7 +2395,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+              <xdr:cNvPr id="7" name="正方形/長方形 6">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1807,7 +2445,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="グループ化 12"/>
+          <xdr:cNvPr id="13" name="グループ化 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1820,7 +2464,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="角丸四角形 11"/>
+            <xdr:cNvPr id="12" name="角丸四角形 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1857,7 +2507,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="角丸四角形 3"/>
+            <xdr:cNvPr id="4" name="角丸四角形 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1899,7 +2555,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="11" name="グループ化 10"/>
+            <xdr:cNvPr id="11" name="グループ化 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -1912,7 +2574,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+              <xdr:cNvPr id="8" name="正方形/長方形 7">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1954,7 +2622,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+              <xdr:cNvPr id="9" name="正方形/長方形 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -1996,7 +2670,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+              <xdr:cNvPr id="10" name="正方形/長方形 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2040,7 +2720,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="27" name="グループ化 26"/>
+          <xdr:cNvPr id="27" name="グループ化 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2053,7 +2739,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="角丸四角形 16"/>
+            <xdr:cNvPr id="17" name="角丸四角形 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000011000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2090,7 +2782,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="角丸四角形 2"/>
+            <xdr:cNvPr id="3" name="角丸四角形 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2132,7 +2830,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+            <xdr:cNvPr id="18" name="正方形/長方形 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000012000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2174,7 +2878,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="23" name="グループ化 22"/>
+            <xdr:cNvPr id="23" name="グループ化 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -2187,7 +2897,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="19" name="ホームベース 18"/>
+              <xdr:cNvPr id="19" name="ホームベース 18">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000013000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2229,7 +2945,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="20" name="ホームベース 19"/>
+              <xdr:cNvPr id="20" name="ホームベース 19">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000014000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2271,7 +2993,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="ホームベース 20"/>
+              <xdr:cNvPr id="21" name="ホームベース 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000015000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2313,7 +3041,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="22" name="ホームベース 21"/>
+              <xdr:cNvPr id="22" name="ホームベース 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000016000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -2357,7 +3091,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="29" name="グループ化 28"/>
+          <xdr:cNvPr id="29" name="グループ化 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2370,7 +3110,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="角丸四角形 27"/>
+            <xdr:cNvPr id="28" name="角丸四角形 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2407,7 +3153,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+            <xdr:cNvPr id="25" name="正方形/長方形 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2449,7 +3201,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="1 つの角を丸めた四角形 25"/>
+            <xdr:cNvPr id="26" name="1 つの角を丸めた四角形 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2492,7 +3250,13 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+          <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2524,7 +3288,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+          <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -2556,7 +3326,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+          <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="26" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -2590,7 +3366,13 @@
       </xdr:cxnSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="56" name="グループ化 55"/>
+          <xdr:cNvPr id="56" name="グループ化 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000038000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2603,7 +3385,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+            <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:endCxn id="2" idx="0"/>
             </xdr:cNvCxnSpPr>
@@ -2637,7 +3425,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+            <xdr:cNvPr id="42" name="直線コネクタ 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2667,7 +3461,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="44" name="直線コネクタ 43"/>
+            <xdr:cNvPr id="44" name="直線コネクタ 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2697,7 +3497,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="48" name="直線コネクタ 47"/>
+            <xdr:cNvPr id="48" name="直線コネクタ 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="8" idx="3"/>
             </xdr:cNvCxnSpPr>
@@ -2729,7 +3535,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="52" name="直線コネクタ 51"/>
+            <xdr:cNvPr id="52" name="直線コネクタ 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000034000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="25" idx="3"/>
             </xdr:cNvCxnSpPr>
@@ -2778,20 +3590,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="グループ化 35"/>
+        <xdr:cNvPr id="36" name="グループ化 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1676400" y="10248900"/>
-          <a:ext cx="8582025" cy="4752975"/>
+          <a:off x="1663065" y="9839325"/>
+          <a:ext cx="8513445" cy="4562475"/>
           <a:chOff x="1419225" y="10248900"/>
           <a:chExt cx="8582025" cy="4752975"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="角丸四角形 23"/>
+          <xdr:cNvPr id="24" name="角丸四角形 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2828,7 +3652,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2865,7 +3695,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="楕円 32"/>
+          <xdr:cNvPr id="33" name="楕円 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2918,20 +3754,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="グループ化 50"/>
+        <xdr:cNvPr id="51" name="グループ化 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3076575" y="11163300"/>
-          <a:ext cx="5391150" cy="2809875"/>
+          <a:off x="3053715" y="10725150"/>
+          <a:ext cx="5347335" cy="2695575"/>
           <a:chOff x="2819400" y="11144250"/>
           <a:chExt cx="5391150" cy="2809875"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2970,7 +3818,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvPr id="45" name="正方形/長方形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3009,7 +3863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3048,7 +3908,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="小波 38"/>
+          <xdr:cNvPr id="39" name="小波 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3087,7 +3953,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="直線コネクタ 40"/>
+          <xdr:cNvPr id="41" name="直線コネクタ 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="46" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -3119,7 +3991,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="47" name="直線コネクタ 46"/>
+          <xdr:cNvPr id="47" name="直線コネクタ 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="45" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -3151,7 +4029,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="50" name="直線コネクタ 49"/>
+          <xdr:cNvPr id="50" name="直線コネクタ 49">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000032000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="37" idx="0"/>
           </xdr:cNvCxnSpPr>
@@ -3199,7 +4083,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="角丸四角形 52"/>
+        <xdr:cNvPr id="53" name="角丸四角形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3257,7 +4147,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="角丸四角形 57"/>
+        <xdr:cNvPr id="58" name="角丸四角形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3572,1489 +4468,1497 @@
       <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="3" t="s">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="9" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="12"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="2" t="s">
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="9" t="s">
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9" t="s">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="2" t="s">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="11" t="s">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="18" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-    </row>
-    <row r="19" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="11"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="11"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-    </row>
-    <row r="21" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+    </row>
+    <row r="19" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+    </row>
+    <row r="21" spans="3:63" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E23" s="10" t="s">
+    <row r="23" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
-      <c r="BF23" s="10"/>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="10"/>
-    </row>
-    <row r="24" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
-      <c r="BF24" s="10"/>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="10"/>
-      <c r="BI24" s="10"/>
-      <c r="BJ24" s="10"/>
-    </row>
-    <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="10" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+    </row>
+    <row r="24" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+    </row>
+    <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
-    </row>
-    <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-    </row>
-    <row r="31" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+    </row>
+    <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+    </row>
+    <row r="31" spans="3:63" x14ac:dyDescent="0.45">
       <c r="H31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="10" t="s">
+    <row r="33" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="10"/>
-    </row>
-    <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
-      <c r="BF34" s="10"/>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="10"/>
-      <c r="BI34" s="10"/>
-      <c r="BJ34" s="10"/>
-    </row>
-    <row r="38" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E38" s="10" t="s">
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+    </row>
+    <row r="34" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+    </row>
+    <row r="38" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
-      <c r="AO38" s="10"/>
-      <c r="AP38" s="10"/>
-      <c r="AQ38" s="10"/>
-      <c r="AR38" s="10"/>
-      <c r="AS38" s="10"/>
-      <c r="AT38" s="10"/>
-      <c r="AU38" s="10"/>
-      <c r="AV38" s="10"/>
-      <c r="AW38" s="10"/>
-      <c r="AX38" s="10"/>
-      <c r="AY38" s="10"/>
-      <c r="AZ38" s="10"/>
-      <c r="BA38" s="10"/>
-      <c r="BB38" s="10"/>
-      <c r="BC38" s="10"/>
-      <c r="BD38" s="10"/>
-      <c r="BE38" s="10"/>
-      <c r="BF38" s="10"/>
-      <c r="BG38" s="10"/>
-      <c r="BH38" s="10"/>
-      <c r="BI38" s="10"/>
-      <c r="BJ38" s="10"/>
-    </row>
-    <row r="39" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="10"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="10"/>
-      <c r="AP39" s="10"/>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="10"/>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="10"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
-      <c r="AY39" s="10"/>
-      <c r="AZ39" s="10"/>
-      <c r="BA39" s="10"/>
-      <c r="BB39" s="10"/>
-      <c r="BC39" s="10"/>
-      <c r="BD39" s="10"/>
-      <c r="BE39" s="10"/>
-      <c r="BF39" s="10"/>
-      <c r="BG39" s="10"/>
-      <c r="BH39" s="10"/>
-      <c r="BI39" s="10"/>
-      <c r="BJ39" s="10"/>
-    </row>
-    <row r="43" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E43" s="10" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+    </row>
+    <row r="39" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+    </row>
+    <row r="43" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="10"/>
-      <c r="AL43" s="10"/>
-      <c r="AM43" s="10"/>
-      <c r="AN43" s="10"/>
-      <c r="AO43" s="10"/>
-      <c r="AP43" s="10"/>
-      <c r="AQ43" s="10"/>
-      <c r="AR43" s="10"/>
-      <c r="AS43" s="10"/>
-      <c r="AT43" s="10"/>
-      <c r="AU43" s="10"/>
-      <c r="AV43" s="10"/>
-      <c r="AW43" s="10"/>
-      <c r="AX43" s="10"/>
-      <c r="AY43" s="10"/>
-      <c r="AZ43" s="10"/>
-      <c r="BA43" s="10"/>
-      <c r="BB43" s="10"/>
-      <c r="BC43" s="10"/>
-      <c r="BD43" s="10"/>
-      <c r="BE43" s="10"/>
-      <c r="BF43" s="10"/>
-      <c r="BG43" s="10"/>
-      <c r="BH43" s="10"/>
-      <c r="BI43" s="10"/>
-      <c r="BJ43" s="10"/>
-    </row>
-    <row r="44" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="10"/>
-      <c r="AL44" s="10"/>
-      <c r="AM44" s="10"/>
-      <c r="AN44" s="10"/>
-      <c r="AO44" s="10"/>
-      <c r="AP44" s="10"/>
-      <c r="AQ44" s="10"/>
-      <c r="AR44" s="10"/>
-      <c r="AS44" s="10"/>
-      <c r="AT44" s="10"/>
-      <c r="AU44" s="10"/>
-      <c r="AV44" s="10"/>
-      <c r="AW44" s="10"/>
-      <c r="AX44" s="10"/>
-      <c r="AY44" s="10"/>
-      <c r="AZ44" s="10"/>
-      <c r="BA44" s="10"/>
-      <c r="BB44" s="10"/>
-      <c r="BC44" s="10"/>
-      <c r="BD44" s="10"/>
-      <c r="BE44" s="10"/>
-      <c r="BF44" s="10"/>
-      <c r="BG44" s="10"/>
-      <c r="BH44" s="10"/>
-      <c r="BI44" s="10"/>
-      <c r="BJ44" s="10"/>
-    </row>
-    <row r="48" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E48" s="10" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+    </row>
+    <row r="44" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="2"/>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="2"/>
+      <c r="BE44" s="2"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BI44" s="2"/>
+      <c r="BJ44" s="2"/>
+    </row>
+    <row r="48" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
-      <c r="AL48" s="10"/>
-      <c r="AM48" s="10"/>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="10"/>
-      <c r="AP48" s="10"/>
-      <c r="AQ48" s="10"/>
-      <c r="AR48" s="10"/>
-      <c r="AS48" s="10"/>
-      <c r="AT48" s="10"/>
-      <c r="AU48" s="10"/>
-      <c r="AV48" s="10"/>
-      <c r="AW48" s="10"/>
-      <c r="AX48" s="10"/>
-      <c r="AY48" s="10"/>
-      <c r="AZ48" s="10"/>
-      <c r="BA48" s="10"/>
-      <c r="BB48" s="10"/>
-      <c r="BC48" s="10"/>
-      <c r="BD48" s="10"/>
-      <c r="BE48" s="10"/>
-      <c r="BF48" s="10"/>
-      <c r="BG48" s="10"/>
-      <c r="BH48" s="10"/>
-      <c r="BI48" s="10"/>
-      <c r="BJ48" s="10"/>
-    </row>
-    <row r="49" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="10"/>
-      <c r="AV49" s="10"/>
-      <c r="AW49" s="10"/>
-      <c r="AX49" s="10"/>
-      <c r="AY49" s="10"/>
-      <c r="AZ49" s="10"/>
-      <c r="BA49" s="10"/>
-      <c r="BB49" s="10"/>
-      <c r="BC49" s="10"/>
-      <c r="BD49" s="10"/>
-      <c r="BE49" s="10"/>
-      <c r="BF49" s="10"/>
-      <c r="BG49" s="10"/>
-      <c r="BH49" s="10"/>
-      <c r="BI49" s="10"/>
-      <c r="BJ49" s="10"/>
-    </row>
-    <row r="53" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E53" s="10" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
+    </row>
+    <row r="49" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+    </row>
+    <row r="53" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="10"/>
-      <c r="AE53" s="10"/>
-      <c r="AF53" s="10"/>
-      <c r="AG53" s="10"/>
-      <c r="AH53" s="10"/>
-      <c r="AI53" s="10"/>
-      <c r="AJ53" s="10"/>
-      <c r="AK53" s="10"/>
-      <c r="AL53" s="10"/>
-      <c r="AM53" s="10"/>
-      <c r="AN53" s="10"/>
-      <c r="AO53" s="10"/>
-      <c r="AP53" s="10"/>
-      <c r="AQ53" s="10"/>
-      <c r="AR53" s="10"/>
-      <c r="AS53" s="10"/>
-      <c r="AT53" s="10"/>
-      <c r="AU53" s="10"/>
-      <c r="AV53" s="10"/>
-      <c r="AW53" s="10"/>
-      <c r="AX53" s="10"/>
-      <c r="AY53" s="10"/>
-      <c r="AZ53" s="10"/>
-      <c r="BA53" s="10"/>
-      <c r="BB53" s="10"/>
-      <c r="BC53" s="10"/>
-      <c r="BD53" s="10"/>
-      <c r="BE53" s="10"/>
-      <c r="BF53" s="10"/>
-      <c r="BG53" s="10"/>
-      <c r="BH53" s="10"/>
-      <c r="BI53" s="10"/>
-      <c r="BJ53" s="10"/>
-    </row>
-    <row r="54" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
-      <c r="AL54" s="10"/>
-      <c r="AM54" s="10"/>
-      <c r="AN54" s="10"/>
-      <c r="AO54" s="10"/>
-      <c r="AP54" s="10"/>
-      <c r="AQ54" s="10"/>
-      <c r="AR54" s="10"/>
-      <c r="AS54" s="10"/>
-      <c r="AT54" s="10"/>
-      <c r="AU54" s="10"/>
-      <c r="AV54" s="10"/>
-      <c r="AW54" s="10"/>
-      <c r="AX54" s="10"/>
-      <c r="AY54" s="10"/>
-      <c r="AZ54" s="10"/>
-      <c r="BA54" s="10"/>
-      <c r="BB54" s="10"/>
-      <c r="BC54" s="10"/>
-      <c r="BD54" s="10"/>
-      <c r="BE54" s="10"/>
-      <c r="BF54" s="10"/>
-      <c r="BG54" s="10"/>
-      <c r="BH54" s="10"/>
-      <c r="BI54" s="10"/>
-      <c r="BJ54" s="10"/>
-    </row>
-    <row r="58" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C58" s="11" t="s">
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+      <c r="BJ53" s="2"/>
+    </row>
+    <row r="54" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="2"/>
+      <c r="BE54" s="2"/>
+      <c r="BF54" s="2"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+      <c r="BJ54" s="2"/>
+    </row>
+    <row r="58" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="11"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="11"/>
-      <c r="AX58" s="11"/>
-      <c r="AY58" s="11"/>
-      <c r="AZ58" s="11"/>
-      <c r="BA58" s="11"/>
-      <c r="BB58" s="11"/>
-      <c r="BC58" s="11"/>
-      <c r="BD58" s="11"/>
-      <c r="BE58" s="11"/>
-      <c r="BF58" s="11"/>
-      <c r="BG58" s="11"/>
-      <c r="BH58" s="11"/>
-      <c r="BI58" s="11"/>
-      <c r="BJ58" s="11"/>
-      <c r="BK58" s="11"/>
-    </row>
-    <row r="59" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="11"/>
-      <c r="AI59" s="11"/>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
-      <c r="AM59" s="11"/>
-      <c r="AN59" s="11"/>
-      <c r="AO59" s="11"/>
-      <c r="AP59" s="11"/>
-      <c r="AQ59" s="11"/>
-      <c r="AR59" s="11"/>
-      <c r="AS59" s="11"/>
-      <c r="AT59" s="11"/>
-      <c r="AU59" s="11"/>
-      <c r="AV59" s="11"/>
-      <c r="AW59" s="11"/>
-      <c r="AX59" s="11"/>
-      <c r="AY59" s="11"/>
-      <c r="AZ59" s="11"/>
-      <c r="BA59" s="11"/>
-      <c r="BB59" s="11"/>
-      <c r="BC59" s="11"/>
-      <c r="BD59" s="11"/>
-      <c r="BE59" s="11"/>
-      <c r="BF59" s="11"/>
-      <c r="BG59" s="11"/>
-      <c r="BH59" s="11"/>
-      <c r="BI59" s="11"/>
-      <c r="BJ59" s="11"/>
-      <c r="BK59" s="11"/>
-    </row>
-    <row r="63" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C63" s="11" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+      <c r="AH58" s="3"/>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="3"/>
+      <c r="AM58" s="3"/>
+      <c r="AN58" s="3"/>
+      <c r="AO58" s="3"/>
+      <c r="AP58" s="3"/>
+      <c r="AQ58" s="3"/>
+      <c r="AR58" s="3"/>
+      <c r="AS58" s="3"/>
+      <c r="AT58" s="3"/>
+      <c r="AU58" s="3"/>
+      <c r="AV58" s="3"/>
+      <c r="AW58" s="3"/>
+      <c r="AX58" s="3"/>
+      <c r="AY58" s="3"/>
+      <c r="AZ58" s="3"/>
+      <c r="BA58" s="3"/>
+      <c r="BB58" s="3"/>
+      <c r="BC58" s="3"/>
+      <c r="BD58" s="3"/>
+      <c r="BE58" s="3"/>
+      <c r="BF58" s="3"/>
+      <c r="BG58" s="3"/>
+      <c r="BH58" s="3"/>
+      <c r="BI58" s="3"/>
+      <c r="BJ58" s="3"/>
+      <c r="BK58" s="3"/>
+    </row>
+    <row r="59" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="3"/>
+      <c r="AY59" s="3"/>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="3"/>
+      <c r="BG59" s="3"/>
+      <c r="BH59" s="3"/>
+      <c r="BI59" s="3"/>
+      <c r="BJ59" s="3"/>
+      <c r="BK59" s="3"/>
+    </row>
+    <row r="63" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
-      <c r="AQ63" s="11"/>
-      <c r="AR63" s="11"/>
-      <c r="AS63" s="11"/>
-      <c r="AT63" s="11"/>
-      <c r="AU63" s="11"/>
-      <c r="AV63" s="11"/>
-      <c r="AW63" s="11"/>
-      <c r="AX63" s="11"/>
-      <c r="AY63" s="11"/>
-      <c r="AZ63" s="11"/>
-      <c r="BA63" s="11"/>
-      <c r="BB63" s="11"/>
-      <c r="BC63" s="11"/>
-      <c r="BD63" s="11"/>
-      <c r="BE63" s="11"/>
-      <c r="BF63" s="11"/>
-      <c r="BG63" s="11"/>
-      <c r="BH63" s="11"/>
-      <c r="BI63" s="11"/>
-      <c r="BJ63" s="11"/>
-      <c r="BK63" s="11"/>
-    </row>
-    <row r="64" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="11"/>
-      <c r="AH64" s="11"/>
-      <c r="AI64" s="11"/>
-      <c r="AJ64" s="11"/>
-      <c r="AK64" s="11"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
-      <c r="AQ64" s="11"/>
-      <c r="AR64" s="11"/>
-      <c r="AS64" s="11"/>
-      <c r="AT64" s="11"/>
-      <c r="AU64" s="11"/>
-      <c r="AV64" s="11"/>
-      <c r="AW64" s="11"/>
-      <c r="AX64" s="11"/>
-      <c r="AY64" s="11"/>
-      <c r="AZ64" s="11"/>
-      <c r="BA64" s="11"/>
-      <c r="BB64" s="11"/>
-      <c r="BC64" s="11"/>
-      <c r="BD64" s="11"/>
-      <c r="BE64" s="11"/>
-      <c r="BF64" s="11"/>
-      <c r="BG64" s="11"/>
-      <c r="BH64" s="11"/>
-      <c r="BI64" s="11"/>
-      <c r="BJ64" s="11"/>
-      <c r="BK64" s="11"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="3"/>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="3"/>
+      <c r="AQ63" s="3"/>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="3"/>
+      <c r="AT63" s="3"/>
+      <c r="AU63" s="3"/>
+      <c r="AV63" s="3"/>
+      <c r="AW63" s="3"/>
+      <c r="AX63" s="3"/>
+      <c r="AY63" s="3"/>
+      <c r="AZ63" s="3"/>
+      <c r="BA63" s="3"/>
+      <c r="BB63" s="3"/>
+      <c r="BC63" s="3"/>
+      <c r="BD63" s="3"/>
+      <c r="BE63" s="3"/>
+      <c r="BF63" s="3"/>
+      <c r="BG63" s="3"/>
+      <c r="BH63" s="3"/>
+      <c r="BI63" s="3"/>
+      <c r="BJ63" s="3"/>
+      <c r="BK63" s="3"/>
+    </row>
+    <row r="64" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+      <c r="AG64" s="3"/>
+      <c r="AH64" s="3"/>
+      <c r="AI64" s="3"/>
+      <c r="AJ64" s="3"/>
+      <c r="AK64" s="3"/>
+      <c r="AL64" s="3"/>
+      <c r="AM64" s="3"/>
+      <c r="AN64" s="3"/>
+      <c r="AO64" s="3"/>
+      <c r="AP64" s="3"/>
+      <c r="AQ64" s="3"/>
+      <c r="AR64" s="3"/>
+      <c r="AS64" s="3"/>
+      <c r="AT64" s="3"/>
+      <c r="AU64" s="3"/>
+      <c r="AV64" s="3"/>
+      <c r="AW64" s="3"/>
+      <c r="AX64" s="3"/>
+      <c r="AY64" s="3"/>
+      <c r="AZ64" s="3"/>
+      <c r="BA64" s="3"/>
+      <c r="BB64" s="3"/>
+      <c r="BC64" s="3"/>
+      <c r="BD64" s="3"/>
+      <c r="BE64" s="3"/>
+      <c r="BF64" s="3"/>
+      <c r="BG64" s="3"/>
+      <c r="BH64" s="3"/>
+      <c r="BI64" s="3"/>
+      <c r="BJ64" s="3"/>
+      <c r="BK64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
     <mergeCell ref="E48:BJ49"/>
     <mergeCell ref="E53:BJ54"/>
     <mergeCell ref="C63:BK64"/>
@@ -5071,14 +5975,6 @@
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
     <mergeCell ref="E6:V7"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5107,16 +6003,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -5142,20 +6038,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:BJ41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -5164,385 +6060,385 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-    </row>
-    <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-    </row>
-    <row r="35" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C35" s="11" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+    </row>
+    <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+    </row>
+    <row r="35" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="11"/>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="11"/>
-      <c r="AQ35" s="11"/>
-      <c r="AR35" s="11"/>
-      <c r="AS35" s="11"/>
-      <c r="AT35" s="11"/>
-      <c r="AU35" s="11"/>
-      <c r="AV35" s="11"/>
-      <c r="AW35" s="11"/>
-      <c r="AX35" s="11"/>
-      <c r="AY35" s="11"/>
-      <c r="AZ35" s="11"/>
-      <c r="BA35" s="11"/>
-      <c r="BB35" s="11"/>
-      <c r="BC35" s="11"/>
-      <c r="BD35" s="11"/>
-      <c r="BE35" s="11"/>
-      <c r="BF35" s="11"/>
-      <c r="BG35" s="11"/>
-      <c r="BH35" s="11"/>
-      <c r="BI35" s="11"/>
-      <c r="BJ35" s="11"/>
-      <c r="BK35" s="11"/>
-    </row>
-    <row r="36" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
-      <c r="AL36" s="11"/>
-      <c r="AM36" s="11"/>
-      <c r="AN36" s="11"/>
-      <c r="AO36" s="11"/>
-      <c r="AP36" s="11"/>
-      <c r="AQ36" s="11"/>
-      <c r="AR36" s="11"/>
-      <c r="AS36" s="11"/>
-      <c r="AT36" s="11"/>
-      <c r="AU36" s="11"/>
-      <c r="AV36" s="11"/>
-      <c r="AW36" s="11"/>
-      <c r="AX36" s="11"/>
-      <c r="AY36" s="11"/>
-      <c r="AZ36" s="11"/>
-      <c r="BA36" s="11"/>
-      <c r="BB36" s="11"/>
-      <c r="BC36" s="11"/>
-      <c r="BD36" s="11"/>
-      <c r="BE36" s="11"/>
-      <c r="BF36" s="11"/>
-      <c r="BG36" s="11"/>
-      <c r="BH36" s="11"/>
-      <c r="BI36" s="11"/>
-      <c r="BJ36" s="11"/>
-      <c r="BK36" s="11"/>
-    </row>
-    <row r="40" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E40" s="10" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="3"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
+      <c r="BE35" s="3"/>
+      <c r="BF35" s="3"/>
+      <c r="BG35" s="3"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+      <c r="BJ35" s="3"/>
+      <c r="BK35" s="3"/>
+    </row>
+    <row r="36" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AL36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
+      <c r="AY36" s="3"/>
+      <c r="AZ36" s="3"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
+      <c r="BE36" s="3"/>
+      <c r="BF36" s="3"/>
+      <c r="BG36" s="3"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+      <c r="BJ36" s="3"/>
+      <c r="BK36" s="3"/>
+    </row>
+    <row r="40" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="E40" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
-      <c r="AL40" s="10"/>
-      <c r="AM40" s="10"/>
-      <c r="AN40" s="10"/>
-      <c r="AO40" s="10"/>
-      <c r="AP40" s="10"/>
-      <c r="AQ40" s="10"/>
-      <c r="AR40" s="10"/>
-      <c r="AS40" s="10"/>
-      <c r="AT40" s="10"/>
-      <c r="AU40" s="10"/>
-      <c r="AV40" s="10"/>
-      <c r="AW40" s="10"/>
-      <c r="AX40" s="10"/>
-      <c r="AY40" s="10"/>
-      <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
-      <c r="BB40" s="10"/>
-      <c r="BC40" s="10"/>
-      <c r="BD40" s="10"/>
-      <c r="BE40" s="10"/>
-      <c r="BF40" s="10"/>
-      <c r="BG40" s="10"/>
-      <c r="BH40" s="10"/>
-      <c r="BI40" s="10"/>
-      <c r="BJ40" s="10"/>
-    </row>
-    <row r="41" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="10"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="10"/>
-      <c r="AO41" s="10"/>
-      <c r="AP41" s="10"/>
-      <c r="AQ41" s="10"/>
-      <c r="AR41" s="10"/>
-      <c r="AS41" s="10"/>
-      <c r="AT41" s="10"/>
-      <c r="AU41" s="10"/>
-      <c r="AV41" s="10"/>
-      <c r="AW41" s="10"/>
-      <c r="AX41" s="10"/>
-      <c r="AY41" s="10"/>
-      <c r="AZ41" s="10"/>
-      <c r="BA41" s="10"/>
-      <c r="BB41" s="10"/>
-      <c r="BC41" s="10"/>
-      <c r="BD41" s="10"/>
-      <c r="BE41" s="10"/>
-      <c r="BF41" s="10"/>
-      <c r="BG41" s="10"/>
-      <c r="BH41" s="10"/>
-      <c r="BI41" s="10"/>
-      <c r="BJ41" s="10"/>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+    </row>
+    <row r="41" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G65" t="s">
         <v>24</v>
       </c>
@@ -5550,249 +6446,249 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E82" s="10" t="s">
+    <row r="82" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E82" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
-      <c r="Z82" s="10"/>
-      <c r="AA82" s="10"/>
-      <c r="AB82" s="10"/>
-      <c r="AC82" s="10"/>
-      <c r="AD82" s="10"/>
-      <c r="AE82" s="10"/>
-      <c r="AF82" s="10"/>
-      <c r="AG82" s="10"/>
-      <c r="AH82" s="10"/>
-      <c r="AI82" s="10"/>
-      <c r="AJ82" s="10"/>
-      <c r="AK82" s="10"/>
-      <c r="AL82" s="10"/>
-      <c r="AM82" s="10"/>
-      <c r="AN82" s="10"/>
-      <c r="AO82" s="10"/>
-      <c r="AP82" s="10"/>
-      <c r="AQ82" s="10"/>
-      <c r="AR82" s="10"/>
-      <c r="AS82" s="10"/>
-      <c r="AT82" s="10"/>
-      <c r="AU82" s="10"/>
-      <c r="AV82" s="10"/>
-      <c r="AW82" s="10"/>
-      <c r="AX82" s="10"/>
-      <c r="AY82" s="10"/>
-      <c r="AZ82" s="10"/>
-      <c r="BA82" s="10"/>
-      <c r="BB82" s="10"/>
-      <c r="BC82" s="10"/>
-      <c r="BD82" s="10"/>
-      <c r="BE82" s="10"/>
-      <c r="BF82" s="10"/>
-      <c r="BG82" s="10"/>
-      <c r="BH82" s="10"/>
-      <c r="BI82" s="10"/>
-      <c r="BJ82" s="10"/>
-    </row>
-    <row r="83" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="10"/>
-      <c r="Z83" s="10"/>
-      <c r="AA83" s="10"/>
-      <c r="AB83" s="10"/>
-      <c r="AC83" s="10"/>
-      <c r="AD83" s="10"/>
-      <c r="AE83" s="10"/>
-      <c r="AF83" s="10"/>
-      <c r="AG83" s="10"/>
-      <c r="AH83" s="10"/>
-      <c r="AI83" s="10"/>
-      <c r="AJ83" s="10"/>
-      <c r="AK83" s="10"/>
-      <c r="AL83" s="10"/>
-      <c r="AM83" s="10"/>
-      <c r="AN83" s="10"/>
-      <c r="AO83" s="10"/>
-      <c r="AP83" s="10"/>
-      <c r="AQ83" s="10"/>
-      <c r="AR83" s="10"/>
-      <c r="AS83" s="10"/>
-      <c r="AT83" s="10"/>
-      <c r="AU83" s="10"/>
-      <c r="AV83" s="10"/>
-      <c r="AW83" s="10"/>
-      <c r="AX83" s="10"/>
-      <c r="AY83" s="10"/>
-      <c r="AZ83" s="10"/>
-      <c r="BA83" s="10"/>
-      <c r="BB83" s="10"/>
-      <c r="BC83" s="10"/>
-      <c r="BD83" s="10"/>
-      <c r="BE83" s="10"/>
-      <c r="BF83" s="10"/>
-      <c r="BG83" s="10"/>
-      <c r="BH83" s="10"/>
-      <c r="BI83" s="10"/>
-      <c r="BJ83" s="10"/>
-    </row>
-    <row r="113" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E113" s="10" t="s">
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
+      <c r="AL82" s="2"/>
+      <c r="AM82" s="2"/>
+      <c r="AN82" s="2"/>
+      <c r="AO82" s="2"/>
+      <c r="AP82" s="2"/>
+      <c r="AQ82" s="2"/>
+      <c r="AR82" s="2"/>
+      <c r="AS82" s="2"/>
+      <c r="AT82" s="2"/>
+      <c r="AU82" s="2"/>
+      <c r="AV82" s="2"/>
+      <c r="AW82" s="2"/>
+      <c r="AX82" s="2"/>
+      <c r="AY82" s="2"/>
+      <c r="AZ82" s="2"/>
+      <c r="BA82" s="2"/>
+      <c r="BB82" s="2"/>
+      <c r="BC82" s="2"/>
+      <c r="BD82" s="2"/>
+      <c r="BE82" s="2"/>
+      <c r="BF82" s="2"/>
+      <c r="BG82" s="2"/>
+      <c r="BH82" s="2"/>
+      <c r="BI82" s="2"/>
+      <c r="BJ82" s="2"/>
+    </row>
+    <row r="83" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="2"/>
+      <c r="AQ83" s="2"/>
+      <c r="AR83" s="2"/>
+      <c r="AS83" s="2"/>
+      <c r="AT83" s="2"/>
+      <c r="AU83" s="2"/>
+      <c r="AV83" s="2"/>
+      <c r="AW83" s="2"/>
+      <c r="AX83" s="2"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="2"/>
+      <c r="BA83" s="2"/>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="2"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="2"/>
+    </row>
+    <row r="113" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E113" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" s="10"/>
-      <c r="R113" s="10"/>
-      <c r="S113" s="10"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="10"/>
-      <c r="W113" s="10"/>
-      <c r="X113" s="10"/>
-      <c r="Y113" s="10"/>
-      <c r="Z113" s="10"/>
-      <c r="AA113" s="10"/>
-      <c r="AB113" s="10"/>
-      <c r="AC113" s="10"/>
-      <c r="AD113" s="10"/>
-      <c r="AE113" s="10"/>
-      <c r="AF113" s="10"/>
-      <c r="AG113" s="10"/>
-      <c r="AH113" s="10"/>
-      <c r="AI113" s="10"/>
-      <c r="AJ113" s="10"/>
-      <c r="AK113" s="10"/>
-      <c r="AL113" s="10"/>
-      <c r="AM113" s="10"/>
-      <c r="AN113" s="10"/>
-      <c r="AO113" s="10"/>
-      <c r="AP113" s="10"/>
-      <c r="AQ113" s="10"/>
-      <c r="AR113" s="10"/>
-      <c r="AS113" s="10"/>
-      <c r="AT113" s="10"/>
-      <c r="AU113" s="10"/>
-      <c r="AV113" s="10"/>
-      <c r="AW113" s="10"/>
-      <c r="AX113" s="10"/>
-      <c r="AY113" s="10"/>
-      <c r="AZ113" s="10"/>
-      <c r="BA113" s="10"/>
-      <c r="BB113" s="10"/>
-      <c r="BC113" s="10"/>
-      <c r="BD113" s="10"/>
-      <c r="BE113" s="10"/>
-      <c r="BF113" s="10"/>
-      <c r="BG113" s="10"/>
-      <c r="BH113" s="10"/>
-      <c r="BI113" s="10"/>
-      <c r="BJ113" s="10"/>
-    </row>
-    <row r="114" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" s="10"/>
-      <c r="R114" s="10"/>
-      <c r="S114" s="10"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="10"/>
-      <c r="W114" s="10"/>
-      <c r="X114" s="10"/>
-      <c r="Y114" s="10"/>
-      <c r="Z114" s="10"/>
-      <c r="AA114" s="10"/>
-      <c r="AB114" s="10"/>
-      <c r="AC114" s="10"/>
-      <c r="AD114" s="10"/>
-      <c r="AE114" s="10"/>
-      <c r="AF114" s="10"/>
-      <c r="AG114" s="10"/>
-      <c r="AH114" s="10"/>
-      <c r="AI114" s="10"/>
-      <c r="AJ114" s="10"/>
-      <c r="AK114" s="10"/>
-      <c r="AL114" s="10"/>
-      <c r="AM114" s="10"/>
-      <c r="AN114" s="10"/>
-      <c r="AO114" s="10"/>
-      <c r="AP114" s="10"/>
-      <c r="AQ114" s="10"/>
-      <c r="AR114" s="10"/>
-      <c r="AS114" s="10"/>
-      <c r="AT114" s="10"/>
-      <c r="AU114" s="10"/>
-      <c r="AV114" s="10"/>
-      <c r="AW114" s="10"/>
-      <c r="AX114" s="10"/>
-      <c r="AY114" s="10"/>
-      <c r="AZ114" s="10"/>
-      <c r="BA114" s="10"/>
-      <c r="BB114" s="10"/>
-      <c r="BC114" s="10"/>
-      <c r="BD114" s="10"/>
-      <c r="BE114" s="10"/>
-      <c r="BF114" s="10"/>
-      <c r="BG114" s="10"/>
-      <c r="BH114" s="10"/>
-      <c r="BI114" s="10"/>
-      <c r="BJ114" s="10"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="2"/>
+      <c r="AH113" s="2"/>
+      <c r="AI113" s="2"/>
+      <c r="AJ113" s="2"/>
+      <c r="AK113" s="2"/>
+      <c r="AL113" s="2"/>
+      <c r="AM113" s="2"/>
+      <c r="AN113" s="2"/>
+      <c r="AO113" s="2"/>
+      <c r="AP113" s="2"/>
+      <c r="AQ113" s="2"/>
+      <c r="AR113" s="2"/>
+      <c r="AS113" s="2"/>
+      <c r="AT113" s="2"/>
+      <c r="AU113" s="2"/>
+      <c r="AV113" s="2"/>
+      <c r="AW113" s="2"/>
+      <c r="AX113" s="2"/>
+      <c r="AY113" s="2"/>
+      <c r="AZ113" s="2"/>
+      <c r="BA113" s="2"/>
+      <c r="BB113" s="2"/>
+      <c r="BC113" s="2"/>
+      <c r="BD113" s="2"/>
+      <c r="BE113" s="2"/>
+      <c r="BF113" s="2"/>
+      <c r="BG113" s="2"/>
+      <c r="BH113" s="2"/>
+      <c r="BI113" s="2"/>
+      <c r="BJ113" s="2"/>
+    </row>
+    <row r="114" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2"/>
+      <c r="AG114" s="2"/>
+      <c r="AH114" s="2"/>
+      <c r="AI114" s="2"/>
+      <c r="AJ114" s="2"/>
+      <c r="AK114" s="2"/>
+      <c r="AL114" s="2"/>
+      <c r="AM114" s="2"/>
+      <c r="AN114" s="2"/>
+      <c r="AO114" s="2"/>
+      <c r="AP114" s="2"/>
+      <c r="AQ114" s="2"/>
+      <c r="AR114" s="2"/>
+      <c r="AS114" s="2"/>
+      <c r="AT114" s="2"/>
+      <c r="AU114" s="2"/>
+      <c r="AV114" s="2"/>
+      <c r="AW114" s="2"/>
+      <c r="AX114" s="2"/>
+      <c r="AY114" s="2"/>
+      <c r="AZ114" s="2"/>
+      <c r="BA114" s="2"/>
+      <c r="BB114" s="2"/>
+      <c r="BC114" s="2"/>
+      <c r="BD114" s="2"/>
+      <c r="BE114" s="2"/>
+      <c r="BF114" s="2"/>
+      <c r="BG114" s="2"/>
+      <c r="BH114" s="2"/>
+      <c r="BI114" s="2"/>
+      <c r="BJ114" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5813,6 +6709,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="14">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="14">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="14">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="14">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="14">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="14">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="14">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="14">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="14">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="14">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="14">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="14">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="14">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="14">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="14">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="14">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="14">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="14">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK23"/>
@@ -5821,16 +6951,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -5839,517 +6969,517 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C12" s="11" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
-      <c r="BD12" s="11"/>
-      <c r="BE12" s="11"/>
-      <c r="BF12" s="11"/>
-      <c r="BG12" s="11"/>
-      <c r="BH12" s="11"/>
-      <c r="BI12" s="11"/>
-      <c r="BJ12" s="11"/>
-      <c r="BK12" s="11"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
-      <c r="AV13" s="11"/>
-      <c r="AW13" s="11"/>
-      <c r="AX13" s="11"/>
-      <c r="AY13" s="11"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="11"/>
-      <c r="BB13" s="11"/>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="11"/>
-      <c r="BE13" s="11"/>
-      <c r="BF13" s="11"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-    </row>
-    <row r="17" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C17" s="11" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BA13" s="3"/>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+    </row>
+    <row r="17" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
-      <c r="AO17" s="11"/>
-      <c r="AP17" s="11"/>
-      <c r="AQ17" s="11"/>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="11"/>
-      <c r="AT17" s="11"/>
-      <c r="AU17" s="11"/>
-      <c r="AV17" s="11"/>
-      <c r="AW17" s="11"/>
-      <c r="AX17" s="11"/>
-      <c r="AY17" s="11"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="11"/>
-      <c r="BB17" s="11"/>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="11"/>
-      <c r="BE17" s="11"/>
-      <c r="BF17" s="11"/>
-      <c r="BG17" s="11"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="11"/>
-      <c r="BJ17" s="11"/>
-      <c r="BK17" s="11"/>
-    </row>
-    <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-    </row>
-    <row r="22" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C22" s="11" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+    </row>
+    <row r="18" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+    </row>
+    <row r="22" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
-      <c r="AY22" s="11"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="11"/>
-      <c r="BB22" s="11"/>
-      <c r="BC22" s="11"/>
-      <c r="BD22" s="11"/>
-      <c r="BE22" s="11"/>
-      <c r="BF22" s="11"/>
-      <c r="BG22" s="11"/>
-      <c r="BH22" s="11"/>
-      <c r="BI22" s="11"/>
-      <c r="BJ22" s="11"/>
-      <c r="BK22" s="11"/>
-    </row>
-    <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="11"/>
-      <c r="AN23" s="11"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="11"/>
-      <c r="AV23" s="11"/>
-      <c r="AW23" s="11"/>
-      <c r="AX23" s="11"/>
-      <c r="AY23" s="11"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="11"/>
-      <c r="BB23" s="11"/>
-      <c r="BC23" s="11"/>
-      <c r="BD23" s="11"/>
-      <c r="BE23" s="11"/>
-      <c r="BF23" s="11"/>
-      <c r="BG23" s="11"/>
-      <c r="BH23" s="11"/>
-      <c r="BI23" s="11"/>
-      <c r="BJ23" s="11"/>
-      <c r="BK23" s="11"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+    </row>
+    <row r="23" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6376,16 +7506,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -6411,20 +7541,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -6433,262 +7563,262 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E14" s="10" t="s">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="10"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="AZ15" s="10"/>
-      <c r="BA15" s="10"/>
-      <c r="BB15" s="10"/>
-      <c r="BC15" s="10"/>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="10"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-    </row>
-    <row r="17" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+    </row>
+    <row r="17" spans="5:62" x14ac:dyDescent="0.45">
       <c r="H17" t="s">
         <v>36</v>
       </c>
@@ -6699,252 +7829,252 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E28" s="10" t="s">
+    <row r="28" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
-    </row>
-    <row r="29" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
-      <c r="AS29" s="10"/>
-      <c r="AT29" s="10"/>
-      <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="10"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="10"/>
-      <c r="BA29" s="10"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="10"/>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
-    </row>
-    <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="10" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+    </row>
+    <row r="29" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+    </row>
+    <row r="33" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
-      <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="10"/>
-      <c r="AX33" s="10"/>
-      <c r="AY33" s="10"/>
-      <c r="AZ33" s="10"/>
-      <c r="BA33" s="10"/>
-      <c r="BB33" s="10"/>
-      <c r="BC33" s="10"/>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="10"/>
-    </row>
-    <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
-      <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="10"/>
-      <c r="AX34" s="10"/>
-      <c r="AY34" s="10"/>
-      <c r="AZ34" s="10"/>
-      <c r="BA34" s="10"/>
-      <c r="BB34" s="10"/>
-      <c r="BC34" s="10"/>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
-      <c r="BF34" s="10"/>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="10"/>
-      <c r="BI34" s="10"/>
-      <c r="BJ34" s="10"/>
-    </row>
-    <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+    </row>
+    <row r="34" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+    </row>
+    <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:XFD3"/>
@@ -6971,16 +8101,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -7010,16 +8140,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -7049,16 +8179,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -7088,16 +8218,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -7121,22 +8251,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK8"/>
+  <dimension ref="A1:BK59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
@@ -7145,139 +8275,619 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="11">
-        <v>8.1</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="11"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="11"/>
-      <c r="BF8" s="11"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="11"/>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+    </row>
+    <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J20" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J26" t="s">
+        <v>87</v>
+      </c>
+      <c r="S26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J27" t="s">
+        <v>89</v>
+      </c>
+      <c r="S27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+      <c r="S28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
+        <v>72</v>
+      </c>
+      <c r="S30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="S31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J32" t="s">
+        <v>93</v>
+      </c>
+      <c r="S32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J34" t="s">
+        <v>95</v>
+      </c>
+      <c r="S34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J39" t="s">
+        <v>100</v>
+      </c>
+      <c r="S39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" t="s">
+        <v>105</v>
+      </c>
+      <c r="S42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J43" t="s">
+        <v>106</v>
+      </c>
+      <c r="S43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" x14ac:dyDescent="0.45">
+      <c r="J44" t="s">
+        <v>108</v>
+      </c>
+      <c r="S44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="3"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
+      <c r="AM52" s="3"/>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="3"/>
+      <c r="AP52" s="3"/>
+      <c r="AQ52" s="3"/>
+      <c r="AR52" s="3"/>
+      <c r="AS52" s="3"/>
+      <c r="AT52" s="3"/>
+      <c r="AU52" s="3"/>
+      <c r="AV52" s="3"/>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
+      <c r="AY52" s="3"/>
+      <c r="AZ52" s="3"/>
+      <c r="BA52" s="3"/>
+      <c r="BB52" s="3"/>
+      <c r="BC52" s="3"/>
+      <c r="BD52" s="3"/>
+      <c r="BE52" s="3"/>
+      <c r="BF52" s="3"/>
+      <c r="BG52" s="3"/>
+      <c r="BH52" s="3"/>
+      <c r="BI52" s="3"/>
+      <c r="BJ52" s="3"/>
+      <c r="BK52" s="3"/>
+    </row>
+    <row r="53" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+      <c r="BJ53" s="3"/>
+      <c r="BK53" s="3"/>
+    </row>
+    <row r="56" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="F56" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" t="s">
+        <v>112</v>
+      </c>
+      <c r="S56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="J57" t="s">
+        <v>113</v>
+      </c>
+      <c r="S57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="J58" t="s">
+        <v>114</v>
+      </c>
+      <c r="S58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="J59" t="s">
+        <v>115</v>
+      </c>
+      <c r="S59" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="C52:BK53"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="C7:BK8"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C14:BK15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0.仕様書概要" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
   <si>
     <t>1.2チームメンバー</t>
     <phoneticPr fontId="2"/>
@@ -887,6 +887,41 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魚</t>
+    <rPh sb="0" eb="1">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>米</t>
+    <rPh sb="0" eb="1">
+      <t>コメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>皿</t>
+    <rPh sb="0" eb="1">
+      <t>サラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刺身</t>
+    <rPh sb="0" eb="2">
+      <t>サシミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>殻</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1127,6 +1162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1135,12 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1163,7 +1199,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - アクセント 6" xfId="3" builtinId="52"/>
@@ -4470,364 +4505,364 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
     </row>
     <row r="19" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
     </row>
     <row r="21" spans="3:63" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
@@ -4835,248 +4870,248 @@
       </c>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="2"/>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="2"/>
-      <c r="BJ23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
     </row>
     <row r="24" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
-      <c r="BI24" s="2"/>
-      <c r="BJ24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
     </row>
     <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="2"/>
-      <c r="BI28" s="2"/>
-      <c r="BJ28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2"/>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
     </row>
     <row r="31" spans="3:63" x14ac:dyDescent="0.45">
       <c r="H31" t="s">
@@ -5084,881 +5119,873 @@
       </c>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2"/>
-      <c r="BJ33" s="2"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="2"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
     </row>
     <row r="38" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="2"/>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="2"/>
-      <c r="AS38" s="2"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="2"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="2"/>
-      <c r="BD38" s="2"/>
-      <c r="BE38" s="2"/>
-      <c r="BF38" s="2"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="2"/>
-      <c r="BJ38" s="2"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
     </row>
     <row r="43" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" s="2"/>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2"/>
-      <c r="AP43" s="2"/>
-      <c r="AQ43" s="2"/>
-      <c r="AR43" s="2"/>
-      <c r="AS43" s="2"/>
-      <c r="AT43" s="2"/>
-      <c r="AU43" s="2"/>
-      <c r="AV43" s="2"/>
-      <c r="AW43" s="2"/>
-      <c r="AX43" s="2"/>
-      <c r="AY43" s="2"/>
-      <c r="AZ43" s="2"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="2"/>
-      <c r="BD43" s="2"/>
-      <c r="BE43" s="2"/>
-      <c r="BF43" s="2"/>
-      <c r="BG43" s="2"/>
-      <c r="BH43" s="2"/>
-      <c r="BI43" s="2"/>
-      <c r="BJ43" s="2"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="2"/>
-      <c r="AQ44" s="2"/>
-      <c r="AR44" s="2"/>
-      <c r="AS44" s="2"/>
-      <c r="AT44" s="2"/>
-      <c r="AU44" s="2"/>
-      <c r="AV44" s="2"/>
-      <c r="AW44" s="2"/>
-      <c r="AX44" s="2"/>
-      <c r="AY44" s="2"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="2"/>
-      <c r="BD44" s="2"/>
-      <c r="BE44" s="2"/>
-      <c r="BF44" s="2"/>
-      <c r="BG44" s="2"/>
-      <c r="BH44" s="2"/>
-      <c r="BI44" s="2"/>
-      <c r="BJ44" s="2"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
     </row>
     <row r="48" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="2"/>
-      <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="2"/>
-      <c r="AU48" s="2"/>
-      <c r="AV48" s="2"/>
-      <c r="AW48" s="2"/>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
-      <c r="AZ48" s="2"/>
-      <c r="BA48" s="2"/>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="2"/>
-      <c r="BD48" s="2"/>
-      <c r="BE48" s="2"/>
-      <c r="BF48" s="2"/>
-      <c r="BG48" s="2"/>
-      <c r="BH48" s="2"/>
-      <c r="BI48" s="2"/>
-      <c r="BJ48" s="2"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
     </row>
     <row r="49" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
-      <c r="AQ49" s="2"/>
-      <c r="AR49" s="2"/>
-      <c r="AS49" s="2"/>
-      <c r="AT49" s="2"/>
-      <c r="AU49" s="2"/>
-      <c r="AV49" s="2"/>
-      <c r="AW49" s="2"/>
-      <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="2"/>
-      <c r="BD49" s="2"/>
-      <c r="BE49" s="2"/>
-      <c r="BF49" s="2"/>
-      <c r="BG49" s="2"/>
-      <c r="BH49" s="2"/>
-      <c r="BI49" s="2"/>
-      <c r="BJ49" s="2"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
     </row>
     <row r="53" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2"/>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AP53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2"/>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="2"/>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="2"/>
-      <c r="BD53" s="2"/>
-      <c r="BE53" s="2"/>
-      <c r="BF53" s="2"/>
-      <c r="BG53" s="2"/>
-      <c r="BH53" s="2"/>
-      <c r="BI53" s="2"/>
-      <c r="BJ53" s="2"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
     </row>
     <row r="54" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
-      <c r="AQ54" s="2"/>
-      <c r="AR54" s="2"/>
-      <c r="AS54" s="2"/>
-      <c r="AT54" s="2"/>
-      <c r="AU54" s="2"/>
-      <c r="AV54" s="2"/>
-      <c r="AW54" s="2"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="2"/>
-      <c r="BD54" s="2"/>
-      <c r="BE54" s="2"/>
-      <c r="BF54" s="2"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="2"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="3"/>
-      <c r="AK58" s="3"/>
-      <c r="AL58" s="3"/>
-      <c r="AM58" s="3"/>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
-      <c r="AR58" s="3"/>
-      <c r="AS58" s="3"/>
-      <c r="AT58" s="3"/>
-      <c r="AU58" s="3"/>
-      <c r="AV58" s="3"/>
-      <c r="AW58" s="3"/>
-      <c r="AX58" s="3"/>
-      <c r="AY58" s="3"/>
-      <c r="AZ58" s="3"/>
-      <c r="BA58" s="3"/>
-      <c r="BB58" s="3"/>
-      <c r="BC58" s="3"/>
-      <c r="BD58" s="3"/>
-      <c r="BE58" s="3"/>
-      <c r="BF58" s="3"/>
-      <c r="BG58" s="3"/>
-      <c r="BH58" s="3"/>
-      <c r="BI58" s="3"/>
-      <c r="BJ58" s="3"/>
-      <c r="BK58" s="3"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="6"/>
+      <c r="AQ58" s="6"/>
+      <c r="AR58" s="6"/>
+      <c r="AS58" s="6"/>
+      <c r="AT58" s="6"/>
+      <c r="AU58" s="6"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="6"/>
+      <c r="AX58" s="6"/>
+      <c r="AY58" s="6"/>
+      <c r="AZ58" s="6"/>
+      <c r="BA58" s="6"/>
+      <c r="BB58" s="6"/>
+      <c r="BC58" s="6"/>
+      <c r="BD58" s="6"/>
+      <c r="BE58" s="6"/>
+      <c r="BF58" s="6"/>
+      <c r="BG58" s="6"/>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="6"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="6"/>
     </row>
     <row r="59" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="3"/>
-      <c r="AK59" s="3"/>
-      <c r="AL59" s="3"/>
-      <c r="AM59" s="3"/>
-      <c r="AN59" s="3"/>
-      <c r="AO59" s="3"/>
-      <c r="AP59" s="3"/>
-      <c r="AQ59" s="3"/>
-      <c r="AR59" s="3"/>
-      <c r="AS59" s="3"/>
-      <c r="AT59" s="3"/>
-      <c r="AU59" s="3"/>
-      <c r="AV59" s="3"/>
-      <c r="AW59" s="3"/>
-      <c r="AX59" s="3"/>
-      <c r="AY59" s="3"/>
-      <c r="AZ59" s="3"/>
-      <c r="BA59" s="3"/>
-      <c r="BB59" s="3"/>
-      <c r="BC59" s="3"/>
-      <c r="BD59" s="3"/>
-      <c r="BE59" s="3"/>
-      <c r="BF59" s="3"/>
-      <c r="BG59" s="3"/>
-      <c r="BH59" s="3"/>
-      <c r="BI59" s="3"/>
-      <c r="BJ59" s="3"/>
-      <c r="BK59" s="3"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="6"/>
+      <c r="AO59" s="6"/>
+      <c r="AP59" s="6"/>
+      <c r="AQ59" s="6"/>
+      <c r="AR59" s="6"/>
+      <c r="AS59" s="6"/>
+      <c r="AT59" s="6"/>
+      <c r="AU59" s="6"/>
+      <c r="AV59" s="6"/>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="6"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="6"/>
+      <c r="BA59" s="6"/>
+      <c r="BB59" s="6"/>
+      <c r="BC59" s="6"/>
+      <c r="BD59" s="6"/>
+      <c r="BE59" s="6"/>
+      <c r="BF59" s="6"/>
+      <c r="BG59" s="6"/>
+      <c r="BH59" s="6"/>
+      <c r="BI59" s="6"/>
+      <c r="BJ59" s="6"/>
+      <c r="BK59" s="6"/>
     </row>
     <row r="63" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
-      <c r="AK63" s="3"/>
-      <c r="AL63" s="3"/>
-      <c r="AM63" s="3"/>
-      <c r="AN63" s="3"/>
-      <c r="AO63" s="3"/>
-      <c r="AP63" s="3"/>
-      <c r="AQ63" s="3"/>
-      <c r="AR63" s="3"/>
-      <c r="AS63" s="3"/>
-      <c r="AT63" s="3"/>
-      <c r="AU63" s="3"/>
-      <c r="AV63" s="3"/>
-      <c r="AW63" s="3"/>
-      <c r="AX63" s="3"/>
-      <c r="AY63" s="3"/>
-      <c r="AZ63" s="3"/>
-      <c r="BA63" s="3"/>
-      <c r="BB63" s="3"/>
-      <c r="BC63" s="3"/>
-      <c r="BD63" s="3"/>
-      <c r="BE63" s="3"/>
-      <c r="BF63" s="3"/>
-      <c r="BG63" s="3"/>
-      <c r="BH63" s="3"/>
-      <c r="BI63" s="3"/>
-      <c r="BJ63" s="3"/>
-      <c r="BK63" s="3"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="6"/>
+      <c r="AQ63" s="6"/>
+      <c r="AR63" s="6"/>
+      <c r="AS63" s="6"/>
+      <c r="AT63" s="6"/>
+      <c r="AU63" s="6"/>
+      <c r="AV63" s="6"/>
+      <c r="AW63" s="6"/>
+      <c r="AX63" s="6"/>
+      <c r="AY63" s="6"/>
+      <c r="AZ63" s="6"/>
+      <c r="BA63" s="6"/>
+      <c r="BB63" s="6"/>
+      <c r="BC63" s="6"/>
+      <c r="BD63" s="6"/>
+      <c r="BE63" s="6"/>
+      <c r="BF63" s="6"/>
+      <c r="BG63" s="6"/>
+      <c r="BH63" s="6"/>
+      <c r="BI63" s="6"/>
+      <c r="BJ63" s="6"/>
+      <c r="BK63" s="6"/>
     </row>
     <row r="64" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-      <c r="AJ64" s="3"/>
-      <c r="AK64" s="3"/>
-      <c r="AL64" s="3"/>
-      <c r="AM64" s="3"/>
-      <c r="AN64" s="3"/>
-      <c r="AO64" s="3"/>
-      <c r="AP64" s="3"/>
-      <c r="AQ64" s="3"/>
-      <c r="AR64" s="3"/>
-      <c r="AS64" s="3"/>
-      <c r="AT64" s="3"/>
-      <c r="AU64" s="3"/>
-      <c r="AV64" s="3"/>
-      <c r="AW64" s="3"/>
-      <c r="AX64" s="3"/>
-      <c r="AY64" s="3"/>
-      <c r="AZ64" s="3"/>
-      <c r="BA64" s="3"/>
-      <c r="BB64" s="3"/>
-      <c r="BC64" s="3"/>
-      <c r="BD64" s="3"/>
-      <c r="BE64" s="3"/>
-      <c r="BF64" s="3"/>
-      <c r="BG64" s="3"/>
-      <c r="BH64" s="3"/>
-      <c r="BI64" s="3"/>
-      <c r="BJ64" s="3"/>
-      <c r="BK64" s="3"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="6"/>
+      <c r="AQ64" s="6"/>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="6"/>
+      <c r="AT64" s="6"/>
+      <c r="AU64" s="6"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="6"/>
+      <c r="AX64" s="6"/>
+      <c r="AY64" s="6"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="6"/>
+      <c r="BB64" s="6"/>
+      <c r="BC64" s="6"/>
+      <c r="BD64" s="6"/>
+      <c r="BE64" s="6"/>
+      <c r="BF64" s="6"/>
+      <c r="BG64" s="6"/>
+      <c r="BH64" s="6"/>
+      <c r="BI64" s="6"/>
+      <c r="BJ64" s="6"/>
+      <c r="BK64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
     <mergeCell ref="E48:BJ49"/>
     <mergeCell ref="E53:BJ54"/>
     <mergeCell ref="C63:BK64"/>
@@ -5975,6 +6002,14 @@
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
     <mergeCell ref="E6:V7"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6005,21 +6040,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6044,399 +6079,399 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="35" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="3"/>
-      <c r="AY35" s="3"/>
-      <c r="AZ35" s="3"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="3"/>
-      <c r="BC35" s="3"/>
-      <c r="BD35" s="3"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="3"/>
-      <c r="BG35" s="3"/>
-      <c r="BH35" s="3"/>
-      <c r="BI35" s="3"/>
-      <c r="BJ35" s="3"/>
-      <c r="BK35" s="3"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="6"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="6"/>
     </row>
     <row r="36" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
-      <c r="AW36" s="3"/>
-      <c r="AX36" s="3"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="3"/>
-      <c r="BD36" s="3"/>
-      <c r="BE36" s="3"/>
-      <c r="BF36" s="3"/>
-      <c r="BG36" s="3"/>
-      <c r="BH36" s="3"/>
-      <c r="BI36" s="3"/>
-      <c r="BJ36" s="3"/>
-      <c r="BK36" s="3"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
     </row>
     <row r="40" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="2"/>
-      <c r="AQ40" s="2"/>
-      <c r="AR40" s="2"/>
-      <c r="AS40" s="2"/>
-      <c r="AT40" s="2"/>
-      <c r="AU40" s="2"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="2"/>
-      <c r="BD40" s="2"/>
-      <c r="BE40" s="2"/>
-      <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="2"/>
-      <c r="BI40" s="2"/>
-      <c r="BJ40" s="2"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-      <c r="AL41" s="2"/>
-      <c r="AM41" s="2"/>
-      <c r="AN41" s="2"/>
-      <c r="AO41" s="2"/>
-      <c r="AP41" s="2"/>
-      <c r="AQ41" s="2"/>
-      <c r="AR41" s="2"/>
-      <c r="AS41" s="2"/>
-      <c r="AT41" s="2"/>
-      <c r="AU41" s="2"/>
-      <c r="AV41" s="2"/>
-      <c r="AW41" s="2"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="2"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="2"/>
-      <c r="BD41" s="2"/>
-      <c r="BE41" s="2"/>
-      <c r="BF41" s="2"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="2"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.45">
       <c r="G65" t="s">
@@ -6447,248 +6482,248 @@
       </c>
     </row>
     <row r="82" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2"/>
-      <c r="AI82" s="2"/>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
-      <c r="AM82" s="2"/>
-      <c r="AN82" s="2"/>
-      <c r="AO82" s="2"/>
-      <c r="AP82" s="2"/>
-      <c r="AQ82" s="2"/>
-      <c r="AR82" s="2"/>
-      <c r="AS82" s="2"/>
-      <c r="AT82" s="2"/>
-      <c r="AU82" s="2"/>
-      <c r="AV82" s="2"/>
-      <c r="AW82" s="2"/>
-      <c r="AX82" s="2"/>
-      <c r="AY82" s="2"/>
-      <c r="AZ82" s="2"/>
-      <c r="BA82" s="2"/>
-      <c r="BB82" s="2"/>
-      <c r="BC82" s="2"/>
-      <c r="BD82" s="2"/>
-      <c r="BE82" s="2"/>
-      <c r="BF82" s="2"/>
-      <c r="BG82" s="2"/>
-      <c r="BH82" s="2"/>
-      <c r="BI82" s="2"/>
-      <c r="BJ82" s="2"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="5"/>
+      <c r="AT82" s="5"/>
+      <c r="AU82" s="5"/>
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="5"/>
+      <c r="AX82" s="5"/>
+      <c r="AY82" s="5"/>
+      <c r="AZ82" s="5"/>
+      <c r="BA82" s="5"/>
+      <c r="BB82" s="5"/>
+      <c r="BC82" s="5"/>
+      <c r="BD82" s="5"/>
+      <c r="BE82" s="5"/>
+      <c r="BF82" s="5"/>
+      <c r="BG82" s="5"/>
+      <c r="BH82" s="5"/>
+      <c r="BI82" s="5"/>
+      <c r="BJ82" s="5"/>
     </row>
     <row r="83" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
-      <c r="AC83" s="2"/>
-      <c r="AD83" s="2"/>
-      <c r="AE83" s="2"/>
-      <c r="AF83" s="2"/>
-      <c r="AG83" s="2"/>
-      <c r="AH83" s="2"/>
-      <c r="AI83" s="2"/>
-      <c r="AJ83" s="2"/>
-      <c r="AK83" s="2"/>
-      <c r="AL83" s="2"/>
-      <c r="AM83" s="2"/>
-      <c r="AN83" s="2"/>
-      <c r="AO83" s="2"/>
-      <c r="AP83" s="2"/>
-      <c r="AQ83" s="2"/>
-      <c r="AR83" s="2"/>
-      <c r="AS83" s="2"/>
-      <c r="AT83" s="2"/>
-      <c r="AU83" s="2"/>
-      <c r="AV83" s="2"/>
-      <c r="AW83" s="2"/>
-      <c r="AX83" s="2"/>
-      <c r="AY83" s="2"/>
-      <c r="AZ83" s="2"/>
-      <c r="BA83" s="2"/>
-      <c r="BB83" s="2"/>
-      <c r="BC83" s="2"/>
-      <c r="BD83" s="2"/>
-      <c r="BE83" s="2"/>
-      <c r="BF83" s="2"/>
-      <c r="BG83" s="2"/>
-      <c r="BH83" s="2"/>
-      <c r="BI83" s="2"/>
-      <c r="BJ83" s="2"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="5"/>
+      <c r="AS83" s="5"/>
+      <c r="AT83" s="5"/>
+      <c r="AU83" s="5"/>
+      <c r="AV83" s="5"/>
+      <c r="AW83" s="5"/>
+      <c r="AX83" s="5"/>
+      <c r="AY83" s="5"/>
+      <c r="AZ83" s="5"/>
+      <c r="BA83" s="5"/>
+      <c r="BB83" s="5"/>
+      <c r="BC83" s="5"/>
+      <c r="BD83" s="5"/>
+      <c r="BE83" s="5"/>
+      <c r="BF83" s="5"/>
+      <c r="BG83" s="5"/>
+      <c r="BH83" s="5"/>
+      <c r="BI83" s="5"/>
+      <c r="BJ83" s="5"/>
     </row>
     <row r="113" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
-      <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
-      <c r="AA113" s="2"/>
-      <c r="AB113" s="2"/>
-      <c r="AC113" s="2"/>
-      <c r="AD113" s="2"/>
-      <c r="AE113" s="2"/>
-      <c r="AF113" s="2"/>
-      <c r="AG113" s="2"/>
-      <c r="AH113" s="2"/>
-      <c r="AI113" s="2"/>
-      <c r="AJ113" s="2"/>
-      <c r="AK113" s="2"/>
-      <c r="AL113" s="2"/>
-      <c r="AM113" s="2"/>
-      <c r="AN113" s="2"/>
-      <c r="AO113" s="2"/>
-      <c r="AP113" s="2"/>
-      <c r="AQ113" s="2"/>
-      <c r="AR113" s="2"/>
-      <c r="AS113" s="2"/>
-      <c r="AT113" s="2"/>
-      <c r="AU113" s="2"/>
-      <c r="AV113" s="2"/>
-      <c r="AW113" s="2"/>
-      <c r="AX113" s="2"/>
-      <c r="AY113" s="2"/>
-      <c r="AZ113" s="2"/>
-      <c r="BA113" s="2"/>
-      <c r="BB113" s="2"/>
-      <c r="BC113" s="2"/>
-      <c r="BD113" s="2"/>
-      <c r="BE113" s="2"/>
-      <c r="BF113" s="2"/>
-      <c r="BG113" s="2"/>
-      <c r="BH113" s="2"/>
-      <c r="BI113" s="2"/>
-      <c r="BJ113" s="2"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+      <c r="AJ113" s="5"/>
+      <c r="AK113" s="5"/>
+      <c r="AL113" s="5"/>
+      <c r="AM113" s="5"/>
+      <c r="AN113" s="5"/>
+      <c r="AO113" s="5"/>
+      <c r="AP113" s="5"/>
+      <c r="AQ113" s="5"/>
+      <c r="AR113" s="5"/>
+      <c r="AS113" s="5"/>
+      <c r="AT113" s="5"/>
+      <c r="AU113" s="5"/>
+      <c r="AV113" s="5"/>
+      <c r="AW113" s="5"/>
+      <c r="AX113" s="5"/>
+      <c r="AY113" s="5"/>
+      <c r="AZ113" s="5"/>
+      <c r="BA113" s="5"/>
+      <c r="BB113" s="5"/>
+      <c r="BC113" s="5"/>
+      <c r="BD113" s="5"/>
+      <c r="BE113" s="5"/>
+      <c r="BF113" s="5"/>
+      <c r="BG113" s="5"/>
+      <c r="BH113" s="5"/>
+      <c r="BI113" s="5"/>
+      <c r="BJ113" s="5"/>
     </row>
     <row r="114" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
-      <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-      <c r="AB114" s="2"/>
-      <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="2"/>
-      <c r="AF114" s="2"/>
-      <c r="AG114" s="2"/>
-      <c r="AH114" s="2"/>
-      <c r="AI114" s="2"/>
-      <c r="AJ114" s="2"/>
-      <c r="AK114" s="2"/>
-      <c r="AL114" s="2"/>
-      <c r="AM114" s="2"/>
-      <c r="AN114" s="2"/>
-      <c r="AO114" s="2"/>
-      <c r="AP114" s="2"/>
-      <c r="AQ114" s="2"/>
-      <c r="AR114" s="2"/>
-      <c r="AS114" s="2"/>
-      <c r="AT114" s="2"/>
-      <c r="AU114" s="2"/>
-      <c r="AV114" s="2"/>
-      <c r="AW114" s="2"/>
-      <c r="AX114" s="2"/>
-      <c r="AY114" s="2"/>
-      <c r="AZ114" s="2"/>
-      <c r="BA114" s="2"/>
-      <c r="BB114" s="2"/>
-      <c r="BC114" s="2"/>
-      <c r="BD114" s="2"/>
-      <c r="BE114" s="2"/>
-      <c r="BF114" s="2"/>
-      <c r="BG114" s="2"/>
-      <c r="BH114" s="2"/>
-      <c r="BI114" s="2"/>
-      <c r="BJ114" s="2"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="5"/>
+      <c r="AL114" s="5"/>
+      <c r="AM114" s="5"/>
+      <c r="AN114" s="5"/>
+      <c r="AO114" s="5"/>
+      <c r="AP114" s="5"/>
+      <c r="AQ114" s="5"/>
+      <c r="AR114" s="5"/>
+      <c r="AS114" s="5"/>
+      <c r="AT114" s="5"/>
+      <c r="AU114" s="5"/>
+      <c r="AV114" s="5"/>
+      <c r="AW114" s="5"/>
+      <c r="AX114" s="5"/>
+      <c r="AY114" s="5"/>
+      <c r="AZ114" s="5"/>
+      <c r="BA114" s="5"/>
+      <c r="BB114" s="5"/>
+      <c r="BC114" s="5"/>
+      <c r="BD114" s="5"/>
+      <c r="BE114" s="5"/>
+      <c r="BF114" s="5"/>
+      <c r="BG114" s="5"/>
+      <c r="BH114" s="5"/>
+      <c r="BI114" s="5"/>
+      <c r="BJ114" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6711,108 +6746,123 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="14">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="14">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="14">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="14">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="14">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="14">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="14">
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="14">
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="14">
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="14">
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="14">
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="14">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="C16" t="s">
@@ -6820,7 +6870,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="14">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="C17" t="s">
@@ -6828,7 +6878,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="14">
+      <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="C18" t="s">
@@ -6836,7 +6886,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="14">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="C19" t="s">
@@ -6844,7 +6894,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="14">
+      <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="C20" t="s">
@@ -6852,7 +6902,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="14">
+      <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="C21" t="s">
@@ -6860,7 +6910,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="14">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="C22" t="s">
@@ -6868,7 +6918,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="14">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="C23" t="s">
@@ -6876,7 +6926,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="14">
+      <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="C24" t="s">
@@ -6884,7 +6934,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="14">
+      <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="C25" t="s">
@@ -6892,7 +6942,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="14">
+      <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="C26" t="s">
@@ -6900,7 +6950,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="14">
+      <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="C27" t="s">
@@ -6908,7 +6958,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="14">
+      <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="C28" t="s">
@@ -6916,7 +6966,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="14">
+      <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="C29" t="s">
@@ -6924,7 +6974,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="14">
+      <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="C30" t="s">
@@ -6932,7 +6982,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="14">
+      <c r="A31" s="2">
         <v>26</v>
       </c>
     </row>
@@ -6953,533 +7003,533 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
     </row>
     <row r="17" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
     </row>
     <row r="22" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
-      <c r="BK23" s="3"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7508,21 +7558,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7547,149 +7597,149 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
@@ -7697,126 +7747,126 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
-      <c r="BH14" s="2"/>
-      <c r="BI14" s="2"/>
-      <c r="BJ14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
-      <c r="BI15" s="2"/>
-      <c r="BJ15" s="2"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
     </row>
     <row r="17" spans="5:62" x14ac:dyDescent="0.45">
       <c r="H17" t="s">
@@ -7830,248 +7880,248 @@
       </c>
     </row>
     <row r="28" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="2"/>
-      <c r="BI28" s="2"/>
-      <c r="BJ28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-      <c r="AL29" s="2"/>
-      <c r="AM29" s="2"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
-      <c r="AP29" s="2"/>
-      <c r="AQ29" s="2"/>
-      <c r="AR29" s="2"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2"/>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-      <c r="AL33" s="2"/>
-      <c r="AM33" s="2"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
-      <c r="AR33" s="2"/>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="2"/>
-      <c r="AU33" s="2"/>
-      <c r="AV33" s="2"/>
-      <c r="AW33" s="2"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="2"/>
-      <c r="BE33" s="2"/>
-      <c r="BF33" s="2"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2"/>
-      <c r="BJ33" s="2"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-      <c r="AL34" s="2"/>
-      <c r="AM34" s="2"/>
-      <c r="AN34" s="2"/>
-      <c r="AO34" s="2"/>
-      <c r="AP34" s="2"/>
-      <c r="AQ34" s="2"/>
-      <c r="AR34" s="2"/>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="2"/>
-      <c r="AU34" s="2"/>
-      <c r="AV34" s="2"/>
-      <c r="AW34" s="2"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="2"/>
-      <c r="BD34" s="2"/>
-      <c r="BE34" s="2"/>
-      <c r="BF34" s="2"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="2"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
     </row>
     <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -8103,21 +8153,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8142,21 +8192,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8181,21 +8231,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8220,21 +8270,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8253,155 +8303,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:63" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
@@ -8414,132 +8464,132 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
     </row>
     <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F17" t="s">
@@ -8719,132 +8769,132 @@
       </c>
     </row>
     <row r="52" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-      <c r="AN52" s="3"/>
-      <c r="AO52" s="3"/>
-      <c r="AP52" s="3"/>
-      <c r="AQ52" s="3"/>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="3"/>
-      <c r="AT52" s="3"/>
-      <c r="AU52" s="3"/>
-      <c r="AV52" s="3"/>
-      <c r="AW52" s="3"/>
-      <c r="AX52" s="3"/>
-      <c r="AY52" s="3"/>
-      <c r="AZ52" s="3"/>
-      <c r="BA52" s="3"/>
-      <c r="BB52" s="3"/>
-      <c r="BC52" s="3"/>
-      <c r="BD52" s="3"/>
-      <c r="BE52" s="3"/>
-      <c r="BF52" s="3"/>
-      <c r="BG52" s="3"/>
-      <c r="BH52" s="3"/>
-      <c r="BI52" s="3"/>
-      <c r="BJ52" s="3"/>
-      <c r="BK52" s="3"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="6"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="6"/>
+      <c r="AT52" s="6"/>
+      <c r="AU52" s="6"/>
+      <c r="AV52" s="6"/>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="6"/>
+      <c r="AY52" s="6"/>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="6"/>
+      <c r="BB52" s="6"/>
+      <c r="BC52" s="6"/>
+      <c r="BD52" s="6"/>
+      <c r="BE52" s="6"/>
+      <c r="BF52" s="6"/>
+      <c r="BG52" s="6"/>
+      <c r="BH52" s="6"/>
+      <c r="BI52" s="6"/>
+      <c r="BJ52" s="6"/>
+      <c r="BK52" s="6"/>
     </row>
     <row r="53" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
-      <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
-      <c r="AN53" s="3"/>
-      <c r="AO53" s="3"/>
-      <c r="AP53" s="3"/>
-      <c r="AQ53" s="3"/>
-      <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="3"/>
-      <c r="AU53" s="3"/>
-      <c r="AV53" s="3"/>
-      <c r="AW53" s="3"/>
-      <c r="AX53" s="3"/>
-      <c r="AY53" s="3"/>
-      <c r="AZ53" s="3"/>
-      <c r="BA53" s="3"/>
-      <c r="BB53" s="3"/>
-      <c r="BC53" s="3"/>
-      <c r="BD53" s="3"/>
-      <c r="BE53" s="3"/>
-      <c r="BF53" s="3"/>
-      <c r="BG53" s="3"/>
-      <c r="BH53" s="3"/>
-      <c r="BI53" s="3"/>
-      <c r="BJ53" s="3"/>
-      <c r="BK53" s="3"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+      <c r="BC53" s="6"/>
+      <c r="BD53" s="6"/>
+      <c r="BE53" s="6"/>
+      <c r="BF53" s="6"/>
+      <c r="BG53" s="6"/>
+      <c r="BH53" s="6"/>
+      <c r="BI53" s="6"/>
+      <c r="BJ53" s="6"/>
+      <c r="BK53" s="6"/>
     </row>
     <row r="56" spans="3:63" x14ac:dyDescent="0.45">
       <c r="F56" t="s">

--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0.仕様書概要" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t>1.2チームメンバー</t>
     <phoneticPr fontId="2"/>
@@ -461,27 +461,6 @@
     <t>机</t>
     <rPh sb="0" eb="1">
       <t>ツクエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>忍者</t>
-    <rPh sb="0" eb="2">
-      <t>ニンジャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <rPh sb="0" eb="2">
-      <t>ハイケイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -922,6 +901,77 @@
     <t>殻</t>
     <rPh sb="0" eb="1">
       <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景(前景）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゼンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前世界エリア（町人、歩く忍者、隠れ忍者、苦無）</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウニン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンジャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンジャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>クナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後世界エリア（空忍者、苦無）</t>
+    <rPh sb="0" eb="1">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンジャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景(空）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1163,12 +1213,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1177,6 +1221,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4503,16 +4553,16 @@
       <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
@@ -4534,7 +4584,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="10"/>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4554,1438 +4604,1446 @@
       <c r="U7" s="12"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E8" s="3" t="s">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E10" s="4" t="s">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" s="3" t="s">
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E14" s="4" t="s">
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-    </row>
-    <row r="18" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C18" s="6" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="18" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
-    </row>
-    <row r="19" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
-    </row>
-    <row r="21" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+    </row>
+    <row r="19" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+    </row>
+    <row r="21" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E23" s="5" t="s">
+    <row r="23" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
-    </row>
-    <row r="24" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
-    </row>
-    <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E28" s="5" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+    </row>
+    <row r="24" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+    </row>
+    <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-    </row>
-    <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
-    </row>
-    <row r="31" spans="3:63" x14ac:dyDescent="0.45">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+    </row>
+    <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+    </row>
+    <row r="31" spans="3:63" x14ac:dyDescent="0.4">
       <c r="H31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E33" s="5" t="s">
+    <row r="33" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
-    </row>
-    <row r="34" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
-    </row>
-    <row r="38" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E38" s="5" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+    </row>
+    <row r="34" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+    </row>
+    <row r="38" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="5"/>
-      <c r="BE38" s="5"/>
-      <c r="BF38" s="5"/>
-      <c r="BG38" s="5"/>
-      <c r="BH38" s="5"/>
-      <c r="BI38" s="5"/>
-      <c r="BJ38" s="5"/>
-    </row>
-    <row r="39" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="5"/>
-      <c r="AZ39" s="5"/>
-      <c r="BA39" s="5"/>
-      <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="5"/>
-      <c r="BE39" s="5"/>
-      <c r="BF39" s="5"/>
-      <c r="BG39" s="5"/>
-      <c r="BH39" s="5"/>
-      <c r="BI39" s="5"/>
-      <c r="BJ39" s="5"/>
-    </row>
-    <row r="43" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E43" s="5" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="3"/>
+    </row>
+    <row r="39" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="3"/>
+    </row>
+    <row r="43" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
-      <c r="AZ43" s="5"/>
-      <c r="BA43" s="5"/>
-      <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
-      <c r="BE43" s="5"/>
-      <c r="BF43" s="5"/>
-      <c r="BG43" s="5"/>
-      <c r="BH43" s="5"/>
-      <c r="BI43" s="5"/>
-      <c r="BJ43" s="5"/>
-    </row>
-    <row r="44" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="5"/>
-      <c r="AV44" s="5"/>
-      <c r="AW44" s="5"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="5"/>
-      <c r="AZ44" s="5"/>
-      <c r="BA44" s="5"/>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="5"/>
-      <c r="BE44" s="5"/>
-      <c r="BF44" s="5"/>
-      <c r="BG44" s="5"/>
-      <c r="BH44" s="5"/>
-      <c r="BI44" s="5"/>
-      <c r="BJ44" s="5"/>
-    </row>
-    <row r="48" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E48" s="5" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
+    </row>
+    <row r="44" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
+      <c r="BJ44" s="3"/>
+    </row>
+    <row r="48" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
-      <c r="AZ48" s="5"/>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="5"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="5"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
-      <c r="BJ48" s="5"/>
-    </row>
-    <row r="49" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-      <c r="AT49" s="5"/>
-      <c r="AU49" s="5"/>
-      <c r="AV49" s="5"/>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
-      <c r="AZ49" s="5"/>
-      <c r="BA49" s="5"/>
-      <c r="BB49" s="5"/>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-      <c r="BE49" s="5"/>
-      <c r="BF49" s="5"/>
-      <c r="BG49" s="5"/>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5"/>
-    </row>
-    <row r="53" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E53" s="5" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
+    </row>
+    <row r="49" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
+    </row>
+    <row r="53" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
-    </row>
-    <row r="54" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="5"/>
-      <c r="AR54" s="5"/>
-      <c r="AS54" s="5"/>
-      <c r="AT54" s="5"/>
-      <c r="AU54" s="5"/>
-      <c r="AV54" s="5"/>
-      <c r="AW54" s="5"/>
-      <c r="AX54" s="5"/>
-      <c r="AY54" s="5"/>
-      <c r="AZ54" s="5"/>
-      <c r="BA54" s="5"/>
-      <c r="BB54" s="5"/>
-      <c r="BC54" s="5"/>
-      <c r="BD54" s="5"/>
-      <c r="BE54" s="5"/>
-      <c r="BF54" s="5"/>
-      <c r="BG54" s="5"/>
-      <c r="BH54" s="5"/>
-      <c r="BI54" s="5"/>
-      <c r="BJ54" s="5"/>
-    </row>
-    <row r="58" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C58" s="6" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+      <c r="BJ53" s="3"/>
+    </row>
+    <row r="54" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
+      <c r="BJ54" s="3"/>
+    </row>
+    <row r="58" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="6"/>
-      <c r="AM58" s="6"/>
-      <c r="AN58" s="6"/>
-      <c r="AO58" s="6"/>
-      <c r="AP58" s="6"/>
-      <c r="AQ58" s="6"/>
-      <c r="AR58" s="6"/>
-      <c r="AS58" s="6"/>
-      <c r="AT58" s="6"/>
-      <c r="AU58" s="6"/>
-      <c r="AV58" s="6"/>
-      <c r="AW58" s="6"/>
-      <c r="AX58" s="6"/>
-      <c r="AY58" s="6"/>
-      <c r="AZ58" s="6"/>
-      <c r="BA58" s="6"/>
-      <c r="BB58" s="6"/>
-      <c r="BC58" s="6"/>
-      <c r="BD58" s="6"/>
-      <c r="BE58" s="6"/>
-      <c r="BF58" s="6"/>
-      <c r="BG58" s="6"/>
-      <c r="BH58" s="6"/>
-      <c r="BI58" s="6"/>
-      <c r="BJ58" s="6"/>
-      <c r="BK58" s="6"/>
-    </row>
-    <row r="59" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-      <c r="AI59" s="6"/>
-      <c r="AJ59" s="6"/>
-      <c r="AK59" s="6"/>
-      <c r="AL59" s="6"/>
-      <c r="AM59" s="6"/>
-      <c r="AN59" s="6"/>
-      <c r="AO59" s="6"/>
-      <c r="AP59" s="6"/>
-      <c r="AQ59" s="6"/>
-      <c r="AR59" s="6"/>
-      <c r="AS59" s="6"/>
-      <c r="AT59" s="6"/>
-      <c r="AU59" s="6"/>
-      <c r="AV59" s="6"/>
-      <c r="AW59" s="6"/>
-      <c r="AX59" s="6"/>
-      <c r="AY59" s="6"/>
-      <c r="AZ59" s="6"/>
-      <c r="BA59" s="6"/>
-      <c r="BB59" s="6"/>
-      <c r="BC59" s="6"/>
-      <c r="BD59" s="6"/>
-      <c r="BE59" s="6"/>
-      <c r="BF59" s="6"/>
-      <c r="BG59" s="6"/>
-      <c r="BH59" s="6"/>
-      <c r="BI59" s="6"/>
-      <c r="BJ59" s="6"/>
-      <c r="BK59" s="6"/>
-    </row>
-    <row r="63" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C63" s="6" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
+      <c r="AS58" s="4"/>
+      <c r="AT58" s="4"/>
+      <c r="AU58" s="4"/>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4"/>
+      <c r="AX58" s="4"/>
+      <c r="AY58" s="4"/>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4"/>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+      <c r="BF58" s="4"/>
+      <c r="BG58" s="4"/>
+      <c r="BH58" s="4"/>
+      <c r="BI58" s="4"/>
+      <c r="BJ58" s="4"/>
+      <c r="BK58" s="4"/>
+    </row>
+    <row r="59" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="4"/>
+      <c r="AQ59" s="4"/>
+      <c r="AR59" s="4"/>
+      <c r="AS59" s="4"/>
+      <c r="AT59" s="4"/>
+      <c r="AU59" s="4"/>
+      <c r="AV59" s="4"/>
+      <c r="AW59" s="4"/>
+      <c r="AX59" s="4"/>
+      <c r="AY59" s="4"/>
+      <c r="AZ59" s="4"/>
+      <c r="BA59" s="4"/>
+      <c r="BB59" s="4"/>
+      <c r="BC59" s="4"/>
+      <c r="BD59" s="4"/>
+      <c r="BE59" s="4"/>
+      <c r="BF59" s="4"/>
+      <c r="BG59" s="4"/>
+      <c r="BH59" s="4"/>
+      <c r="BI59" s="4"/>
+      <c r="BJ59" s="4"/>
+      <c r="BK59" s="4"/>
+    </row>
+    <row r="63" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="6"/>
-      <c r="AI63" s="6"/>
-      <c r="AJ63" s="6"/>
-      <c r="AK63" s="6"/>
-      <c r="AL63" s="6"/>
-      <c r="AM63" s="6"/>
-      <c r="AN63" s="6"/>
-      <c r="AO63" s="6"/>
-      <c r="AP63" s="6"/>
-      <c r="AQ63" s="6"/>
-      <c r="AR63" s="6"/>
-      <c r="AS63" s="6"/>
-      <c r="AT63" s="6"/>
-      <c r="AU63" s="6"/>
-      <c r="AV63" s="6"/>
-      <c r="AW63" s="6"/>
-      <c r="AX63" s="6"/>
-      <c r="AY63" s="6"/>
-      <c r="AZ63" s="6"/>
-      <c r="BA63" s="6"/>
-      <c r="BB63" s="6"/>
-      <c r="BC63" s="6"/>
-      <c r="BD63" s="6"/>
-      <c r="BE63" s="6"/>
-      <c r="BF63" s="6"/>
-      <c r="BG63" s="6"/>
-      <c r="BH63" s="6"/>
-      <c r="BI63" s="6"/>
-      <c r="BJ63" s="6"/>
-      <c r="BK63" s="6"/>
-    </row>
-    <row r="64" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="6"/>
-      <c r="AI64" s="6"/>
-      <c r="AJ64" s="6"/>
-      <c r="AK64" s="6"/>
-      <c r="AL64" s="6"/>
-      <c r="AM64" s="6"/>
-      <c r="AN64" s="6"/>
-      <c r="AO64" s="6"/>
-      <c r="AP64" s="6"/>
-      <c r="AQ64" s="6"/>
-      <c r="AR64" s="6"/>
-      <c r="AS64" s="6"/>
-      <c r="AT64" s="6"/>
-      <c r="AU64" s="6"/>
-      <c r="AV64" s="6"/>
-      <c r="AW64" s="6"/>
-      <c r="AX64" s="6"/>
-      <c r="AY64" s="6"/>
-      <c r="AZ64" s="6"/>
-      <c r="BA64" s="6"/>
-      <c r="BB64" s="6"/>
-      <c r="BC64" s="6"/>
-      <c r="BD64" s="6"/>
-      <c r="BE64" s="6"/>
-      <c r="BF64" s="6"/>
-      <c r="BG64" s="6"/>
-      <c r="BH64" s="6"/>
-      <c r="BI64" s="6"/>
-      <c r="BJ64" s="6"/>
-      <c r="BK64" s="6"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="4"/>
+      <c r="AR63" s="4"/>
+      <c r="AS63" s="4"/>
+      <c r="AT63" s="4"/>
+      <c r="AU63" s="4"/>
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="4"/>
+      <c r="AY63" s="4"/>
+      <c r="AZ63" s="4"/>
+      <c r="BA63" s="4"/>
+      <c r="BB63" s="4"/>
+      <c r="BC63" s="4"/>
+      <c r="BD63" s="4"/>
+      <c r="BE63" s="4"/>
+      <c r="BF63" s="4"/>
+      <c r="BG63" s="4"/>
+      <c r="BH63" s="4"/>
+      <c r="BI63" s="4"/>
+      <c r="BJ63" s="4"/>
+      <c r="BK63" s="4"/>
+    </row>
+    <row r="64" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
+      <c r="AR64" s="4"/>
+      <c r="AS64" s="4"/>
+      <c r="AT64" s="4"/>
+      <c r="AU64" s="4"/>
+      <c r="AV64" s="4"/>
+      <c r="AW64" s="4"/>
+      <c r="AX64" s="4"/>
+      <c r="AY64" s="4"/>
+      <c r="AZ64" s="4"/>
+      <c r="BA64" s="4"/>
+      <c r="BB64" s="4"/>
+      <c r="BC64" s="4"/>
+      <c r="BD64" s="4"/>
+      <c r="BE64" s="4"/>
+      <c r="BF64" s="4"/>
+      <c r="BG64" s="4"/>
+      <c r="BH64" s="4"/>
+      <c r="BI64" s="4"/>
+      <c r="BJ64" s="4"/>
+      <c r="BK64" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
     <mergeCell ref="E48:BJ49"/>
     <mergeCell ref="E53:BJ54"/>
     <mergeCell ref="C63:BK64"/>
@@ -6002,14 +6060,6 @@
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
     <mergeCell ref="E6:V7"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6038,16 +6088,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -6077,16 +6127,16 @@
       <selection activeCell="E40" sqref="E40:BJ41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -6095,385 +6145,385 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-    </row>
-    <row r="35" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C35" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+    </row>
+    <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+    </row>
+    <row r="35" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="6"/>
-      <c r="AR35" s="6"/>
-      <c r="AS35" s="6"/>
-      <c r="AT35" s="6"/>
-      <c r="AU35" s="6"/>
-      <c r="AV35" s="6"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="6"/>
-      <c r="AZ35" s="6"/>
-      <c r="BA35" s="6"/>
-      <c r="BB35" s="6"/>
-      <c r="BC35" s="6"/>
-      <c r="BD35" s="6"/>
-      <c r="BE35" s="6"/>
-      <c r="BF35" s="6"/>
-      <c r="BG35" s="6"/>
-      <c r="BH35" s="6"/>
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="6"/>
-      <c r="BK35" s="6"/>
-    </row>
-    <row r="36" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="6"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="6"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="6"/>
-      <c r="BK36" s="6"/>
-    </row>
-    <row r="40" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E40" s="5" t="s">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
+    </row>
+    <row r="36" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
+    </row>
+    <row r="40" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="5"/>
-      <c r="AZ40" s="5"/>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="5"/>
-      <c r="BF40" s="5"/>
-      <c r="BG40" s="5"/>
-      <c r="BH40" s="5"/>
-      <c r="BI40" s="5"/>
-      <c r="BJ40" s="5"/>
-    </row>
-    <row r="41" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="5"/>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
-      <c r="BE41" s="5"/>
-      <c r="BF41" s="5"/>
-      <c r="BG41" s="5"/>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="5"/>
-      <c r="BJ41" s="5"/>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
+    </row>
+    <row r="41" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
         <v>24</v>
       </c>
@@ -6481,249 +6531,249 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E82" s="5" t="s">
+    <row r="82" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E82" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
-      <c r="AM82" s="5"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="5"/>
-      <c r="AP82" s="5"/>
-      <c r="AQ82" s="5"/>
-      <c r="AR82" s="5"/>
-      <c r="AS82" s="5"/>
-      <c r="AT82" s="5"/>
-      <c r="AU82" s="5"/>
-      <c r="AV82" s="5"/>
-      <c r="AW82" s="5"/>
-      <c r="AX82" s="5"/>
-      <c r="AY82" s="5"/>
-      <c r="AZ82" s="5"/>
-      <c r="BA82" s="5"/>
-      <c r="BB82" s="5"/>
-      <c r="BC82" s="5"/>
-      <c r="BD82" s="5"/>
-      <c r="BE82" s="5"/>
-      <c r="BF82" s="5"/>
-      <c r="BG82" s="5"/>
-      <c r="BH82" s="5"/>
-      <c r="BI82" s="5"/>
-      <c r="BJ82" s="5"/>
-    </row>
-    <row r="83" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
-      <c r="AS83" s="5"/>
-      <c r="AT83" s="5"/>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="5"/>
-      <c r="AZ83" s="5"/>
-      <c r="BA83" s="5"/>
-      <c r="BB83" s="5"/>
-      <c r="BC83" s="5"/>
-      <c r="BD83" s="5"/>
-      <c r="BE83" s="5"/>
-      <c r="BF83" s="5"/>
-      <c r="BG83" s="5"/>
-      <c r="BH83" s="5"/>
-      <c r="BI83" s="5"/>
-      <c r="BJ83" s="5"/>
-    </row>
-    <row r="113" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E113" s="5" t="s">
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+      <c r="AQ82" s="3"/>
+      <c r="AR82" s="3"/>
+      <c r="AS82" s="3"/>
+      <c r="AT82" s="3"/>
+      <c r="AU82" s="3"/>
+      <c r="AV82" s="3"/>
+      <c r="AW82" s="3"/>
+      <c r="AX82" s="3"/>
+      <c r="AY82" s="3"/>
+      <c r="AZ82" s="3"/>
+      <c r="BA82" s="3"/>
+      <c r="BB82" s="3"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="3"/>
+      <c r="BE82" s="3"/>
+      <c r="BF82" s="3"/>
+      <c r="BG82" s="3"/>
+      <c r="BH82" s="3"/>
+      <c r="BI82" s="3"/>
+      <c r="BJ82" s="3"/>
+    </row>
+    <row r="83" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="3"/>
+      <c r="AQ83" s="3"/>
+      <c r="AR83" s="3"/>
+      <c r="AS83" s="3"/>
+      <c r="AT83" s="3"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="3"/>
+      <c r="AX83" s="3"/>
+      <c r="AY83" s="3"/>
+      <c r="AZ83" s="3"/>
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
+      <c r="BC83" s="3"/>
+      <c r="BD83" s="3"/>
+      <c r="BE83" s="3"/>
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+      <c r="BI83" s="3"/>
+      <c r="BJ83" s="3"/>
+    </row>
+    <row r="113" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E113" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
-      <c r="AC113" s="5"/>
-      <c r="AD113" s="5"/>
-      <c r="AE113" s="5"/>
-      <c r="AF113" s="5"/>
-      <c r="AG113" s="5"/>
-      <c r="AH113" s="5"/>
-      <c r="AI113" s="5"/>
-      <c r="AJ113" s="5"/>
-      <c r="AK113" s="5"/>
-      <c r="AL113" s="5"/>
-      <c r="AM113" s="5"/>
-      <c r="AN113" s="5"/>
-      <c r="AO113" s="5"/>
-      <c r="AP113" s="5"/>
-      <c r="AQ113" s="5"/>
-      <c r="AR113" s="5"/>
-      <c r="AS113" s="5"/>
-      <c r="AT113" s="5"/>
-      <c r="AU113" s="5"/>
-      <c r="AV113" s="5"/>
-      <c r="AW113" s="5"/>
-      <c r="AX113" s="5"/>
-      <c r="AY113" s="5"/>
-      <c r="AZ113" s="5"/>
-      <c r="BA113" s="5"/>
-      <c r="BB113" s="5"/>
-      <c r="BC113" s="5"/>
-      <c r="BD113" s="5"/>
-      <c r="BE113" s="5"/>
-      <c r="BF113" s="5"/>
-      <c r="BG113" s="5"/>
-      <c r="BH113" s="5"/>
-      <c r="BI113" s="5"/>
-      <c r="BJ113" s="5"/>
-    </row>
-    <row r="114" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
-      <c r="AC114" s="5"/>
-      <c r="AD114" s="5"/>
-      <c r="AE114" s="5"/>
-      <c r="AF114" s="5"/>
-      <c r="AG114" s="5"/>
-      <c r="AH114" s="5"/>
-      <c r="AI114" s="5"/>
-      <c r="AJ114" s="5"/>
-      <c r="AK114" s="5"/>
-      <c r="AL114" s="5"/>
-      <c r="AM114" s="5"/>
-      <c r="AN114" s="5"/>
-      <c r="AO114" s="5"/>
-      <c r="AP114" s="5"/>
-      <c r="AQ114" s="5"/>
-      <c r="AR114" s="5"/>
-      <c r="AS114" s="5"/>
-      <c r="AT114" s="5"/>
-      <c r="AU114" s="5"/>
-      <c r="AV114" s="5"/>
-      <c r="AW114" s="5"/>
-      <c r="AX114" s="5"/>
-      <c r="AY114" s="5"/>
-      <c r="AZ114" s="5"/>
-      <c r="BA114" s="5"/>
-      <c r="BB114" s="5"/>
-      <c r="BC114" s="5"/>
-      <c r="BD114" s="5"/>
-      <c r="BE114" s="5"/>
-      <c r="BF114" s="5"/>
-      <c r="BG114" s="5"/>
-      <c r="BH114" s="5"/>
-      <c r="BI114" s="5"/>
-      <c r="BJ114" s="5"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="3"/>
+      <c r="AG113" s="3"/>
+      <c r="AH113" s="3"/>
+      <c r="AI113" s="3"/>
+      <c r="AJ113" s="3"/>
+      <c r="AK113" s="3"/>
+      <c r="AL113" s="3"/>
+      <c r="AM113" s="3"/>
+      <c r="AN113" s="3"/>
+      <c r="AO113" s="3"/>
+      <c r="AP113" s="3"/>
+      <c r="AQ113" s="3"/>
+      <c r="AR113" s="3"/>
+      <c r="AS113" s="3"/>
+      <c r="AT113" s="3"/>
+      <c r="AU113" s="3"/>
+      <c r="AV113" s="3"/>
+      <c r="AW113" s="3"/>
+      <c r="AX113" s="3"/>
+      <c r="AY113" s="3"/>
+      <c r="AZ113" s="3"/>
+      <c r="BA113" s="3"/>
+      <c r="BB113" s="3"/>
+      <c r="BC113" s="3"/>
+      <c r="BD113" s="3"/>
+      <c r="BE113" s="3"/>
+      <c r="BF113" s="3"/>
+      <c r="BG113" s="3"/>
+      <c r="BH113" s="3"/>
+      <c r="BI113" s="3"/>
+      <c r="BJ113" s="3"/>
+    </row>
+    <row r="114" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+      <c r="AG114" s="3"/>
+      <c r="AH114" s="3"/>
+      <c r="AI114" s="3"/>
+      <c r="AJ114" s="3"/>
+      <c r="AK114" s="3"/>
+      <c r="AL114" s="3"/>
+      <c r="AM114" s="3"/>
+      <c r="AN114" s="3"/>
+      <c r="AO114" s="3"/>
+      <c r="AP114" s="3"/>
+      <c r="AQ114" s="3"/>
+      <c r="AR114" s="3"/>
+      <c r="AS114" s="3"/>
+      <c r="AT114" s="3"/>
+      <c r="AU114" s="3"/>
+      <c r="AV114" s="3"/>
+      <c r="AW114" s="3"/>
+      <c r="AX114" s="3"/>
+      <c r="AY114" s="3"/>
+      <c r="AZ114" s="3"/>
+      <c r="BA114" s="3"/>
+      <c r="BB114" s="3"/>
+      <c r="BC114" s="3"/>
+      <c r="BD114" s="3"/>
+      <c r="BE114" s="3"/>
+      <c r="BF114" s="3"/>
+      <c r="BG114" s="3"/>
+      <c r="BH114" s="3"/>
+      <c r="BI114" s="3"/>
+      <c r="BJ114" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6746,25 +6796,25 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -6772,7 +6822,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -6780,12 +6830,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -6793,12 +6843,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -6806,10 +6856,10 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -6817,10 +6867,10 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -6828,10 +6878,10 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -6839,10 +6889,13 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -6850,10 +6903,10 @@
         <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -6861,127 +6914,127 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -7001,16 +7054,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -7019,517 +7072,517 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C12" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="6"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="6"/>
-      <c r="BH13" s="6"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="6"/>
-    </row>
-    <row r="17" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C17" s="6" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+    </row>
+    <row r="17" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
-    </row>
-    <row r="18" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
-    </row>
-    <row r="22" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C22" s="6" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+    </row>
+    <row r="18" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+    </row>
+    <row r="22" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="6"/>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="6"/>
-    </row>
-    <row r="23" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+    </row>
+    <row r="23" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7556,16 +7609,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -7595,16 +7648,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -7613,262 +7666,262 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="E14" s="5" t="s">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-    </row>
-    <row r="17" spans="5:62" x14ac:dyDescent="0.45">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+    </row>
+    <row r="17" spans="5:62" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
         <v>36</v>
       </c>
@@ -7879,252 +7932,252 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E28" s="5" t="s">
+    <row r="28" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-    </row>
-    <row r="29" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
-    </row>
-    <row r="33" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E33" s="5" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+    </row>
+    <row r="29" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+    </row>
+    <row r="33" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
-    </row>
-    <row r="34" spans="5:62" x14ac:dyDescent="0.45">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
-    </row>
-    <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
+    </row>
+    <row r="34" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+    </row>
+    <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:XFD3"/>
@@ -8151,16 +8204,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -8190,16 +8243,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -8229,16 +8282,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -8268,16 +8321,16 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -8307,16 +8360,16 @@
       <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -8325,610 +8378,610 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+    </row>
+    <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C14" s="6" t="s">
+      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J28" t="s">
+        <v>87</v>
+      </c>
+      <c r="S28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+      <c r="S31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
+        <v>90</v>
+      </c>
+      <c r="S32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+      <c r="S34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
+      <c r="S39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" t="s">
+        <v>102</v>
+      </c>
+      <c r="S42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J43" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="6"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
-      <c r="BG15" s="6"/>
-      <c r="BH15" s="6"/>
-      <c r="BI15" s="6"/>
-      <c r="BJ15" s="6"/>
-      <c r="BK15" s="6"/>
-    </row>
-    <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" t="s">
-        <v>68</v>
-      </c>
-      <c r="S17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="S18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J19" t="s">
-        <v>78</v>
-      </c>
-      <c r="S19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-      <c r="S20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J21" t="s">
-        <v>83</v>
-      </c>
-      <c r="S21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" t="s">
-        <v>70</v>
-      </c>
-      <c r="S24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J25" t="s">
-        <v>85</v>
-      </c>
-      <c r="S25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J26" t="s">
-        <v>87</v>
-      </c>
-      <c r="S26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J27" t="s">
-        <v>89</v>
-      </c>
-      <c r="S27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J28" t="s">
-        <v>90</v>
-      </c>
-      <c r="S28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="F30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="S43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
+        <v>105</v>
+      </c>
+      <c r="S44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C52" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J31" t="s">
-        <v>92</v>
-      </c>
-      <c r="S31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J32" t="s">
-        <v>93</v>
-      </c>
-      <c r="S32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J33" t="s">
-        <v>94</v>
-      </c>
-      <c r="S33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J34" t="s">
-        <v>95</v>
-      </c>
-      <c r="S34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="J38" t="s">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J39" t="s">
-        <v>100</v>
-      </c>
-      <c r="S39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="J42" t="s">
-        <v>105</v>
-      </c>
-      <c r="S42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J43" t="s">
-        <v>106</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+      <c r="BF52" s="4"/>
+      <c r="BG52" s="4"/>
+      <c r="BH52" s="4"/>
+      <c r="BI52" s="4"/>
+      <c r="BJ52" s="4"/>
+      <c r="BK52" s="4"/>
+    </row>
+    <row r="53" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
+      <c r="BF53" s="4"/>
+      <c r="BG53" s="4"/>
+      <c r="BH53" s="4"/>
+      <c r="BI53" s="4"/>
+      <c r="BJ53" s="4"/>
+      <c r="BK53" s="4"/>
+    </row>
+    <row r="56" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J56" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="6:19" x14ac:dyDescent="0.45">
-      <c r="J44" t="s">
-        <v>108</v>
-      </c>
-      <c r="S44" t="s">
+      <c r="S56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="J57" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C52" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
-      <c r="AH52" s="6"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="6"/>
-      <c r="AK52" s="6"/>
-      <c r="AL52" s="6"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="6"/>
-      <c r="AO52" s="6"/>
-      <c r="AP52" s="6"/>
-      <c r="AQ52" s="6"/>
-      <c r="AR52" s="6"/>
-      <c r="AS52" s="6"/>
-      <c r="AT52" s="6"/>
-      <c r="AU52" s="6"/>
-      <c r="AV52" s="6"/>
-      <c r="AW52" s="6"/>
-      <c r="AX52" s="6"/>
-      <c r="AY52" s="6"/>
-      <c r="AZ52" s="6"/>
-      <c r="BA52" s="6"/>
-      <c r="BB52" s="6"/>
-      <c r="BC52" s="6"/>
-      <c r="BD52" s="6"/>
-      <c r="BE52" s="6"/>
-      <c r="BF52" s="6"/>
-      <c r="BG52" s="6"/>
-      <c r="BH52" s="6"/>
-      <c r="BI52" s="6"/>
-      <c r="BJ52" s="6"/>
-      <c r="BK52" s="6"/>
-    </row>
-    <row r="53" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
-      <c r="AH53" s="6"/>
-      <c r="AI53" s="6"/>
-      <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
-      <c r="AL53" s="6"/>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="6"/>
-      <c r="AO53" s="6"/>
-      <c r="AP53" s="6"/>
-      <c r="AQ53" s="6"/>
-      <c r="AR53" s="6"/>
-      <c r="AS53" s="6"/>
-      <c r="AT53" s="6"/>
-      <c r="AU53" s="6"/>
-      <c r="AV53" s="6"/>
-      <c r="AW53" s="6"/>
-      <c r="AX53" s="6"/>
-      <c r="AY53" s="6"/>
-      <c r="AZ53" s="6"/>
-      <c r="BA53" s="6"/>
-      <c r="BB53" s="6"/>
-      <c r="BC53" s="6"/>
-      <c r="BD53" s="6"/>
-      <c r="BE53" s="6"/>
-      <c r="BF53" s="6"/>
-      <c r="BG53" s="6"/>
-      <c r="BH53" s="6"/>
-      <c r="BI53" s="6"/>
-      <c r="BJ53" s="6"/>
-      <c r="BK53" s="6"/>
-    </row>
-    <row r="56" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="F56" t="s">
+      <c r="S57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="J58" t="s">
         <v>111</v>
       </c>
-      <c r="J56" t="s">
+      <c r="S58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="J59" t="s">
         <v>112</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S59" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="J57" t="s">
-        <v>113</v>
-      </c>
-      <c r="S57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="J58" t="s">
-        <v>114</v>
-      </c>
-      <c r="S58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="3:63" x14ac:dyDescent="0.45">
-      <c r="J59" t="s">
-        <v>115</v>
-      </c>
-      <c r="S59" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0.仕様書概要" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>1.2チームメンバー</t>
     <phoneticPr fontId="2"/>
@@ -972,6 +972,43 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ソラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8.3 忍者</t>
+    <rPh sb="4" eb="6">
+      <t>ニンジャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NinjaFly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空に飛んでいる忍者のイメージ図</t>
+    <rPh sb="0" eb="1">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンジャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>飛び忍者</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンジャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1213,6 +1250,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1221,12 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2247,8 +2284,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="954405" y="1943100"/>
-          <a:ext cx="6105525" cy="5534025"/>
+          <a:off x="962025" y="2019300"/>
+          <a:ext cx="6153150" cy="5762625"/>
           <a:chOff x="333375" y="1885950"/>
           <a:chExt cx="6153150" cy="5762625"/>
         </a:xfrm>
@@ -3686,8 +3723,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1663065" y="9839325"/>
-          <a:ext cx="8513445" cy="4562475"/>
+          <a:off x="1676400" y="10248900"/>
+          <a:ext cx="8582025" cy="4752975"/>
           <a:chOff x="1419225" y="10248900"/>
           <a:chExt cx="8582025" cy="4752975"/>
         </a:xfrm>
@@ -3850,8 +3887,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3053715" y="10725150"/>
-          <a:ext cx="5347335" cy="2695575"/>
+          <a:off x="3076575" y="11163300"/>
+          <a:ext cx="5391150" cy="2809875"/>
           <a:chOff x="2819400" y="11144250"/>
           <a:chExt cx="5391150" cy="2809875"/>
         </a:xfrm>
@@ -4555,13 +4592,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E6" s="8" t="s">
         <v>9</v>
@@ -4605,314 +4642,314 @@
       <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
     </row>
     <row r="19" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
     </row>
     <row r="21" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
@@ -4920,248 +4957,248 @@
       </c>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
     </row>
     <row r="24" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
     </row>
     <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
     </row>
     <row r="31" spans="3:63" x14ac:dyDescent="0.4">
       <c r="H31" t="s">
@@ -5169,881 +5206,873 @@
       </c>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
     </row>
     <row r="38" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
-      <c r="AQ38" s="3"/>
-      <c r="AR38" s="3"/>
-      <c r="AS38" s="3"/>
-      <c r="AT38" s="3"/>
-      <c r="AU38" s="3"/>
-      <c r="AV38" s="3"/>
-      <c r="AW38" s="3"/>
-      <c r="AX38" s="3"/>
-      <c r="AY38" s="3"/>
-      <c r="AZ38" s="3"/>
-      <c r="BA38" s="3"/>
-      <c r="BB38" s="3"/>
-      <c r="BC38" s="3"/>
-      <c r="BD38" s="3"/>
-      <c r="BE38" s="3"/>
-      <c r="BF38" s="3"/>
-      <c r="BG38" s="3"/>
-      <c r="BH38" s="3"/>
-      <c r="BI38" s="3"/>
-      <c r="BJ38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
-      <c r="AU39" s="3"/>
-      <c r="AV39" s="3"/>
-      <c r="AW39" s="3"/>
-      <c r="AX39" s="3"/>
-      <c r="AY39" s="3"/>
-      <c r="AZ39" s="3"/>
-      <c r="BA39" s="3"/>
-      <c r="BB39" s="3"/>
-      <c r="BC39" s="3"/>
-      <c r="BD39" s="3"/>
-      <c r="BE39" s="3"/>
-      <c r="BF39" s="3"/>
-      <c r="BG39" s="3"/>
-      <c r="BH39" s="3"/>
-      <c r="BI39" s="3"/>
-      <c r="BJ39" s="3"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
     </row>
     <row r="43" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="3"/>
-      <c r="AR43" s="3"/>
-      <c r="AS43" s="3"/>
-      <c r="AT43" s="3"/>
-      <c r="AU43" s="3"/>
-      <c r="AV43" s="3"/>
-      <c r="AW43" s="3"/>
-      <c r="AX43" s="3"/>
-      <c r="AY43" s="3"/>
-      <c r="AZ43" s="3"/>
-      <c r="BA43" s="3"/>
-      <c r="BB43" s="3"/>
-      <c r="BC43" s="3"/>
-      <c r="BD43" s="3"/>
-      <c r="BE43" s="3"/>
-      <c r="BF43" s="3"/>
-      <c r="BG43" s="3"/>
-      <c r="BH43" s="3"/>
-      <c r="BI43" s="3"/>
-      <c r="BJ43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="3"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="3"/>
-      <c r="AS44" s="3"/>
-      <c r="AT44" s="3"/>
-      <c r="AU44" s="3"/>
-      <c r="AV44" s="3"/>
-      <c r="AW44" s="3"/>
-      <c r="AX44" s="3"/>
-      <c r="AY44" s="3"/>
-      <c r="AZ44" s="3"/>
-      <c r="BA44" s="3"/>
-      <c r="BB44" s="3"/>
-      <c r="BC44" s="3"/>
-      <c r="BD44" s="3"/>
-      <c r="BE44" s="3"/>
-      <c r="BF44" s="3"/>
-      <c r="BG44" s="3"/>
-      <c r="BH44" s="3"/>
-      <c r="BI44" s="3"/>
-      <c r="BJ44" s="3"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
     </row>
     <row r="48" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
-      <c r="AW48" s="3"/>
-      <c r="AX48" s="3"/>
-      <c r="AY48" s="3"/>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="3"/>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="3"/>
-      <c r="BD48" s="3"/>
-      <c r="BE48" s="3"/>
-      <c r="BF48" s="3"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="3"/>
-      <c r="BI48" s="3"/>
-      <c r="BJ48" s="3"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
     </row>
     <row r="49" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="3"/>
-      <c r="AQ49" s="3"/>
-      <c r="AR49" s="3"/>
-      <c r="AS49" s="3"/>
-      <c r="AT49" s="3"/>
-      <c r="AU49" s="3"/>
-      <c r="AV49" s="3"/>
-      <c r="AW49" s="3"/>
-      <c r="AX49" s="3"/>
-      <c r="AY49" s="3"/>
-      <c r="AZ49" s="3"/>
-      <c r="BA49" s="3"/>
-      <c r="BB49" s="3"/>
-      <c r="BC49" s="3"/>
-      <c r="BD49" s="3"/>
-      <c r="BE49" s="3"/>
-      <c r="BF49" s="3"/>
-      <c r="BG49" s="3"/>
-      <c r="BH49" s="3"/>
-      <c r="BI49" s="3"/>
-      <c r="BJ49" s="3"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
     </row>
     <row r="53" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
-      <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
-      <c r="AN53" s="3"/>
-      <c r="AO53" s="3"/>
-      <c r="AP53" s="3"/>
-      <c r="AQ53" s="3"/>
-      <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="3"/>
-      <c r="AU53" s="3"/>
-      <c r="AV53" s="3"/>
-      <c r="AW53" s="3"/>
-      <c r="AX53" s="3"/>
-      <c r="AY53" s="3"/>
-      <c r="AZ53" s="3"/>
-      <c r="BA53" s="3"/>
-      <c r="BB53" s="3"/>
-      <c r="BC53" s="3"/>
-      <c r="BD53" s="3"/>
-      <c r="BE53" s="3"/>
-      <c r="BF53" s="3"/>
-      <c r="BG53" s="3"/>
-      <c r="BH53" s="3"/>
-      <c r="BI53" s="3"/>
-      <c r="BJ53" s="3"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
     </row>
     <row r="54" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
-      <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="3"/>
-      <c r="AP54" s="3"/>
-      <c r="AQ54" s="3"/>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
-      <c r="AU54" s="3"/>
-      <c r="AV54" s="3"/>
-      <c r="AW54" s="3"/>
-      <c r="AX54" s="3"/>
-      <c r="AY54" s="3"/>
-      <c r="AZ54" s="3"/>
-      <c r="BA54" s="3"/>
-      <c r="BB54" s="3"/>
-      <c r="BC54" s="3"/>
-      <c r="BD54" s="3"/>
-      <c r="BE54" s="3"/>
-      <c r="BF54" s="3"/>
-      <c r="BG54" s="3"/>
-      <c r="BH54" s="3"/>
-      <c r="BI54" s="3"/>
-      <c r="BJ54" s="3"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="4"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="4"/>
-      <c r="AO58" s="4"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
-      <c r="AS58" s="4"/>
-      <c r="AT58" s="4"/>
-      <c r="AU58" s="4"/>
-      <c r="AV58" s="4"/>
-      <c r="AW58" s="4"/>
-      <c r="AX58" s="4"/>
-      <c r="AY58" s="4"/>
-      <c r="AZ58" s="4"/>
-      <c r="BA58" s="4"/>
-      <c r="BB58" s="4"/>
-      <c r="BC58" s="4"/>
-      <c r="BD58" s="4"/>
-      <c r="BE58" s="4"/>
-      <c r="BF58" s="4"/>
-      <c r="BG58" s="4"/>
-      <c r="BH58" s="4"/>
-      <c r="BI58" s="4"/>
-      <c r="BJ58" s="4"/>
-      <c r="BK58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="6"/>
+      <c r="AQ58" s="6"/>
+      <c r="AR58" s="6"/>
+      <c r="AS58" s="6"/>
+      <c r="AT58" s="6"/>
+      <c r="AU58" s="6"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="6"/>
+      <c r="AX58" s="6"/>
+      <c r="AY58" s="6"/>
+      <c r="AZ58" s="6"/>
+      <c r="BA58" s="6"/>
+      <c r="BB58" s="6"/>
+      <c r="BC58" s="6"/>
+      <c r="BD58" s="6"/>
+      <c r="BE58" s="6"/>
+      <c r="BF58" s="6"/>
+      <c r="BG58" s="6"/>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="6"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="6"/>
     </row>
     <row r="59" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
-      <c r="AS59" s="4"/>
-      <c r="AT59" s="4"/>
-      <c r="AU59" s="4"/>
-      <c r="AV59" s="4"/>
-      <c r="AW59" s="4"/>
-      <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
-      <c r="AZ59" s="4"/>
-      <c r="BA59" s="4"/>
-      <c r="BB59" s="4"/>
-      <c r="BC59" s="4"/>
-      <c r="BD59" s="4"/>
-      <c r="BE59" s="4"/>
-      <c r="BF59" s="4"/>
-      <c r="BG59" s="4"/>
-      <c r="BH59" s="4"/>
-      <c r="BI59" s="4"/>
-      <c r="BJ59" s="4"/>
-      <c r="BK59" s="4"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="6"/>
+      <c r="AO59" s="6"/>
+      <c r="AP59" s="6"/>
+      <c r="AQ59" s="6"/>
+      <c r="AR59" s="6"/>
+      <c r="AS59" s="6"/>
+      <c r="AT59" s="6"/>
+      <c r="AU59" s="6"/>
+      <c r="AV59" s="6"/>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="6"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="6"/>
+      <c r="BA59" s="6"/>
+      <c r="BB59" s="6"/>
+      <c r="BC59" s="6"/>
+      <c r="BD59" s="6"/>
+      <c r="BE59" s="6"/>
+      <c r="BF59" s="6"/>
+      <c r="BG59" s="6"/>
+      <c r="BH59" s="6"/>
+      <c r="BI59" s="6"/>
+      <c r="BJ59" s="6"/>
+      <c r="BK59" s="6"/>
     </row>
     <row r="63" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="4"/>
-      <c r="AO63" s="4"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
-      <c r="AS63" s="4"/>
-      <c r="AT63" s="4"/>
-      <c r="AU63" s="4"/>
-      <c r="AV63" s="4"/>
-      <c r="AW63" s="4"/>
-      <c r="AX63" s="4"/>
-      <c r="AY63" s="4"/>
-      <c r="AZ63" s="4"/>
-      <c r="BA63" s="4"/>
-      <c r="BB63" s="4"/>
-      <c r="BC63" s="4"/>
-      <c r="BD63" s="4"/>
-      <c r="BE63" s="4"/>
-      <c r="BF63" s="4"/>
-      <c r="BG63" s="4"/>
-      <c r="BH63" s="4"/>
-      <c r="BI63" s="4"/>
-      <c r="BJ63" s="4"/>
-      <c r="BK63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="6"/>
+      <c r="AQ63" s="6"/>
+      <c r="AR63" s="6"/>
+      <c r="AS63" s="6"/>
+      <c r="AT63" s="6"/>
+      <c r="AU63" s="6"/>
+      <c r="AV63" s="6"/>
+      <c r="AW63" s="6"/>
+      <c r="AX63" s="6"/>
+      <c r="AY63" s="6"/>
+      <c r="AZ63" s="6"/>
+      <c r="BA63" s="6"/>
+      <c r="BB63" s="6"/>
+      <c r="BC63" s="6"/>
+      <c r="BD63" s="6"/>
+      <c r="BE63" s="6"/>
+      <c r="BF63" s="6"/>
+      <c r="BG63" s="6"/>
+      <c r="BH63" s="6"/>
+      <c r="BI63" s="6"/>
+      <c r="BJ63" s="6"/>
+      <c r="BK63" s="6"/>
     </row>
     <row r="64" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
-      <c r="AI64" s="4"/>
-      <c r="AJ64" s="4"/>
-      <c r="AK64" s="4"/>
-      <c r="AL64" s="4"/>
-      <c r="AM64" s="4"/>
-      <c r="AN64" s="4"/>
-      <c r="AO64" s="4"/>
-      <c r="AP64" s="4"/>
-      <c r="AQ64" s="4"/>
-      <c r="AR64" s="4"/>
-      <c r="AS64" s="4"/>
-      <c r="AT64" s="4"/>
-      <c r="AU64" s="4"/>
-      <c r="AV64" s="4"/>
-      <c r="AW64" s="4"/>
-      <c r="AX64" s="4"/>
-      <c r="AY64" s="4"/>
-      <c r="AZ64" s="4"/>
-      <c r="BA64" s="4"/>
-      <c r="BB64" s="4"/>
-      <c r="BC64" s="4"/>
-      <c r="BD64" s="4"/>
-      <c r="BE64" s="4"/>
-      <c r="BF64" s="4"/>
-      <c r="BG64" s="4"/>
-      <c r="BH64" s="4"/>
-      <c r="BI64" s="4"/>
-      <c r="BJ64" s="4"/>
-      <c r="BK64" s="4"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="6"/>
+      <c r="AQ64" s="6"/>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="6"/>
+      <c r="AT64" s="6"/>
+      <c r="AU64" s="6"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="6"/>
+      <c r="AX64" s="6"/>
+      <c r="AY64" s="6"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="6"/>
+      <c r="BB64" s="6"/>
+      <c r="BC64" s="6"/>
+      <c r="BD64" s="6"/>
+      <c r="BE64" s="6"/>
+      <c r="BF64" s="6"/>
+      <c r="BG64" s="6"/>
+      <c r="BH64" s="6"/>
+      <c r="BI64" s="6"/>
+      <c r="BJ64" s="6"/>
+      <c r="BK64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
     <mergeCell ref="E48:BJ49"/>
     <mergeCell ref="E53:BJ54"/>
     <mergeCell ref="C63:BK64"/>
@@ -6060,6 +6089,14 @@
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
     <mergeCell ref="E6:V7"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6090,13 +6127,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6129,13 +6166,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6146,382 +6183,382 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="35" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
-      <c r="BI35" s="4"/>
-      <c r="BJ35" s="4"/>
-      <c r="BK35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="6"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="6"/>
     </row>
     <row r="36" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="4"/>
-      <c r="BF36" s="4"/>
-      <c r="BG36" s="4"/>
-      <c r="BH36" s="4"/>
-      <c r="BI36" s="4"/>
-      <c r="BJ36" s="4"/>
-      <c r="BK36" s="4"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
     </row>
     <row r="40" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-      <c r="AW40" s="3"/>
-      <c r="AX40" s="3"/>
-      <c r="AY40" s="3"/>
-      <c r="AZ40" s="3"/>
-      <c r="BA40" s="3"/>
-      <c r="BB40" s="3"/>
-      <c r="BC40" s="3"/>
-      <c r="BD40" s="3"/>
-      <c r="BE40" s="3"/>
-      <c r="BF40" s="3"/>
-      <c r="BG40" s="3"/>
-      <c r="BH40" s="3"/>
-      <c r="BI40" s="3"/>
-      <c r="BJ40" s="3"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
-      <c r="BH41" s="3"/>
-      <c r="BI41" s="3"/>
-      <c r="BJ41" s="3"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
@@ -6532,248 +6569,248 @@
       </c>
     </row>
     <row r="82" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-      <c r="AF82" s="3"/>
-      <c r="AG82" s="3"/>
-      <c r="AH82" s="3"/>
-      <c r="AI82" s="3"/>
-      <c r="AJ82" s="3"/>
-      <c r="AK82" s="3"/>
-      <c r="AL82" s="3"/>
-      <c r="AM82" s="3"/>
-      <c r="AN82" s="3"/>
-      <c r="AO82" s="3"/>
-      <c r="AP82" s="3"/>
-      <c r="AQ82" s="3"/>
-      <c r="AR82" s="3"/>
-      <c r="AS82" s="3"/>
-      <c r="AT82" s="3"/>
-      <c r="AU82" s="3"/>
-      <c r="AV82" s="3"/>
-      <c r="AW82" s="3"/>
-      <c r="AX82" s="3"/>
-      <c r="AY82" s="3"/>
-      <c r="AZ82" s="3"/>
-      <c r="BA82" s="3"/>
-      <c r="BB82" s="3"/>
-      <c r="BC82" s="3"/>
-      <c r="BD82" s="3"/>
-      <c r="BE82" s="3"/>
-      <c r="BF82" s="3"/>
-      <c r="BG82" s="3"/>
-      <c r="BH82" s="3"/>
-      <c r="BI82" s="3"/>
-      <c r="BJ82" s="3"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="5"/>
+      <c r="AT82" s="5"/>
+      <c r="AU82" s="5"/>
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="5"/>
+      <c r="AX82" s="5"/>
+      <c r="AY82" s="5"/>
+      <c r="AZ82" s="5"/>
+      <c r="BA82" s="5"/>
+      <c r="BB82" s="5"/>
+      <c r="BC82" s="5"/>
+      <c r="BD82" s="5"/>
+      <c r="BE82" s="5"/>
+      <c r="BF82" s="5"/>
+      <c r="BG82" s="5"/>
+      <c r="BH82" s="5"/>
+      <c r="BI82" s="5"/>
+      <c r="BJ82" s="5"/>
     </row>
     <row r="83" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
-      <c r="AG83" s="3"/>
-      <c r="AH83" s="3"/>
-      <c r="AI83" s="3"/>
-      <c r="AJ83" s="3"/>
-      <c r="AK83" s="3"/>
-      <c r="AL83" s="3"/>
-      <c r="AM83" s="3"/>
-      <c r="AN83" s="3"/>
-      <c r="AO83" s="3"/>
-      <c r="AP83" s="3"/>
-      <c r="AQ83" s="3"/>
-      <c r="AR83" s="3"/>
-      <c r="AS83" s="3"/>
-      <c r="AT83" s="3"/>
-      <c r="AU83" s="3"/>
-      <c r="AV83" s="3"/>
-      <c r="AW83" s="3"/>
-      <c r="AX83" s="3"/>
-      <c r="AY83" s="3"/>
-      <c r="AZ83" s="3"/>
-      <c r="BA83" s="3"/>
-      <c r="BB83" s="3"/>
-      <c r="BC83" s="3"/>
-      <c r="BD83" s="3"/>
-      <c r="BE83" s="3"/>
-      <c r="BF83" s="3"/>
-      <c r="BG83" s="3"/>
-      <c r="BH83" s="3"/>
-      <c r="BI83" s="3"/>
-      <c r="BJ83" s="3"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="5"/>
+      <c r="AS83" s="5"/>
+      <c r="AT83" s="5"/>
+      <c r="AU83" s="5"/>
+      <c r="AV83" s="5"/>
+      <c r="AW83" s="5"/>
+      <c r="AX83" s="5"/>
+      <c r="AY83" s="5"/>
+      <c r="AZ83" s="5"/>
+      <c r="BA83" s="5"/>
+      <c r="BB83" s="5"/>
+      <c r="BC83" s="5"/>
+      <c r="BD83" s="5"/>
+      <c r="BE83" s="5"/>
+      <c r="BF83" s="5"/>
+      <c r="BG83" s="5"/>
+      <c r="BH83" s="5"/>
+      <c r="BI83" s="5"/>
+      <c r="BJ83" s="5"/>
     </row>
     <row r="113" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
-      <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-      <c r="AF113" s="3"/>
-      <c r="AG113" s="3"/>
-      <c r="AH113" s="3"/>
-      <c r="AI113" s="3"/>
-      <c r="AJ113" s="3"/>
-      <c r="AK113" s="3"/>
-      <c r="AL113" s="3"/>
-      <c r="AM113" s="3"/>
-      <c r="AN113" s="3"/>
-      <c r="AO113" s="3"/>
-      <c r="AP113" s="3"/>
-      <c r="AQ113" s="3"/>
-      <c r="AR113" s="3"/>
-      <c r="AS113" s="3"/>
-      <c r="AT113" s="3"/>
-      <c r="AU113" s="3"/>
-      <c r="AV113" s="3"/>
-      <c r="AW113" s="3"/>
-      <c r="AX113" s="3"/>
-      <c r="AY113" s="3"/>
-      <c r="AZ113" s="3"/>
-      <c r="BA113" s="3"/>
-      <c r="BB113" s="3"/>
-      <c r="BC113" s="3"/>
-      <c r="BD113" s="3"/>
-      <c r="BE113" s="3"/>
-      <c r="BF113" s="3"/>
-      <c r="BG113" s="3"/>
-      <c r="BH113" s="3"/>
-      <c r="BI113" s="3"/>
-      <c r="BJ113" s="3"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+      <c r="AJ113" s="5"/>
+      <c r="AK113" s="5"/>
+      <c r="AL113" s="5"/>
+      <c r="AM113" s="5"/>
+      <c r="AN113" s="5"/>
+      <c r="AO113" s="5"/>
+      <c r="AP113" s="5"/>
+      <c r="AQ113" s="5"/>
+      <c r="AR113" s="5"/>
+      <c r="AS113" s="5"/>
+      <c r="AT113" s="5"/>
+      <c r="AU113" s="5"/>
+      <c r="AV113" s="5"/>
+      <c r="AW113" s="5"/>
+      <c r="AX113" s="5"/>
+      <c r="AY113" s="5"/>
+      <c r="AZ113" s="5"/>
+      <c r="BA113" s="5"/>
+      <c r="BB113" s="5"/>
+      <c r="BC113" s="5"/>
+      <c r="BD113" s="5"/>
+      <c r="BE113" s="5"/>
+      <c r="BF113" s="5"/>
+      <c r="BG113" s="5"/>
+      <c r="BH113" s="5"/>
+      <c r="BI113" s="5"/>
+      <c r="BJ113" s="5"/>
     </row>
     <row r="114" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
-      <c r="W114" s="3"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-      <c r="AF114" s="3"/>
-      <c r="AG114" s="3"/>
-      <c r="AH114" s="3"/>
-      <c r="AI114" s="3"/>
-      <c r="AJ114" s="3"/>
-      <c r="AK114" s="3"/>
-      <c r="AL114" s="3"/>
-      <c r="AM114" s="3"/>
-      <c r="AN114" s="3"/>
-      <c r="AO114" s="3"/>
-      <c r="AP114" s="3"/>
-      <c r="AQ114" s="3"/>
-      <c r="AR114" s="3"/>
-      <c r="AS114" s="3"/>
-      <c r="AT114" s="3"/>
-      <c r="AU114" s="3"/>
-      <c r="AV114" s="3"/>
-      <c r="AW114" s="3"/>
-      <c r="AX114" s="3"/>
-      <c r="AY114" s="3"/>
-      <c r="AZ114" s="3"/>
-      <c r="BA114" s="3"/>
-      <c r="BB114" s="3"/>
-      <c r="BC114" s="3"/>
-      <c r="BD114" s="3"/>
-      <c r="BE114" s="3"/>
-      <c r="BF114" s="3"/>
-      <c r="BG114" s="3"/>
-      <c r="BH114" s="3"/>
-      <c r="BI114" s="3"/>
-      <c r="BJ114" s="3"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="5"/>
+      <c r="AL114" s="5"/>
+      <c r="AM114" s="5"/>
+      <c r="AN114" s="5"/>
+      <c r="AO114" s="5"/>
+      <c r="AP114" s="5"/>
+      <c r="AQ114" s="5"/>
+      <c r="AR114" s="5"/>
+      <c r="AS114" s="5"/>
+      <c r="AT114" s="5"/>
+      <c r="AU114" s="5"/>
+      <c r="AV114" s="5"/>
+      <c r="AW114" s="5"/>
+      <c r="AX114" s="5"/>
+      <c r="AY114" s="5"/>
+      <c r="AZ114" s="5"/>
+      <c r="BA114" s="5"/>
+      <c r="BB114" s="5"/>
+      <c r="BC114" s="5"/>
+      <c r="BD114" s="5"/>
+      <c r="BE114" s="5"/>
+      <c r="BF114" s="5"/>
+      <c r="BG114" s="5"/>
+      <c r="BH114" s="5"/>
+      <c r="BI114" s="5"/>
+      <c r="BJ114" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6798,8 +6835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7056,13 +7093,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7073,516 +7110,516 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
     </row>
     <row r="17" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
     </row>
     <row r="22" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7611,13 +7648,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7650,13 +7687,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7667,132 +7704,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -7800,126 +7837,126 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
     </row>
     <row r="17" spans="5:62" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
@@ -7933,248 +7970,248 @@
       </c>
     </row>
     <row r="28" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
     </row>
     <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8206,13 +8243,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8245,13 +8282,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8284,13 +8321,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8323,13 +8360,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8354,21 +8391,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK59"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8379,132 +8416,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -8517,132 +8554,132 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
     </row>
     <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
@@ -8822,132 +8859,132 @@
       </c>
     </row>
     <row r="52" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="4"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
-      <c r="AN52" s="4"/>
-      <c r="AO52" s="4"/>
-      <c r="AP52" s="4"/>
-      <c r="AQ52" s="4"/>
-      <c r="AR52" s="4"/>
-      <c r="AS52" s="4"/>
-      <c r="AT52" s="4"/>
-      <c r="AU52" s="4"/>
-      <c r="AV52" s="4"/>
-      <c r="AW52" s="4"/>
-      <c r="AX52" s="4"/>
-      <c r="AY52" s="4"/>
-      <c r="AZ52" s="4"/>
-      <c r="BA52" s="4"/>
-      <c r="BB52" s="4"/>
-      <c r="BC52" s="4"/>
-      <c r="BD52" s="4"/>
-      <c r="BE52" s="4"/>
-      <c r="BF52" s="4"/>
-      <c r="BG52" s="4"/>
-      <c r="BH52" s="4"/>
-      <c r="BI52" s="4"/>
-      <c r="BJ52" s="4"/>
-      <c r="BK52" s="4"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="6"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="6"/>
+      <c r="AT52" s="6"/>
+      <c r="AU52" s="6"/>
+      <c r="AV52" s="6"/>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="6"/>
+      <c r="AY52" s="6"/>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="6"/>
+      <c r="BB52" s="6"/>
+      <c r="BC52" s="6"/>
+      <c r="BD52" s="6"/>
+      <c r="BE52" s="6"/>
+      <c r="BF52" s="6"/>
+      <c r="BG52" s="6"/>
+      <c r="BH52" s="6"/>
+      <c r="BI52" s="6"/>
+      <c r="BJ52" s="6"/>
+      <c r="BK52" s="6"/>
     </row>
     <row r="53" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
-      <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
-      <c r="AS53" s="4"/>
-      <c r="AT53" s="4"/>
-      <c r="AU53" s="4"/>
-      <c r="AV53" s="4"/>
-      <c r="AW53" s="4"/>
-      <c r="AX53" s="4"/>
-      <c r="AY53" s="4"/>
-      <c r="AZ53" s="4"/>
-      <c r="BA53" s="4"/>
-      <c r="BB53" s="4"/>
-      <c r="BC53" s="4"/>
-      <c r="BD53" s="4"/>
-      <c r="BE53" s="4"/>
-      <c r="BF53" s="4"/>
-      <c r="BG53" s="4"/>
-      <c r="BH53" s="4"/>
-      <c r="BI53" s="4"/>
-      <c r="BJ53" s="4"/>
-      <c r="BK53" s="4"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+      <c r="BC53" s="6"/>
+      <c r="BD53" s="6"/>
+      <c r="BE53" s="6"/>
+      <c r="BF53" s="6"/>
+      <c r="BG53" s="6"/>
+      <c r="BH53" s="6"/>
+      <c r="BI53" s="6"/>
+      <c r="BJ53" s="6"/>
+      <c r="BK53" s="6"/>
     </row>
     <row r="56" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F56" t="s">
@@ -8984,8 +9021,148 @@
         <v>116</v>
       </c>
     </row>
+    <row r="77" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C77" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="6"/>
+      <c r="AN77" s="6"/>
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="6"/>
+      <c r="AQ77" s="6"/>
+      <c r="AR77" s="6"/>
+      <c r="AS77" s="6"/>
+      <c r="AT77" s="6"/>
+      <c r="AU77" s="6"/>
+      <c r="AV77" s="6"/>
+      <c r="AW77" s="6"/>
+      <c r="AX77" s="6"/>
+      <c r="AY77" s="6"/>
+      <c r="AZ77" s="6"/>
+      <c r="BA77" s="6"/>
+      <c r="BB77" s="6"/>
+      <c r="BC77" s="6"/>
+      <c r="BD77" s="6"/>
+      <c r="BE77" s="6"/>
+      <c r="BF77" s="6"/>
+      <c r="BG77" s="6"/>
+      <c r="BH77" s="6"/>
+      <c r="BI77" s="6"/>
+      <c r="BJ77" s="6"/>
+      <c r="BK77" s="6"/>
+    </row>
+    <row r="78" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="6"/>
+      <c r="AR78" s="6"/>
+      <c r="AS78" s="6"/>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="6"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="6"/>
+      <c r="AX78" s="6"/>
+      <c r="AY78" s="6"/>
+      <c r="AZ78" s="6"/>
+      <c r="BA78" s="6"/>
+      <c r="BB78" s="6"/>
+      <c r="BC78" s="6"/>
+      <c r="BD78" s="6"/>
+      <c r="BE78" s="6"/>
+      <c r="BF78" s="6"/>
+      <c r="BG78" s="6"/>
+      <c r="BH78" s="6"/>
+      <c r="BI78" s="6"/>
+      <c r="BJ78" s="6"/>
+      <c r="BK78" s="6"/>
+    </row>
+    <row r="81" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F81" t="s">
+        <v>130</v>
+      </c>
+      <c r="J81" t="s">
+        <v>128</v>
+      </c>
+      <c r="S81" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C77:BK78"/>
     <mergeCell ref="C52:BK53"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="C7:BK8"/>

--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0.仕様書概要" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
   <si>
     <t>1.2チームメンバー</t>
     <phoneticPr fontId="2"/>
@@ -1009,6 +1009,16 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ニンジャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>忍者の攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>ニンジャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1250,12 +1260,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1264,6 +1268,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4592,13 +4602,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E6" s="8" t="s">
         <v>9</v>
@@ -4642,314 +4652,314 @@
       <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
     </row>
     <row r="19" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
     </row>
     <row r="21" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
@@ -4957,248 +4967,248 @@
       </c>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
     </row>
     <row r="24" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
     </row>
     <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
     </row>
     <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
     </row>
     <row r="31" spans="3:63" x14ac:dyDescent="0.4">
       <c r="H31" t="s">
@@ -5206,873 +5216,881 @@
       </c>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
     </row>
     <row r="38" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="5"/>
-      <c r="BE38" s="5"/>
-      <c r="BF38" s="5"/>
-      <c r="BG38" s="5"/>
-      <c r="BH38" s="5"/>
-      <c r="BI38" s="5"/>
-      <c r="BJ38" s="5"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="3"/>
     </row>
     <row r="39" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="5"/>
-      <c r="AZ39" s="5"/>
-      <c r="BA39" s="5"/>
-      <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="5"/>
-      <c r="BE39" s="5"/>
-      <c r="BF39" s="5"/>
-      <c r="BG39" s="5"/>
-      <c r="BH39" s="5"/>
-      <c r="BI39" s="5"/>
-      <c r="BJ39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="3"/>
     </row>
     <row r="43" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
-      <c r="AZ43" s="5"/>
-      <c r="BA43" s="5"/>
-      <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
-      <c r="BE43" s="5"/>
-      <c r="BF43" s="5"/>
-      <c r="BG43" s="5"/>
-      <c r="BH43" s="5"/>
-      <c r="BI43" s="5"/>
-      <c r="BJ43" s="5"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
     </row>
     <row r="44" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="5"/>
-      <c r="AV44" s="5"/>
-      <c r="AW44" s="5"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="5"/>
-      <c r="AZ44" s="5"/>
-      <c r="BA44" s="5"/>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="5"/>
-      <c r="BE44" s="5"/>
-      <c r="BF44" s="5"/>
-      <c r="BG44" s="5"/>
-      <c r="BH44" s="5"/>
-      <c r="BI44" s="5"/>
-      <c r="BJ44" s="5"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
+      <c r="BJ44" s="3"/>
     </row>
     <row r="48" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
-      <c r="AZ48" s="5"/>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="5"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="5"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
-      <c r="BJ48" s="5"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
     </row>
     <row r="49" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-      <c r="AT49" s="5"/>
-      <c r="AU49" s="5"/>
-      <c r="AV49" s="5"/>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
-      <c r="AZ49" s="5"/>
-      <c r="BA49" s="5"/>
-      <c r="BB49" s="5"/>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-      <c r="BE49" s="5"/>
-      <c r="BF49" s="5"/>
-      <c r="BG49" s="5"/>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
     </row>
     <row r="53" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+      <c r="BJ53" s="3"/>
     </row>
     <row r="54" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="5"/>
-      <c r="AR54" s="5"/>
-      <c r="AS54" s="5"/>
-      <c r="AT54" s="5"/>
-      <c r="AU54" s="5"/>
-      <c r="AV54" s="5"/>
-      <c r="AW54" s="5"/>
-      <c r="AX54" s="5"/>
-      <c r="AY54" s="5"/>
-      <c r="AZ54" s="5"/>
-      <c r="BA54" s="5"/>
-      <c r="BB54" s="5"/>
-      <c r="BC54" s="5"/>
-      <c r="BD54" s="5"/>
-      <c r="BE54" s="5"/>
-      <c r="BF54" s="5"/>
-      <c r="BG54" s="5"/>
-      <c r="BH54" s="5"/>
-      <c r="BI54" s="5"/>
-      <c r="BJ54" s="5"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
+      <c r="BJ54" s="3"/>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="6"/>
-      <c r="AM58" s="6"/>
-      <c r="AN58" s="6"/>
-      <c r="AO58" s="6"/>
-      <c r="AP58" s="6"/>
-      <c r="AQ58" s="6"/>
-      <c r="AR58" s="6"/>
-      <c r="AS58" s="6"/>
-      <c r="AT58" s="6"/>
-      <c r="AU58" s="6"/>
-      <c r="AV58" s="6"/>
-      <c r="AW58" s="6"/>
-      <c r="AX58" s="6"/>
-      <c r="AY58" s="6"/>
-      <c r="AZ58" s="6"/>
-      <c r="BA58" s="6"/>
-      <c r="BB58" s="6"/>
-      <c r="BC58" s="6"/>
-      <c r="BD58" s="6"/>
-      <c r="BE58" s="6"/>
-      <c r="BF58" s="6"/>
-      <c r="BG58" s="6"/>
-      <c r="BH58" s="6"/>
-      <c r="BI58" s="6"/>
-      <c r="BJ58" s="6"/>
-      <c r="BK58" s="6"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
+      <c r="AS58" s="4"/>
+      <c r="AT58" s="4"/>
+      <c r="AU58" s="4"/>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4"/>
+      <c r="AX58" s="4"/>
+      <c r="AY58" s="4"/>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4"/>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+      <c r="BF58" s="4"/>
+      <c r="BG58" s="4"/>
+      <c r="BH58" s="4"/>
+      <c r="BI58" s="4"/>
+      <c r="BJ58" s="4"/>
+      <c r="BK58" s="4"/>
     </row>
     <row r="59" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-      <c r="AI59" s="6"/>
-      <c r="AJ59" s="6"/>
-      <c r="AK59" s="6"/>
-      <c r="AL59" s="6"/>
-      <c r="AM59" s="6"/>
-      <c r="AN59" s="6"/>
-      <c r="AO59" s="6"/>
-      <c r="AP59" s="6"/>
-      <c r="AQ59" s="6"/>
-      <c r="AR59" s="6"/>
-      <c r="AS59" s="6"/>
-      <c r="AT59" s="6"/>
-      <c r="AU59" s="6"/>
-      <c r="AV59" s="6"/>
-      <c r="AW59" s="6"/>
-      <c r="AX59" s="6"/>
-      <c r="AY59" s="6"/>
-      <c r="AZ59" s="6"/>
-      <c r="BA59" s="6"/>
-      <c r="BB59" s="6"/>
-      <c r="BC59" s="6"/>
-      <c r="BD59" s="6"/>
-      <c r="BE59" s="6"/>
-      <c r="BF59" s="6"/>
-      <c r="BG59" s="6"/>
-      <c r="BH59" s="6"/>
-      <c r="BI59" s="6"/>
-      <c r="BJ59" s="6"/>
-      <c r="BK59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="4"/>
+      <c r="AQ59" s="4"/>
+      <c r="AR59" s="4"/>
+      <c r="AS59" s="4"/>
+      <c r="AT59" s="4"/>
+      <c r="AU59" s="4"/>
+      <c r="AV59" s="4"/>
+      <c r="AW59" s="4"/>
+      <c r="AX59" s="4"/>
+      <c r="AY59" s="4"/>
+      <c r="AZ59" s="4"/>
+      <c r="BA59" s="4"/>
+      <c r="BB59" s="4"/>
+      <c r="BC59" s="4"/>
+      <c r="BD59" s="4"/>
+      <c r="BE59" s="4"/>
+      <c r="BF59" s="4"/>
+      <c r="BG59" s="4"/>
+      <c r="BH59" s="4"/>
+      <c r="BI59" s="4"/>
+      <c r="BJ59" s="4"/>
+      <c r="BK59" s="4"/>
     </row>
     <row r="63" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="6"/>
-      <c r="AI63" s="6"/>
-      <c r="AJ63" s="6"/>
-      <c r="AK63" s="6"/>
-      <c r="AL63" s="6"/>
-      <c r="AM63" s="6"/>
-      <c r="AN63" s="6"/>
-      <c r="AO63" s="6"/>
-      <c r="AP63" s="6"/>
-      <c r="AQ63" s="6"/>
-      <c r="AR63" s="6"/>
-      <c r="AS63" s="6"/>
-      <c r="AT63" s="6"/>
-      <c r="AU63" s="6"/>
-      <c r="AV63" s="6"/>
-      <c r="AW63" s="6"/>
-      <c r="AX63" s="6"/>
-      <c r="AY63" s="6"/>
-      <c r="AZ63" s="6"/>
-      <c r="BA63" s="6"/>
-      <c r="BB63" s="6"/>
-      <c r="BC63" s="6"/>
-      <c r="BD63" s="6"/>
-      <c r="BE63" s="6"/>
-      <c r="BF63" s="6"/>
-      <c r="BG63" s="6"/>
-      <c r="BH63" s="6"/>
-      <c r="BI63" s="6"/>
-      <c r="BJ63" s="6"/>
-      <c r="BK63" s="6"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="4"/>
+      <c r="AR63" s="4"/>
+      <c r="AS63" s="4"/>
+      <c r="AT63" s="4"/>
+      <c r="AU63" s="4"/>
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="4"/>
+      <c r="AY63" s="4"/>
+      <c r="AZ63" s="4"/>
+      <c r="BA63" s="4"/>
+      <c r="BB63" s="4"/>
+      <c r="BC63" s="4"/>
+      <c r="BD63" s="4"/>
+      <c r="BE63" s="4"/>
+      <c r="BF63" s="4"/>
+      <c r="BG63" s="4"/>
+      <c r="BH63" s="4"/>
+      <c r="BI63" s="4"/>
+      <c r="BJ63" s="4"/>
+      <c r="BK63" s="4"/>
     </row>
     <row r="64" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="6"/>
-      <c r="AI64" s="6"/>
-      <c r="AJ64" s="6"/>
-      <c r="AK64" s="6"/>
-      <c r="AL64" s="6"/>
-      <c r="AM64" s="6"/>
-      <c r="AN64" s="6"/>
-      <c r="AO64" s="6"/>
-      <c r="AP64" s="6"/>
-      <c r="AQ64" s="6"/>
-      <c r="AR64" s="6"/>
-      <c r="AS64" s="6"/>
-      <c r="AT64" s="6"/>
-      <c r="AU64" s="6"/>
-      <c r="AV64" s="6"/>
-      <c r="AW64" s="6"/>
-      <c r="AX64" s="6"/>
-      <c r="AY64" s="6"/>
-      <c r="AZ64" s="6"/>
-      <c r="BA64" s="6"/>
-      <c r="BB64" s="6"/>
-      <c r="BC64" s="6"/>
-      <c r="BD64" s="6"/>
-      <c r="BE64" s="6"/>
-      <c r="BF64" s="6"/>
-      <c r="BG64" s="6"/>
-      <c r="BH64" s="6"/>
-      <c r="BI64" s="6"/>
-      <c r="BJ64" s="6"/>
-      <c r="BK64" s="6"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
+      <c r="AR64" s="4"/>
+      <c r="AS64" s="4"/>
+      <c r="AT64" s="4"/>
+      <c r="AU64" s="4"/>
+      <c r="AV64" s="4"/>
+      <c r="AW64" s="4"/>
+      <c r="AX64" s="4"/>
+      <c r="AY64" s="4"/>
+      <c r="AZ64" s="4"/>
+      <c r="BA64" s="4"/>
+      <c r="BB64" s="4"/>
+      <c r="BC64" s="4"/>
+      <c r="BD64" s="4"/>
+      <c r="BE64" s="4"/>
+      <c r="BF64" s="4"/>
+      <c r="BG64" s="4"/>
+      <c r="BH64" s="4"/>
+      <c r="BI64" s="4"/>
+      <c r="BJ64" s="4"/>
+      <c r="BK64" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
     <mergeCell ref="E48:BJ49"/>
     <mergeCell ref="E53:BJ54"/>
     <mergeCell ref="C63:BK64"/>
@@ -6089,14 +6107,6 @@
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
     <mergeCell ref="E6:V7"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6127,13 +6137,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6166,13 +6176,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6183,382 +6193,382 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
     <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
     </row>
     <row r="35" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="6"/>
-      <c r="AR35" s="6"/>
-      <c r="AS35" s="6"/>
-      <c r="AT35" s="6"/>
-      <c r="AU35" s="6"/>
-      <c r="AV35" s="6"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="6"/>
-      <c r="AZ35" s="6"/>
-      <c r="BA35" s="6"/>
-      <c r="BB35" s="6"/>
-      <c r="BC35" s="6"/>
-      <c r="BD35" s="6"/>
-      <c r="BE35" s="6"/>
-      <c r="BF35" s="6"/>
-      <c r="BG35" s="6"/>
-      <c r="BH35" s="6"/>
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="6"/>
-      <c r="BK35" s="6"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
     </row>
     <row r="36" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="6"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="6"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="6"/>
-      <c r="BK36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
     </row>
     <row r="40" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="5"/>
-      <c r="AZ40" s="5"/>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="5"/>
-      <c r="BF40" s="5"/>
-      <c r="BG40" s="5"/>
-      <c r="BH40" s="5"/>
-      <c r="BI40" s="5"/>
-      <c r="BJ40" s="5"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
     </row>
     <row r="41" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="5"/>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
-      <c r="BE41" s="5"/>
-      <c r="BF41" s="5"/>
-      <c r="BG41" s="5"/>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="5"/>
-      <c r="BJ41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
@@ -6569,248 +6579,248 @@
       </c>
     </row>
     <row r="82" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
-      <c r="AM82" s="5"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="5"/>
-      <c r="AP82" s="5"/>
-      <c r="AQ82" s="5"/>
-      <c r="AR82" s="5"/>
-      <c r="AS82" s="5"/>
-      <c r="AT82" s="5"/>
-      <c r="AU82" s="5"/>
-      <c r="AV82" s="5"/>
-      <c r="AW82" s="5"/>
-      <c r="AX82" s="5"/>
-      <c r="AY82" s="5"/>
-      <c r="AZ82" s="5"/>
-      <c r="BA82" s="5"/>
-      <c r="BB82" s="5"/>
-      <c r="BC82" s="5"/>
-      <c r="BD82" s="5"/>
-      <c r="BE82" s="5"/>
-      <c r="BF82" s="5"/>
-      <c r="BG82" s="5"/>
-      <c r="BH82" s="5"/>
-      <c r="BI82" s="5"/>
-      <c r="BJ82" s="5"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+      <c r="AQ82" s="3"/>
+      <c r="AR82" s="3"/>
+      <c r="AS82" s="3"/>
+      <c r="AT82" s="3"/>
+      <c r="AU82" s="3"/>
+      <c r="AV82" s="3"/>
+      <c r="AW82" s="3"/>
+      <c r="AX82" s="3"/>
+      <c r="AY82" s="3"/>
+      <c r="AZ82" s="3"/>
+      <c r="BA82" s="3"/>
+      <c r="BB82" s="3"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="3"/>
+      <c r="BE82" s="3"/>
+      <c r="BF82" s="3"/>
+      <c r="BG82" s="3"/>
+      <c r="BH82" s="3"/>
+      <c r="BI82" s="3"/>
+      <c r="BJ82" s="3"/>
     </row>
     <row r="83" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
-      <c r="AS83" s="5"/>
-      <c r="AT83" s="5"/>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="5"/>
-      <c r="AZ83" s="5"/>
-      <c r="BA83" s="5"/>
-      <c r="BB83" s="5"/>
-      <c r="BC83" s="5"/>
-      <c r="BD83" s="5"/>
-      <c r="BE83" s="5"/>
-      <c r="BF83" s="5"/>
-      <c r="BG83" s="5"/>
-      <c r="BH83" s="5"/>
-      <c r="BI83" s="5"/>
-      <c r="BJ83" s="5"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="3"/>
+      <c r="AQ83" s="3"/>
+      <c r="AR83" s="3"/>
+      <c r="AS83" s="3"/>
+      <c r="AT83" s="3"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="3"/>
+      <c r="AX83" s="3"/>
+      <c r="AY83" s="3"/>
+      <c r="AZ83" s="3"/>
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
+      <c r="BC83" s="3"/>
+      <c r="BD83" s="3"/>
+      <c r="BE83" s="3"/>
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+      <c r="BI83" s="3"/>
+      <c r="BJ83" s="3"/>
     </row>
     <row r="113" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
-      <c r="AC113" s="5"/>
-      <c r="AD113" s="5"/>
-      <c r="AE113" s="5"/>
-      <c r="AF113" s="5"/>
-      <c r="AG113" s="5"/>
-      <c r="AH113" s="5"/>
-      <c r="AI113" s="5"/>
-      <c r="AJ113" s="5"/>
-      <c r="AK113" s="5"/>
-      <c r="AL113" s="5"/>
-      <c r="AM113" s="5"/>
-      <c r="AN113" s="5"/>
-      <c r="AO113" s="5"/>
-      <c r="AP113" s="5"/>
-      <c r="AQ113" s="5"/>
-      <c r="AR113" s="5"/>
-      <c r="AS113" s="5"/>
-      <c r="AT113" s="5"/>
-      <c r="AU113" s="5"/>
-      <c r="AV113" s="5"/>
-      <c r="AW113" s="5"/>
-      <c r="AX113" s="5"/>
-      <c r="AY113" s="5"/>
-      <c r="AZ113" s="5"/>
-      <c r="BA113" s="5"/>
-      <c r="BB113" s="5"/>
-      <c r="BC113" s="5"/>
-      <c r="BD113" s="5"/>
-      <c r="BE113" s="5"/>
-      <c r="BF113" s="5"/>
-      <c r="BG113" s="5"/>
-      <c r="BH113" s="5"/>
-      <c r="BI113" s="5"/>
-      <c r="BJ113" s="5"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="3"/>
+      <c r="AG113" s="3"/>
+      <c r="AH113" s="3"/>
+      <c r="AI113" s="3"/>
+      <c r="AJ113" s="3"/>
+      <c r="AK113" s="3"/>
+      <c r="AL113" s="3"/>
+      <c r="AM113" s="3"/>
+      <c r="AN113" s="3"/>
+      <c r="AO113" s="3"/>
+      <c r="AP113" s="3"/>
+      <c r="AQ113" s="3"/>
+      <c r="AR113" s="3"/>
+      <c r="AS113" s="3"/>
+      <c r="AT113" s="3"/>
+      <c r="AU113" s="3"/>
+      <c r="AV113" s="3"/>
+      <c r="AW113" s="3"/>
+      <c r="AX113" s="3"/>
+      <c r="AY113" s="3"/>
+      <c r="AZ113" s="3"/>
+      <c r="BA113" s="3"/>
+      <c r="BB113" s="3"/>
+      <c r="BC113" s="3"/>
+      <c r="BD113" s="3"/>
+      <c r="BE113" s="3"/>
+      <c r="BF113" s="3"/>
+      <c r="BG113" s="3"/>
+      <c r="BH113" s="3"/>
+      <c r="BI113" s="3"/>
+      <c r="BJ113" s="3"/>
     </row>
     <row r="114" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
-      <c r="AC114" s="5"/>
-      <c r="AD114" s="5"/>
-      <c r="AE114" s="5"/>
-      <c r="AF114" s="5"/>
-      <c r="AG114" s="5"/>
-      <c r="AH114" s="5"/>
-      <c r="AI114" s="5"/>
-      <c r="AJ114" s="5"/>
-      <c r="AK114" s="5"/>
-      <c r="AL114" s="5"/>
-      <c r="AM114" s="5"/>
-      <c r="AN114" s="5"/>
-      <c r="AO114" s="5"/>
-      <c r="AP114" s="5"/>
-      <c r="AQ114" s="5"/>
-      <c r="AR114" s="5"/>
-      <c r="AS114" s="5"/>
-      <c r="AT114" s="5"/>
-      <c r="AU114" s="5"/>
-      <c r="AV114" s="5"/>
-      <c r="AW114" s="5"/>
-      <c r="AX114" s="5"/>
-      <c r="AY114" s="5"/>
-      <c r="AZ114" s="5"/>
-      <c r="BA114" s="5"/>
-      <c r="BB114" s="5"/>
-      <c r="BC114" s="5"/>
-      <c r="BD114" s="5"/>
-      <c r="BE114" s="5"/>
-      <c r="BF114" s="5"/>
-      <c r="BG114" s="5"/>
-      <c r="BH114" s="5"/>
-      <c r="BI114" s="5"/>
-      <c r="BJ114" s="5"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+      <c r="AG114" s="3"/>
+      <c r="AH114" s="3"/>
+      <c r="AI114" s="3"/>
+      <c r="AJ114" s="3"/>
+      <c r="AK114" s="3"/>
+      <c r="AL114" s="3"/>
+      <c r="AM114" s="3"/>
+      <c r="AN114" s="3"/>
+      <c r="AO114" s="3"/>
+      <c r="AP114" s="3"/>
+      <c r="AQ114" s="3"/>
+      <c r="AR114" s="3"/>
+      <c r="AS114" s="3"/>
+      <c r="AT114" s="3"/>
+      <c r="AU114" s="3"/>
+      <c r="AV114" s="3"/>
+      <c r="AW114" s="3"/>
+      <c r="AX114" s="3"/>
+      <c r="AY114" s="3"/>
+      <c r="AZ114" s="3"/>
+      <c r="BA114" s="3"/>
+      <c r="BB114" s="3"/>
+      <c r="BC114" s="3"/>
+      <c r="BD114" s="3"/>
+      <c r="BE114" s="3"/>
+      <c r="BF114" s="3"/>
+      <c r="BG114" s="3"/>
+      <c r="BH114" s="3"/>
+      <c r="BI114" s="3"/>
+      <c r="BJ114" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6835,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6870,6 +6880,9 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -7093,13 +7106,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7110,516 +7123,516 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="6"/>
-      <c r="BH13" s="6"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
     </row>
     <row r="17" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
     </row>
     <row r="22" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="6"/>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7648,13 +7661,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7687,13 +7700,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7704,132 +7717,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -7837,126 +7850,126 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
     </row>
     <row r="17" spans="5:62" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
@@ -7970,248 +7983,248 @@
       </c>
     </row>
     <row r="28" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
     </row>
     <row r="29" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
     </row>
     <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8243,13 +8256,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8282,13 +8295,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8321,13 +8334,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8360,13 +8373,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8393,19 +8406,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8416,132 +8429,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -8554,132 +8567,132 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
-      <c r="BG15" s="6"/>
-      <c r="BH15" s="6"/>
-      <c r="BI15" s="6"/>
-      <c r="BJ15" s="6"/>
-      <c r="BK15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
     </row>
     <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
@@ -8859,132 +8872,132 @@
       </c>
     </row>
     <row r="52" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
-      <c r="AH52" s="6"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="6"/>
-      <c r="AK52" s="6"/>
-      <c r="AL52" s="6"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="6"/>
-      <c r="AO52" s="6"/>
-      <c r="AP52" s="6"/>
-      <c r="AQ52" s="6"/>
-      <c r="AR52" s="6"/>
-      <c r="AS52" s="6"/>
-      <c r="AT52" s="6"/>
-      <c r="AU52" s="6"/>
-      <c r="AV52" s="6"/>
-      <c r="AW52" s="6"/>
-      <c r="AX52" s="6"/>
-      <c r="AY52" s="6"/>
-      <c r="AZ52" s="6"/>
-      <c r="BA52" s="6"/>
-      <c r="BB52" s="6"/>
-      <c r="BC52" s="6"/>
-      <c r="BD52" s="6"/>
-      <c r="BE52" s="6"/>
-      <c r="BF52" s="6"/>
-      <c r="BG52" s="6"/>
-      <c r="BH52" s="6"/>
-      <c r="BI52" s="6"/>
-      <c r="BJ52" s="6"/>
-      <c r="BK52" s="6"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="4"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+      <c r="BF52" s="4"/>
+      <c r="BG52" s="4"/>
+      <c r="BH52" s="4"/>
+      <c r="BI52" s="4"/>
+      <c r="BJ52" s="4"/>
+      <c r="BK52" s="4"/>
     </row>
     <row r="53" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
-      <c r="AH53" s="6"/>
-      <c r="AI53" s="6"/>
-      <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
-      <c r="AL53" s="6"/>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="6"/>
-      <c r="AO53" s="6"/>
-      <c r="AP53" s="6"/>
-      <c r="AQ53" s="6"/>
-      <c r="AR53" s="6"/>
-      <c r="AS53" s="6"/>
-      <c r="AT53" s="6"/>
-      <c r="AU53" s="6"/>
-      <c r="AV53" s="6"/>
-      <c r="AW53" s="6"/>
-      <c r="AX53" s="6"/>
-      <c r="AY53" s="6"/>
-      <c r="AZ53" s="6"/>
-      <c r="BA53" s="6"/>
-      <c r="BB53" s="6"/>
-      <c r="BC53" s="6"/>
-      <c r="BD53" s="6"/>
-      <c r="BE53" s="6"/>
-      <c r="BF53" s="6"/>
-      <c r="BG53" s="6"/>
-      <c r="BH53" s="6"/>
-      <c r="BI53" s="6"/>
-      <c r="BJ53" s="6"/>
-      <c r="BK53" s="6"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
+      <c r="BF53" s="4"/>
+      <c r="BG53" s="4"/>
+      <c r="BH53" s="4"/>
+      <c r="BI53" s="4"/>
+      <c r="BJ53" s="4"/>
+      <c r="BK53" s="4"/>
     </row>
     <row r="56" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F56" t="s">
@@ -9022,132 +9035,132 @@
       </c>
     </row>
     <row r="77" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="6"/>
-      <c r="AB77" s="6"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="6"/>
-      <c r="AE77" s="6"/>
-      <c r="AF77" s="6"/>
-      <c r="AG77" s="6"/>
-      <c r="AH77" s="6"/>
-      <c r="AI77" s="6"/>
-      <c r="AJ77" s="6"/>
-      <c r="AK77" s="6"/>
-      <c r="AL77" s="6"/>
-      <c r="AM77" s="6"/>
-      <c r="AN77" s="6"/>
-      <c r="AO77" s="6"/>
-      <c r="AP77" s="6"/>
-      <c r="AQ77" s="6"/>
-      <c r="AR77" s="6"/>
-      <c r="AS77" s="6"/>
-      <c r="AT77" s="6"/>
-      <c r="AU77" s="6"/>
-      <c r="AV77" s="6"/>
-      <c r="AW77" s="6"/>
-      <c r="AX77" s="6"/>
-      <c r="AY77" s="6"/>
-      <c r="AZ77" s="6"/>
-      <c r="BA77" s="6"/>
-      <c r="BB77" s="6"/>
-      <c r="BC77" s="6"/>
-      <c r="BD77" s="6"/>
-      <c r="BE77" s="6"/>
-      <c r="BF77" s="6"/>
-      <c r="BG77" s="6"/>
-      <c r="BH77" s="6"/>
-      <c r="BI77" s="6"/>
-      <c r="BJ77" s="6"/>
-      <c r="BK77" s="6"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
+      <c r="AI77" s="4"/>
+      <c r="AJ77" s="4"/>
+      <c r="AK77" s="4"/>
+      <c r="AL77" s="4"/>
+      <c r="AM77" s="4"/>
+      <c r="AN77" s="4"/>
+      <c r="AO77" s="4"/>
+      <c r="AP77" s="4"/>
+      <c r="AQ77" s="4"/>
+      <c r="AR77" s="4"/>
+      <c r="AS77" s="4"/>
+      <c r="AT77" s="4"/>
+      <c r="AU77" s="4"/>
+      <c r="AV77" s="4"/>
+      <c r="AW77" s="4"/>
+      <c r="AX77" s="4"/>
+      <c r="AY77" s="4"/>
+      <c r="AZ77" s="4"/>
+      <c r="BA77" s="4"/>
+      <c r="BB77" s="4"/>
+      <c r="BC77" s="4"/>
+      <c r="BD77" s="4"/>
+      <c r="BE77" s="4"/>
+      <c r="BF77" s="4"/>
+      <c r="BG77" s="4"/>
+      <c r="BH77" s="4"/>
+      <c r="BI77" s="4"/>
+      <c r="BJ77" s="4"/>
+      <c r="BK77" s="4"/>
     </row>
     <row r="78" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-      <c r="AA78" s="6"/>
-      <c r="AB78" s="6"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
-      <c r="AE78" s="6"/>
-      <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
-      <c r="AH78" s="6"/>
-      <c r="AI78" s="6"/>
-      <c r="AJ78" s="6"/>
-      <c r="AK78" s="6"/>
-      <c r="AL78" s="6"/>
-      <c r="AM78" s="6"/>
-      <c r="AN78" s="6"/>
-      <c r="AO78" s="6"/>
-      <c r="AP78" s="6"/>
-      <c r="AQ78" s="6"/>
-      <c r="AR78" s="6"/>
-      <c r="AS78" s="6"/>
-      <c r="AT78" s="6"/>
-      <c r="AU78" s="6"/>
-      <c r="AV78" s="6"/>
-      <c r="AW78" s="6"/>
-      <c r="AX78" s="6"/>
-      <c r="AY78" s="6"/>
-      <c r="AZ78" s="6"/>
-      <c r="BA78" s="6"/>
-      <c r="BB78" s="6"/>
-      <c r="BC78" s="6"/>
-      <c r="BD78" s="6"/>
-      <c r="BE78" s="6"/>
-      <c r="BF78" s="6"/>
-      <c r="BG78" s="6"/>
-      <c r="BH78" s="6"/>
-      <c r="BI78" s="6"/>
-      <c r="BJ78" s="6"/>
-      <c r="BK78" s="6"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
+      <c r="AI78" s="4"/>
+      <c r="AJ78" s="4"/>
+      <c r="AK78" s="4"/>
+      <c r="AL78" s="4"/>
+      <c r="AM78" s="4"/>
+      <c r="AN78" s="4"/>
+      <c r="AO78" s="4"/>
+      <c r="AP78" s="4"/>
+      <c r="AQ78" s="4"/>
+      <c r="AR78" s="4"/>
+      <c r="AS78" s="4"/>
+      <c r="AT78" s="4"/>
+      <c r="AU78" s="4"/>
+      <c r="AV78" s="4"/>
+      <c r="AW78" s="4"/>
+      <c r="AX78" s="4"/>
+      <c r="AY78" s="4"/>
+      <c r="AZ78" s="4"/>
+      <c r="BA78" s="4"/>
+      <c r="BB78" s="4"/>
+      <c r="BC78" s="4"/>
+      <c r="BD78" s="4"/>
+      <c r="BE78" s="4"/>
+      <c r="BF78" s="4"/>
+      <c r="BG78" s="4"/>
+      <c r="BH78" s="4"/>
+      <c r="BI78" s="4"/>
+      <c r="BJ78" s="4"/>
+      <c r="BK78" s="4"/>
     </row>
     <row r="81" spans="6:19" x14ac:dyDescent="0.4">
       <c r="F81" t="s">

--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0.仕様書概要" sheetId="1" r:id="rId1"/>
@@ -750,24 +750,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SaraKome</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SaraKara</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>米がある皿</t>
-    <rPh sb="0" eb="1">
-      <t>コメ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Hand</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1019,6 +1001,21 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sara</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すし米</t>
+    <rPh sb="2" eb="3">
+      <t>コメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1260,6 +1257,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1268,12 +1271,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4602,13 +4599,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E6" s="8" t="s">
         <v>9</v>
@@ -4652,314 +4649,314 @@
       <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
     </row>
     <row r="19" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
     </row>
     <row r="21" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
@@ -4967,248 +4964,248 @@
       </c>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
     </row>
     <row r="24" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
     </row>
     <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
     </row>
     <row r="31" spans="3:63" x14ac:dyDescent="0.4">
       <c r="H31" t="s">
@@ -5216,881 +5213,873 @@
       </c>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
     </row>
     <row r="38" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
-      <c r="AQ38" s="3"/>
-      <c r="AR38" s="3"/>
-      <c r="AS38" s="3"/>
-      <c r="AT38" s="3"/>
-      <c r="AU38" s="3"/>
-      <c r="AV38" s="3"/>
-      <c r="AW38" s="3"/>
-      <c r="AX38" s="3"/>
-      <c r="AY38" s="3"/>
-      <c r="AZ38" s="3"/>
-      <c r="BA38" s="3"/>
-      <c r="BB38" s="3"/>
-      <c r="BC38" s="3"/>
-      <c r="BD38" s="3"/>
-      <c r="BE38" s="3"/>
-      <c r="BF38" s="3"/>
-      <c r="BG38" s="3"/>
-      <c r="BH38" s="3"/>
-      <c r="BI38" s="3"/>
-      <c r="BJ38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
-      <c r="AU39" s="3"/>
-      <c r="AV39" s="3"/>
-      <c r="AW39" s="3"/>
-      <c r="AX39" s="3"/>
-      <c r="AY39" s="3"/>
-      <c r="AZ39" s="3"/>
-      <c r="BA39" s="3"/>
-      <c r="BB39" s="3"/>
-      <c r="BC39" s="3"/>
-      <c r="BD39" s="3"/>
-      <c r="BE39" s="3"/>
-      <c r="BF39" s="3"/>
-      <c r="BG39" s="3"/>
-      <c r="BH39" s="3"/>
-      <c r="BI39" s="3"/>
-      <c r="BJ39" s="3"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
     </row>
     <row r="43" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="3"/>
-      <c r="AR43" s="3"/>
-      <c r="AS43" s="3"/>
-      <c r="AT43" s="3"/>
-      <c r="AU43" s="3"/>
-      <c r="AV43" s="3"/>
-      <c r="AW43" s="3"/>
-      <c r="AX43" s="3"/>
-      <c r="AY43" s="3"/>
-      <c r="AZ43" s="3"/>
-      <c r="BA43" s="3"/>
-      <c r="BB43" s="3"/>
-      <c r="BC43" s="3"/>
-      <c r="BD43" s="3"/>
-      <c r="BE43" s="3"/>
-      <c r="BF43" s="3"/>
-      <c r="BG43" s="3"/>
-      <c r="BH43" s="3"/>
-      <c r="BI43" s="3"/>
-      <c r="BJ43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="3"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="3"/>
-      <c r="AS44" s="3"/>
-      <c r="AT44" s="3"/>
-      <c r="AU44" s="3"/>
-      <c r="AV44" s="3"/>
-      <c r="AW44" s="3"/>
-      <c r="AX44" s="3"/>
-      <c r="AY44" s="3"/>
-      <c r="AZ44" s="3"/>
-      <c r="BA44" s="3"/>
-      <c r="BB44" s="3"/>
-      <c r="BC44" s="3"/>
-      <c r="BD44" s="3"/>
-      <c r="BE44" s="3"/>
-      <c r="BF44" s="3"/>
-      <c r="BG44" s="3"/>
-      <c r="BH44" s="3"/>
-      <c r="BI44" s="3"/>
-      <c r="BJ44" s="3"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
     </row>
     <row r="48" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
-      <c r="AW48" s="3"/>
-      <c r="AX48" s="3"/>
-      <c r="AY48" s="3"/>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="3"/>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="3"/>
-      <c r="BD48" s="3"/>
-      <c r="BE48" s="3"/>
-      <c r="BF48" s="3"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="3"/>
-      <c r="BI48" s="3"/>
-      <c r="BJ48" s="3"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
     </row>
     <row r="49" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="3"/>
-      <c r="AQ49" s="3"/>
-      <c r="AR49" s="3"/>
-      <c r="AS49" s="3"/>
-      <c r="AT49" s="3"/>
-      <c r="AU49" s="3"/>
-      <c r="AV49" s="3"/>
-      <c r="AW49" s="3"/>
-      <c r="AX49" s="3"/>
-      <c r="AY49" s="3"/>
-      <c r="AZ49" s="3"/>
-      <c r="BA49" s="3"/>
-      <c r="BB49" s="3"/>
-      <c r="BC49" s="3"/>
-      <c r="BD49" s="3"/>
-      <c r="BE49" s="3"/>
-      <c r="BF49" s="3"/>
-      <c r="BG49" s="3"/>
-      <c r="BH49" s="3"/>
-      <c r="BI49" s="3"/>
-      <c r="BJ49" s="3"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
     </row>
     <row r="53" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
-      <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
-      <c r="AN53" s="3"/>
-      <c r="AO53" s="3"/>
-      <c r="AP53" s="3"/>
-      <c r="AQ53" s="3"/>
-      <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="3"/>
-      <c r="AU53" s="3"/>
-      <c r="AV53" s="3"/>
-      <c r="AW53" s="3"/>
-      <c r="AX53" s="3"/>
-      <c r="AY53" s="3"/>
-      <c r="AZ53" s="3"/>
-      <c r="BA53" s="3"/>
-      <c r="BB53" s="3"/>
-      <c r="BC53" s="3"/>
-      <c r="BD53" s="3"/>
-      <c r="BE53" s="3"/>
-      <c r="BF53" s="3"/>
-      <c r="BG53" s="3"/>
-      <c r="BH53" s="3"/>
-      <c r="BI53" s="3"/>
-      <c r="BJ53" s="3"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
     </row>
     <row r="54" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
-      <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="3"/>
-      <c r="AP54" s="3"/>
-      <c r="AQ54" s="3"/>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
-      <c r="AU54" s="3"/>
-      <c r="AV54" s="3"/>
-      <c r="AW54" s="3"/>
-      <c r="AX54" s="3"/>
-      <c r="AY54" s="3"/>
-      <c r="AZ54" s="3"/>
-      <c r="BA54" s="3"/>
-      <c r="BB54" s="3"/>
-      <c r="BC54" s="3"/>
-      <c r="BD54" s="3"/>
-      <c r="BE54" s="3"/>
-      <c r="BF54" s="3"/>
-      <c r="BG54" s="3"/>
-      <c r="BH54" s="3"/>
-      <c r="BI54" s="3"/>
-      <c r="BJ54" s="3"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="4"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="4"/>
-      <c r="AO58" s="4"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
-      <c r="AS58" s="4"/>
-      <c r="AT58" s="4"/>
-      <c r="AU58" s="4"/>
-      <c r="AV58" s="4"/>
-      <c r="AW58" s="4"/>
-      <c r="AX58" s="4"/>
-      <c r="AY58" s="4"/>
-      <c r="AZ58" s="4"/>
-      <c r="BA58" s="4"/>
-      <c r="BB58" s="4"/>
-      <c r="BC58" s="4"/>
-      <c r="BD58" s="4"/>
-      <c r="BE58" s="4"/>
-      <c r="BF58" s="4"/>
-      <c r="BG58" s="4"/>
-      <c r="BH58" s="4"/>
-      <c r="BI58" s="4"/>
-      <c r="BJ58" s="4"/>
-      <c r="BK58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="6"/>
+      <c r="AQ58" s="6"/>
+      <c r="AR58" s="6"/>
+      <c r="AS58" s="6"/>
+      <c r="AT58" s="6"/>
+      <c r="AU58" s="6"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="6"/>
+      <c r="AX58" s="6"/>
+      <c r="AY58" s="6"/>
+      <c r="AZ58" s="6"/>
+      <c r="BA58" s="6"/>
+      <c r="BB58" s="6"/>
+      <c r="BC58" s="6"/>
+      <c r="BD58" s="6"/>
+      <c r="BE58" s="6"/>
+      <c r="BF58" s="6"/>
+      <c r="BG58" s="6"/>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="6"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="6"/>
     </row>
     <row r="59" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
-      <c r="AS59" s="4"/>
-      <c r="AT59" s="4"/>
-      <c r="AU59" s="4"/>
-      <c r="AV59" s="4"/>
-      <c r="AW59" s="4"/>
-      <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
-      <c r="AZ59" s="4"/>
-      <c r="BA59" s="4"/>
-      <c r="BB59" s="4"/>
-      <c r="BC59" s="4"/>
-      <c r="BD59" s="4"/>
-      <c r="BE59" s="4"/>
-      <c r="BF59" s="4"/>
-      <c r="BG59" s="4"/>
-      <c r="BH59" s="4"/>
-      <c r="BI59" s="4"/>
-      <c r="BJ59" s="4"/>
-      <c r="BK59" s="4"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="6"/>
+      <c r="AO59" s="6"/>
+      <c r="AP59" s="6"/>
+      <c r="AQ59" s="6"/>
+      <c r="AR59" s="6"/>
+      <c r="AS59" s="6"/>
+      <c r="AT59" s="6"/>
+      <c r="AU59" s="6"/>
+      <c r="AV59" s="6"/>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="6"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="6"/>
+      <c r="BA59" s="6"/>
+      <c r="BB59" s="6"/>
+      <c r="BC59" s="6"/>
+      <c r="BD59" s="6"/>
+      <c r="BE59" s="6"/>
+      <c r="BF59" s="6"/>
+      <c r="BG59" s="6"/>
+      <c r="BH59" s="6"/>
+      <c r="BI59" s="6"/>
+      <c r="BJ59" s="6"/>
+      <c r="BK59" s="6"/>
     </row>
     <row r="63" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="4"/>
-      <c r="AO63" s="4"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
-      <c r="AS63" s="4"/>
-      <c r="AT63" s="4"/>
-      <c r="AU63" s="4"/>
-      <c r="AV63" s="4"/>
-      <c r="AW63" s="4"/>
-      <c r="AX63" s="4"/>
-      <c r="AY63" s="4"/>
-      <c r="AZ63" s="4"/>
-      <c r="BA63" s="4"/>
-      <c r="BB63" s="4"/>
-      <c r="BC63" s="4"/>
-      <c r="BD63" s="4"/>
-      <c r="BE63" s="4"/>
-      <c r="BF63" s="4"/>
-      <c r="BG63" s="4"/>
-      <c r="BH63" s="4"/>
-      <c r="BI63" s="4"/>
-      <c r="BJ63" s="4"/>
-      <c r="BK63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="6"/>
+      <c r="AN63" s="6"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="6"/>
+      <c r="AQ63" s="6"/>
+      <c r="AR63" s="6"/>
+      <c r="AS63" s="6"/>
+      <c r="AT63" s="6"/>
+      <c r="AU63" s="6"/>
+      <c r="AV63" s="6"/>
+      <c r="AW63" s="6"/>
+      <c r="AX63" s="6"/>
+      <c r="AY63" s="6"/>
+      <c r="AZ63" s="6"/>
+      <c r="BA63" s="6"/>
+      <c r="BB63" s="6"/>
+      <c r="BC63" s="6"/>
+      <c r="BD63" s="6"/>
+      <c r="BE63" s="6"/>
+      <c r="BF63" s="6"/>
+      <c r="BG63" s="6"/>
+      <c r="BH63" s="6"/>
+      <c r="BI63" s="6"/>
+      <c r="BJ63" s="6"/>
+      <c r="BK63" s="6"/>
     </row>
     <row r="64" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
-      <c r="AI64" s="4"/>
-      <c r="AJ64" s="4"/>
-      <c r="AK64" s="4"/>
-      <c r="AL64" s="4"/>
-      <c r="AM64" s="4"/>
-      <c r="AN64" s="4"/>
-      <c r="AO64" s="4"/>
-      <c r="AP64" s="4"/>
-      <c r="AQ64" s="4"/>
-      <c r="AR64" s="4"/>
-      <c r="AS64" s="4"/>
-      <c r="AT64" s="4"/>
-      <c r="AU64" s="4"/>
-      <c r="AV64" s="4"/>
-      <c r="AW64" s="4"/>
-      <c r="AX64" s="4"/>
-      <c r="AY64" s="4"/>
-      <c r="AZ64" s="4"/>
-      <c r="BA64" s="4"/>
-      <c r="BB64" s="4"/>
-      <c r="BC64" s="4"/>
-      <c r="BD64" s="4"/>
-      <c r="BE64" s="4"/>
-      <c r="BF64" s="4"/>
-      <c r="BG64" s="4"/>
-      <c r="BH64" s="4"/>
-      <c r="BI64" s="4"/>
-      <c r="BJ64" s="4"/>
-      <c r="BK64" s="4"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="6"/>
+      <c r="AQ64" s="6"/>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="6"/>
+      <c r="AT64" s="6"/>
+      <c r="AU64" s="6"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="6"/>
+      <c r="AX64" s="6"/>
+      <c r="AY64" s="6"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="6"/>
+      <c r="BB64" s="6"/>
+      <c r="BC64" s="6"/>
+      <c r="BD64" s="6"/>
+      <c r="BE64" s="6"/>
+      <c r="BF64" s="6"/>
+      <c r="BG64" s="6"/>
+      <c r="BH64" s="6"/>
+      <c r="BI64" s="6"/>
+      <c r="BJ64" s="6"/>
+      <c r="BK64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
     <mergeCell ref="E48:BJ49"/>
     <mergeCell ref="E53:BJ54"/>
     <mergeCell ref="C63:BK64"/>
@@ -6107,6 +6096,14 @@
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
     <mergeCell ref="E6:V7"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6137,13 +6134,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6176,13 +6173,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6193,382 +6190,382 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="35" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
-      <c r="BI35" s="4"/>
-      <c r="BJ35" s="4"/>
-      <c r="BK35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="6"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="6"/>
     </row>
     <row r="36" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="4"/>
-      <c r="BF36" s="4"/>
-      <c r="BG36" s="4"/>
-      <c r="BH36" s="4"/>
-      <c r="BI36" s="4"/>
-      <c r="BJ36" s="4"/>
-      <c r="BK36" s="4"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
     </row>
     <row r="40" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-      <c r="AW40" s="3"/>
-      <c r="AX40" s="3"/>
-      <c r="AY40" s="3"/>
-      <c r="AZ40" s="3"/>
-      <c r="BA40" s="3"/>
-      <c r="BB40" s="3"/>
-      <c r="BC40" s="3"/>
-      <c r="BD40" s="3"/>
-      <c r="BE40" s="3"/>
-      <c r="BF40" s="3"/>
-      <c r="BG40" s="3"/>
-      <c r="BH40" s="3"/>
-      <c r="BI40" s="3"/>
-      <c r="BJ40" s="3"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
-      <c r="BH41" s="3"/>
-      <c r="BI41" s="3"/>
-      <c r="BJ41" s="3"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
@@ -6579,248 +6576,248 @@
       </c>
     </row>
     <row r="82" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-      <c r="AF82" s="3"/>
-      <c r="AG82" s="3"/>
-      <c r="AH82" s="3"/>
-      <c r="AI82" s="3"/>
-      <c r="AJ82" s="3"/>
-      <c r="AK82" s="3"/>
-      <c r="AL82" s="3"/>
-      <c r="AM82" s="3"/>
-      <c r="AN82" s="3"/>
-      <c r="AO82" s="3"/>
-      <c r="AP82" s="3"/>
-      <c r="AQ82" s="3"/>
-      <c r="AR82" s="3"/>
-      <c r="AS82" s="3"/>
-      <c r="AT82" s="3"/>
-      <c r="AU82" s="3"/>
-      <c r="AV82" s="3"/>
-      <c r="AW82" s="3"/>
-      <c r="AX82" s="3"/>
-      <c r="AY82" s="3"/>
-      <c r="AZ82" s="3"/>
-      <c r="BA82" s="3"/>
-      <c r="BB82" s="3"/>
-      <c r="BC82" s="3"/>
-      <c r="BD82" s="3"/>
-      <c r="BE82" s="3"/>
-      <c r="BF82" s="3"/>
-      <c r="BG82" s="3"/>
-      <c r="BH82" s="3"/>
-      <c r="BI82" s="3"/>
-      <c r="BJ82" s="3"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="5"/>
+      <c r="AT82" s="5"/>
+      <c r="AU82" s="5"/>
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="5"/>
+      <c r="AX82" s="5"/>
+      <c r="AY82" s="5"/>
+      <c r="AZ82" s="5"/>
+      <c r="BA82" s="5"/>
+      <c r="BB82" s="5"/>
+      <c r="BC82" s="5"/>
+      <c r="BD82" s="5"/>
+      <c r="BE82" s="5"/>
+      <c r="BF82" s="5"/>
+      <c r="BG82" s="5"/>
+      <c r="BH82" s="5"/>
+      <c r="BI82" s="5"/>
+      <c r="BJ82" s="5"/>
     </row>
     <row r="83" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
-      <c r="AG83" s="3"/>
-      <c r="AH83" s="3"/>
-      <c r="AI83" s="3"/>
-      <c r="AJ83" s="3"/>
-      <c r="AK83" s="3"/>
-      <c r="AL83" s="3"/>
-      <c r="AM83" s="3"/>
-      <c r="AN83" s="3"/>
-      <c r="AO83" s="3"/>
-      <c r="AP83" s="3"/>
-      <c r="AQ83" s="3"/>
-      <c r="AR83" s="3"/>
-      <c r="AS83" s="3"/>
-      <c r="AT83" s="3"/>
-      <c r="AU83" s="3"/>
-      <c r="AV83" s="3"/>
-      <c r="AW83" s="3"/>
-      <c r="AX83" s="3"/>
-      <c r="AY83" s="3"/>
-      <c r="AZ83" s="3"/>
-      <c r="BA83" s="3"/>
-      <c r="BB83" s="3"/>
-      <c r="BC83" s="3"/>
-      <c r="BD83" s="3"/>
-      <c r="BE83" s="3"/>
-      <c r="BF83" s="3"/>
-      <c r="BG83" s="3"/>
-      <c r="BH83" s="3"/>
-      <c r="BI83" s="3"/>
-      <c r="BJ83" s="3"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="5"/>
+      <c r="AS83" s="5"/>
+      <c r="AT83" s="5"/>
+      <c r="AU83" s="5"/>
+      <c r="AV83" s="5"/>
+      <c r="AW83" s="5"/>
+      <c r="AX83" s="5"/>
+      <c r="AY83" s="5"/>
+      <c r="AZ83" s="5"/>
+      <c r="BA83" s="5"/>
+      <c r="BB83" s="5"/>
+      <c r="BC83" s="5"/>
+      <c r="BD83" s="5"/>
+      <c r="BE83" s="5"/>
+      <c r="BF83" s="5"/>
+      <c r="BG83" s="5"/>
+      <c r="BH83" s="5"/>
+      <c r="BI83" s="5"/>
+      <c r="BJ83" s="5"/>
     </row>
     <row r="113" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
-      <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-      <c r="AF113" s="3"/>
-      <c r="AG113" s="3"/>
-      <c r="AH113" s="3"/>
-      <c r="AI113" s="3"/>
-      <c r="AJ113" s="3"/>
-      <c r="AK113" s="3"/>
-      <c r="AL113" s="3"/>
-      <c r="AM113" s="3"/>
-      <c r="AN113" s="3"/>
-      <c r="AO113" s="3"/>
-      <c r="AP113" s="3"/>
-      <c r="AQ113" s="3"/>
-      <c r="AR113" s="3"/>
-      <c r="AS113" s="3"/>
-      <c r="AT113" s="3"/>
-      <c r="AU113" s="3"/>
-      <c r="AV113" s="3"/>
-      <c r="AW113" s="3"/>
-      <c r="AX113" s="3"/>
-      <c r="AY113" s="3"/>
-      <c r="AZ113" s="3"/>
-      <c r="BA113" s="3"/>
-      <c r="BB113" s="3"/>
-      <c r="BC113" s="3"/>
-      <c r="BD113" s="3"/>
-      <c r="BE113" s="3"/>
-      <c r="BF113" s="3"/>
-      <c r="BG113" s="3"/>
-      <c r="BH113" s="3"/>
-      <c r="BI113" s="3"/>
-      <c r="BJ113" s="3"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+      <c r="AJ113" s="5"/>
+      <c r="AK113" s="5"/>
+      <c r="AL113" s="5"/>
+      <c r="AM113" s="5"/>
+      <c r="AN113" s="5"/>
+      <c r="AO113" s="5"/>
+      <c r="AP113" s="5"/>
+      <c r="AQ113" s="5"/>
+      <c r="AR113" s="5"/>
+      <c r="AS113" s="5"/>
+      <c r="AT113" s="5"/>
+      <c r="AU113" s="5"/>
+      <c r="AV113" s="5"/>
+      <c r="AW113" s="5"/>
+      <c r="AX113" s="5"/>
+      <c r="AY113" s="5"/>
+      <c r="AZ113" s="5"/>
+      <c r="BA113" s="5"/>
+      <c r="BB113" s="5"/>
+      <c r="BC113" s="5"/>
+      <c r="BD113" s="5"/>
+      <c r="BE113" s="5"/>
+      <c r="BF113" s="5"/>
+      <c r="BG113" s="5"/>
+      <c r="BH113" s="5"/>
+      <c r="BI113" s="5"/>
+      <c r="BJ113" s="5"/>
     </row>
     <row r="114" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
-      <c r="W114" s="3"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-      <c r="AF114" s="3"/>
-      <c r="AG114" s="3"/>
-      <c r="AH114" s="3"/>
-      <c r="AI114" s="3"/>
-      <c r="AJ114" s="3"/>
-      <c r="AK114" s="3"/>
-      <c r="AL114" s="3"/>
-      <c r="AM114" s="3"/>
-      <c r="AN114" s="3"/>
-      <c r="AO114" s="3"/>
-      <c r="AP114" s="3"/>
-      <c r="AQ114" s="3"/>
-      <c r="AR114" s="3"/>
-      <c r="AS114" s="3"/>
-      <c r="AT114" s="3"/>
-      <c r="AU114" s="3"/>
-      <c r="AV114" s="3"/>
-      <c r="AW114" s="3"/>
-      <c r="AX114" s="3"/>
-      <c r="AY114" s="3"/>
-      <c r="AZ114" s="3"/>
-      <c r="BA114" s="3"/>
-      <c r="BB114" s="3"/>
-      <c r="BC114" s="3"/>
-      <c r="BD114" s="3"/>
-      <c r="BE114" s="3"/>
-      <c r="BF114" s="3"/>
-      <c r="BG114" s="3"/>
-      <c r="BH114" s="3"/>
-      <c r="BI114" s="3"/>
-      <c r="BJ114" s="3"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="5"/>
+      <c r="AL114" s="5"/>
+      <c r="AM114" s="5"/>
+      <c r="AN114" s="5"/>
+      <c r="AO114" s="5"/>
+      <c r="AP114" s="5"/>
+      <c r="AQ114" s="5"/>
+      <c r="AR114" s="5"/>
+      <c r="AS114" s="5"/>
+      <c r="AT114" s="5"/>
+      <c r="AU114" s="5"/>
+      <c r="AV114" s="5"/>
+      <c r="AW114" s="5"/>
+      <c r="AX114" s="5"/>
+      <c r="AY114" s="5"/>
+      <c r="AZ114" s="5"/>
+      <c r="BA114" s="5"/>
+      <c r="BB114" s="5"/>
+      <c r="BC114" s="5"/>
+      <c r="BD114" s="5"/>
+      <c r="BE114" s="5"/>
+      <c r="BF114" s="5"/>
+      <c r="BG114" s="5"/>
+      <c r="BH114" s="5"/>
+      <c r="BI114" s="5"/>
+      <c r="BJ114" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6845,8 +6842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6882,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -6906,7 +6903,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -6917,7 +6914,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -6928,7 +6925,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -6939,10 +6936,10 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -6953,7 +6950,7 @@
         <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -6969,7 +6966,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -6977,7 +6974,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -6985,7 +6982,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -6993,7 +6990,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -7001,7 +6998,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -7009,7 +7006,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -7017,7 +7014,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -7025,7 +7022,7 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -7033,7 +7030,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -7041,7 +7038,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -7049,7 +7046,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -7057,7 +7054,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -7065,7 +7062,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -7073,7 +7070,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -7081,7 +7078,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -7106,13 +7103,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7123,516 +7120,516 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
     </row>
     <row r="17" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
     </row>
     <row r="22" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7661,13 +7658,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7700,13 +7697,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7717,132 +7714,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -7850,126 +7847,126 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
     </row>
     <row r="17" spans="5:62" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
@@ -7983,248 +7980,248 @@
       </c>
     </row>
     <row r="28" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
     </row>
     <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8256,13 +8253,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8295,13 +8292,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8334,13 +8331,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8373,13 +8370,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8406,19 +8403,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Z44" sqref="Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8429,132 +8426,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -8567,132 +8564,132 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
     </row>
     <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
@@ -8849,328 +8846,328 @@
         <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="S42" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.4">
       <c r="J43" t="s">
+        <v>129</v>
+      </c>
+      <c r="S43" t="s">
         <v>103</v>
-      </c>
-      <c r="S43" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="6:19" x14ac:dyDescent="0.4">
       <c r="J44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-      <c r="AG52" s="4"/>
-      <c r="AH52" s="4"/>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="4"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
-      <c r="AN52" s="4"/>
-      <c r="AO52" s="4"/>
-      <c r="AP52" s="4"/>
-      <c r="AQ52" s="4"/>
-      <c r="AR52" s="4"/>
-      <c r="AS52" s="4"/>
-      <c r="AT52" s="4"/>
-      <c r="AU52" s="4"/>
-      <c r="AV52" s="4"/>
-      <c r="AW52" s="4"/>
-      <c r="AX52" s="4"/>
-      <c r="AY52" s="4"/>
-      <c r="AZ52" s="4"/>
-      <c r="BA52" s="4"/>
-      <c r="BB52" s="4"/>
-      <c r="BC52" s="4"/>
-      <c r="BD52" s="4"/>
-      <c r="BE52" s="4"/>
-      <c r="BF52" s="4"/>
-      <c r="BG52" s="4"/>
-      <c r="BH52" s="4"/>
-      <c r="BI52" s="4"/>
-      <c r="BJ52" s="4"/>
-      <c r="BK52" s="4"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="6"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="6"/>
+      <c r="AT52" s="6"/>
+      <c r="AU52" s="6"/>
+      <c r="AV52" s="6"/>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="6"/>
+      <c r="AY52" s="6"/>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="6"/>
+      <c r="BB52" s="6"/>
+      <c r="BC52" s="6"/>
+      <c r="BD52" s="6"/>
+      <c r="BE52" s="6"/>
+      <c r="BF52" s="6"/>
+      <c r="BG52" s="6"/>
+      <c r="BH52" s="6"/>
+      <c r="BI52" s="6"/>
+      <c r="BJ52" s="6"/>
+      <c r="BK52" s="6"/>
     </row>
     <row r="53" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
-      <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
-      <c r="AS53" s="4"/>
-      <c r="AT53" s="4"/>
-      <c r="AU53" s="4"/>
-      <c r="AV53" s="4"/>
-      <c r="AW53" s="4"/>
-      <c r="AX53" s="4"/>
-      <c r="AY53" s="4"/>
-      <c r="AZ53" s="4"/>
-      <c r="BA53" s="4"/>
-      <c r="BB53" s="4"/>
-      <c r="BC53" s="4"/>
-      <c r="BD53" s="4"/>
-      <c r="BE53" s="4"/>
-      <c r="BF53" s="4"/>
-      <c r="BG53" s="4"/>
-      <c r="BH53" s="4"/>
-      <c r="BI53" s="4"/>
-      <c r="BJ53" s="4"/>
-      <c r="BK53" s="4"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6"/>
+      <c r="BC53" s="6"/>
+      <c r="BD53" s="6"/>
+      <c r="BE53" s="6"/>
+      <c r="BF53" s="6"/>
+      <c r="BG53" s="6"/>
+      <c r="BH53" s="6"/>
+      <c r="BI53" s="6"/>
+      <c r="BJ53" s="6"/>
+      <c r="BK53" s="6"/>
     </row>
     <row r="56" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="3:63" x14ac:dyDescent="0.4">
       <c r="J57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.4">
       <c r="J58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="3:63" x14ac:dyDescent="0.4">
       <c r="J59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="S59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C77" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-      <c r="AI77" s="4"/>
-      <c r="AJ77" s="4"/>
-      <c r="AK77" s="4"/>
-      <c r="AL77" s="4"/>
-      <c r="AM77" s="4"/>
-      <c r="AN77" s="4"/>
-      <c r="AO77" s="4"/>
-      <c r="AP77" s="4"/>
-      <c r="AQ77" s="4"/>
-      <c r="AR77" s="4"/>
-      <c r="AS77" s="4"/>
-      <c r="AT77" s="4"/>
-      <c r="AU77" s="4"/>
-      <c r="AV77" s="4"/>
-      <c r="AW77" s="4"/>
-      <c r="AX77" s="4"/>
-      <c r="AY77" s="4"/>
-      <c r="AZ77" s="4"/>
-      <c r="BA77" s="4"/>
-      <c r="BB77" s="4"/>
-      <c r="BC77" s="4"/>
-      <c r="BD77" s="4"/>
-      <c r="BE77" s="4"/>
-      <c r="BF77" s="4"/>
-      <c r="BG77" s="4"/>
-      <c r="BH77" s="4"/>
-      <c r="BI77" s="4"/>
-      <c r="BJ77" s="4"/>
-      <c r="BK77" s="4"/>
+      <c r="C77" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="6"/>
+      <c r="AN77" s="6"/>
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="6"/>
+      <c r="AQ77" s="6"/>
+      <c r="AR77" s="6"/>
+      <c r="AS77" s="6"/>
+      <c r="AT77" s="6"/>
+      <c r="AU77" s="6"/>
+      <c r="AV77" s="6"/>
+      <c r="AW77" s="6"/>
+      <c r="AX77" s="6"/>
+      <c r="AY77" s="6"/>
+      <c r="AZ77" s="6"/>
+      <c r="BA77" s="6"/>
+      <c r="BB77" s="6"/>
+      <c r="BC77" s="6"/>
+      <c r="BD77" s="6"/>
+      <c r="BE77" s="6"/>
+      <c r="BF77" s="6"/>
+      <c r="BG77" s="6"/>
+      <c r="BH77" s="6"/>
+      <c r="BI77" s="6"/>
+      <c r="BJ77" s="6"/>
+      <c r="BK77" s="6"/>
     </row>
     <row r="78" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-      <c r="AG78" s="4"/>
-      <c r="AH78" s="4"/>
-      <c r="AI78" s="4"/>
-      <c r="AJ78" s="4"/>
-      <c r="AK78" s="4"/>
-      <c r="AL78" s="4"/>
-      <c r="AM78" s="4"/>
-      <c r="AN78" s="4"/>
-      <c r="AO78" s="4"/>
-      <c r="AP78" s="4"/>
-      <c r="AQ78" s="4"/>
-      <c r="AR78" s="4"/>
-      <c r="AS78" s="4"/>
-      <c r="AT78" s="4"/>
-      <c r="AU78" s="4"/>
-      <c r="AV78" s="4"/>
-      <c r="AW78" s="4"/>
-      <c r="AX78" s="4"/>
-      <c r="AY78" s="4"/>
-      <c r="AZ78" s="4"/>
-      <c r="BA78" s="4"/>
-      <c r="BB78" s="4"/>
-      <c r="BC78" s="4"/>
-      <c r="BD78" s="4"/>
-      <c r="BE78" s="4"/>
-      <c r="BF78" s="4"/>
-      <c r="BG78" s="4"/>
-      <c r="BH78" s="4"/>
-      <c r="BI78" s="4"/>
-      <c r="BJ78" s="4"/>
-      <c r="BK78" s="4"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="6"/>
+      <c r="AR78" s="6"/>
+      <c r="AS78" s="6"/>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="6"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="6"/>
+      <c r="AX78" s="6"/>
+      <c r="AY78" s="6"/>
+      <c r="AZ78" s="6"/>
+      <c r="BA78" s="6"/>
+      <c r="BB78" s="6"/>
+      <c r="BC78" s="6"/>
+      <c r="BD78" s="6"/>
+      <c r="BE78" s="6"/>
+      <c r="BF78" s="6"/>
+      <c r="BG78" s="6"/>
+      <c r="BH78" s="6"/>
+      <c r="BI78" s="6"/>
+      <c r="BJ78" s="6"/>
+      <c r="BK78" s="6"/>
     </row>
     <row r="81" spans="6:19" x14ac:dyDescent="0.4">
       <c r="F81" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J81" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="S81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -754,16 +754,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>空の皿</t>
-    <rPh sb="0" eb="1">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>奥さんの手✋</t>
     <rPh sb="0" eb="1">
       <t>オク</t>
@@ -1005,10 +995,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Sara</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Rice</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1016,6 +1002,23 @@
     <t>すし米</t>
     <rPh sb="2" eb="3">
       <t>コメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SaraNormal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空の皿,基本タイプ</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1257,12 +1260,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1271,6 +1268,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4599,13 +4602,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E6" s="8" t="s">
         <v>9</v>
@@ -4649,314 +4652,314 @@
       <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
     </row>
     <row r="19" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
     </row>
     <row r="21" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
@@ -4964,248 +4967,248 @@
       </c>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
     </row>
     <row r="24" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
     </row>
     <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
     </row>
     <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
     </row>
     <row r="31" spans="3:63" x14ac:dyDescent="0.4">
       <c r="H31" t="s">
@@ -5213,873 +5216,881 @@
       </c>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
     </row>
     <row r="38" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="5"/>
-      <c r="BE38" s="5"/>
-      <c r="BF38" s="5"/>
-      <c r="BG38" s="5"/>
-      <c r="BH38" s="5"/>
-      <c r="BI38" s="5"/>
-      <c r="BJ38" s="5"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AQ38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
+      <c r="BE38" s="3"/>
+      <c r="BF38" s="3"/>
+      <c r="BG38" s="3"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="3"/>
     </row>
     <row r="39" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="5"/>
-      <c r="AZ39" s="5"/>
-      <c r="BA39" s="5"/>
-      <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="5"/>
-      <c r="BE39" s="5"/>
-      <c r="BF39" s="5"/>
-      <c r="BG39" s="5"/>
-      <c r="BH39" s="5"/>
-      <c r="BI39" s="5"/>
-      <c r="BJ39" s="5"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="3"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
+      <c r="BE39" s="3"/>
+      <c r="BF39" s="3"/>
+      <c r="BG39" s="3"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="3"/>
     </row>
     <row r="43" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
-      <c r="AZ43" s="5"/>
-      <c r="BA43" s="5"/>
-      <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
-      <c r="BE43" s="5"/>
-      <c r="BF43" s="5"/>
-      <c r="BG43" s="5"/>
-      <c r="BH43" s="5"/>
-      <c r="BI43" s="5"/>
-      <c r="BJ43" s="5"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="3"/>
+      <c r="AQ43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AS43" s="3"/>
+      <c r="AT43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AV43" s="3"/>
+      <c r="AW43" s="3"/>
+      <c r="AX43" s="3"/>
+      <c r="AY43" s="3"/>
+      <c r="AZ43" s="3"/>
+      <c r="BA43" s="3"/>
+      <c r="BB43" s="3"/>
+      <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
+      <c r="BE43" s="3"/>
+      <c r="BF43" s="3"/>
+      <c r="BG43" s="3"/>
+      <c r="BH43" s="3"/>
+      <c r="BI43" s="3"/>
+      <c r="BJ43" s="3"/>
     </row>
     <row r="44" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="5"/>
-      <c r="AV44" s="5"/>
-      <c r="AW44" s="5"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="5"/>
-      <c r="AZ44" s="5"/>
-      <c r="BA44" s="5"/>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="5"/>
-      <c r="BE44" s="5"/>
-      <c r="BF44" s="5"/>
-      <c r="BG44" s="5"/>
-      <c r="BH44" s="5"/>
-      <c r="BI44" s="5"/>
-      <c r="BJ44" s="5"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AJ44" s="3"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="3"/>
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3"/>
+      <c r="AO44" s="3"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="3"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="3"/>
+      <c r="AT44" s="3"/>
+      <c r="AU44" s="3"/>
+      <c r="AV44" s="3"/>
+      <c r="AW44" s="3"/>
+      <c r="AX44" s="3"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="3"/>
+      <c r="BA44" s="3"/>
+      <c r="BB44" s="3"/>
+      <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
+      <c r="BE44" s="3"/>
+      <c r="BF44" s="3"/>
+      <c r="BG44" s="3"/>
+      <c r="BH44" s="3"/>
+      <c r="BI44" s="3"/>
+      <c r="BJ44" s="3"/>
     </row>
     <row r="48" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
-      <c r="AZ48" s="5"/>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="5"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="5"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
-      <c r="BJ48" s="5"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
     </row>
     <row r="49" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-      <c r="AT49" s="5"/>
-      <c r="AU49" s="5"/>
-      <c r="AV49" s="5"/>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
-      <c r="AZ49" s="5"/>
-      <c r="BA49" s="5"/>
-      <c r="BB49" s="5"/>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-      <c r="BE49" s="5"/>
-      <c r="BF49" s="5"/>
-      <c r="BG49" s="5"/>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="3"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3"/>
+      <c r="AO49" s="3"/>
+      <c r="AP49" s="3"/>
+      <c r="AQ49" s="3"/>
+      <c r="AR49" s="3"/>
+      <c r="AS49" s="3"/>
+      <c r="AT49" s="3"/>
+      <c r="AU49" s="3"/>
+      <c r="AV49" s="3"/>
+      <c r="AW49" s="3"/>
+      <c r="AX49" s="3"/>
+      <c r="AY49" s="3"/>
+      <c r="AZ49" s="3"/>
+      <c r="BA49" s="3"/>
+      <c r="BB49" s="3"/>
+      <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
+      <c r="BE49" s="3"/>
+      <c r="BF49" s="3"/>
+      <c r="BG49" s="3"/>
+      <c r="BH49" s="3"/>
+      <c r="BI49" s="3"/>
+      <c r="BJ49" s="3"/>
     </row>
     <row r="53" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="3"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
+      <c r="AM53" s="3"/>
+      <c r="AN53" s="3"/>
+      <c r="AO53" s="3"/>
+      <c r="AP53" s="3"/>
+      <c r="AQ53" s="3"/>
+      <c r="AR53" s="3"/>
+      <c r="AS53" s="3"/>
+      <c r="AT53" s="3"/>
+      <c r="AU53" s="3"/>
+      <c r="AV53" s="3"/>
+      <c r="AW53" s="3"/>
+      <c r="AX53" s="3"/>
+      <c r="AY53" s="3"/>
+      <c r="AZ53" s="3"/>
+      <c r="BA53" s="3"/>
+      <c r="BB53" s="3"/>
+      <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
+      <c r="BE53" s="3"/>
+      <c r="BF53" s="3"/>
+      <c r="BG53" s="3"/>
+      <c r="BH53" s="3"/>
+      <c r="BI53" s="3"/>
+      <c r="BJ53" s="3"/>
     </row>
     <row r="54" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="5"/>
-      <c r="AR54" s="5"/>
-      <c r="AS54" s="5"/>
-      <c r="AT54" s="5"/>
-      <c r="AU54" s="5"/>
-      <c r="AV54" s="5"/>
-      <c r="AW54" s="5"/>
-      <c r="AX54" s="5"/>
-      <c r="AY54" s="5"/>
-      <c r="AZ54" s="5"/>
-      <c r="BA54" s="5"/>
-      <c r="BB54" s="5"/>
-      <c r="BC54" s="5"/>
-      <c r="BD54" s="5"/>
-      <c r="BE54" s="5"/>
-      <c r="BF54" s="5"/>
-      <c r="BG54" s="5"/>
-      <c r="BH54" s="5"/>
-      <c r="BI54" s="5"/>
-      <c r="BJ54" s="5"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
+      <c r="BJ54" s="3"/>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="6"/>
-      <c r="AM58" s="6"/>
-      <c r="AN58" s="6"/>
-      <c r="AO58" s="6"/>
-      <c r="AP58" s="6"/>
-      <c r="AQ58" s="6"/>
-      <c r="AR58" s="6"/>
-      <c r="AS58" s="6"/>
-      <c r="AT58" s="6"/>
-      <c r="AU58" s="6"/>
-      <c r="AV58" s="6"/>
-      <c r="AW58" s="6"/>
-      <c r="AX58" s="6"/>
-      <c r="AY58" s="6"/>
-      <c r="AZ58" s="6"/>
-      <c r="BA58" s="6"/>
-      <c r="BB58" s="6"/>
-      <c r="BC58" s="6"/>
-      <c r="BD58" s="6"/>
-      <c r="BE58" s="6"/>
-      <c r="BF58" s="6"/>
-      <c r="BG58" s="6"/>
-      <c r="BH58" s="6"/>
-      <c r="BI58" s="6"/>
-      <c r="BJ58" s="6"/>
-      <c r="BK58" s="6"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AH58" s="4"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
+      <c r="AN58" s="4"/>
+      <c r="AO58" s="4"/>
+      <c r="AP58" s="4"/>
+      <c r="AQ58" s="4"/>
+      <c r="AR58" s="4"/>
+      <c r="AS58" s="4"/>
+      <c r="AT58" s="4"/>
+      <c r="AU58" s="4"/>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4"/>
+      <c r="AX58" s="4"/>
+      <c r="AY58" s="4"/>
+      <c r="AZ58" s="4"/>
+      <c r="BA58" s="4"/>
+      <c r="BB58" s="4"/>
+      <c r="BC58" s="4"/>
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+      <c r="BF58" s="4"/>
+      <c r="BG58" s="4"/>
+      <c r="BH58" s="4"/>
+      <c r="BI58" s="4"/>
+      <c r="BJ58" s="4"/>
+      <c r="BK58" s="4"/>
     </row>
     <row r="59" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-      <c r="AI59" s="6"/>
-      <c r="AJ59" s="6"/>
-      <c r="AK59" s="6"/>
-      <c r="AL59" s="6"/>
-      <c r="AM59" s="6"/>
-      <c r="AN59" s="6"/>
-      <c r="AO59" s="6"/>
-      <c r="AP59" s="6"/>
-      <c r="AQ59" s="6"/>
-      <c r="AR59" s="6"/>
-      <c r="AS59" s="6"/>
-      <c r="AT59" s="6"/>
-      <c r="AU59" s="6"/>
-      <c r="AV59" s="6"/>
-      <c r="AW59" s="6"/>
-      <c r="AX59" s="6"/>
-      <c r="AY59" s="6"/>
-      <c r="AZ59" s="6"/>
-      <c r="BA59" s="6"/>
-      <c r="BB59" s="6"/>
-      <c r="BC59" s="6"/>
-      <c r="BD59" s="6"/>
-      <c r="BE59" s="6"/>
-      <c r="BF59" s="6"/>
-      <c r="BG59" s="6"/>
-      <c r="BH59" s="6"/>
-      <c r="BI59" s="6"/>
-      <c r="BJ59" s="6"/>
-      <c r="BK59" s="6"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="4"/>
+      <c r="AH59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="4"/>
+      <c r="AQ59" s="4"/>
+      <c r="AR59" s="4"/>
+      <c r="AS59" s="4"/>
+      <c r="AT59" s="4"/>
+      <c r="AU59" s="4"/>
+      <c r="AV59" s="4"/>
+      <c r="AW59" s="4"/>
+      <c r="AX59" s="4"/>
+      <c r="AY59" s="4"/>
+      <c r="AZ59" s="4"/>
+      <c r="BA59" s="4"/>
+      <c r="BB59" s="4"/>
+      <c r="BC59" s="4"/>
+      <c r="BD59" s="4"/>
+      <c r="BE59" s="4"/>
+      <c r="BF59" s="4"/>
+      <c r="BG59" s="4"/>
+      <c r="BH59" s="4"/>
+      <c r="BI59" s="4"/>
+      <c r="BJ59" s="4"/>
+      <c r="BK59" s="4"/>
     </row>
     <row r="63" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="6"/>
-      <c r="AI63" s="6"/>
-      <c r="AJ63" s="6"/>
-      <c r="AK63" s="6"/>
-      <c r="AL63" s="6"/>
-      <c r="AM63" s="6"/>
-      <c r="AN63" s="6"/>
-      <c r="AO63" s="6"/>
-      <c r="AP63" s="6"/>
-      <c r="AQ63" s="6"/>
-      <c r="AR63" s="6"/>
-      <c r="AS63" s="6"/>
-      <c r="AT63" s="6"/>
-      <c r="AU63" s="6"/>
-      <c r="AV63" s="6"/>
-      <c r="AW63" s="6"/>
-      <c r="AX63" s="6"/>
-      <c r="AY63" s="6"/>
-      <c r="AZ63" s="6"/>
-      <c r="BA63" s="6"/>
-      <c r="BB63" s="6"/>
-      <c r="BC63" s="6"/>
-      <c r="BD63" s="6"/>
-      <c r="BE63" s="6"/>
-      <c r="BF63" s="6"/>
-      <c r="BG63" s="6"/>
-      <c r="BH63" s="6"/>
-      <c r="BI63" s="6"/>
-      <c r="BJ63" s="6"/>
-      <c r="BK63" s="6"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="4"/>
+      <c r="AR63" s="4"/>
+      <c r="AS63" s="4"/>
+      <c r="AT63" s="4"/>
+      <c r="AU63" s="4"/>
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="4"/>
+      <c r="AY63" s="4"/>
+      <c r="AZ63" s="4"/>
+      <c r="BA63" s="4"/>
+      <c r="BB63" s="4"/>
+      <c r="BC63" s="4"/>
+      <c r="BD63" s="4"/>
+      <c r="BE63" s="4"/>
+      <c r="BF63" s="4"/>
+      <c r="BG63" s="4"/>
+      <c r="BH63" s="4"/>
+      <c r="BI63" s="4"/>
+      <c r="BJ63" s="4"/>
+      <c r="BK63" s="4"/>
     </row>
     <row r="64" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="6"/>
-      <c r="AI64" s="6"/>
-      <c r="AJ64" s="6"/>
-      <c r="AK64" s="6"/>
-      <c r="AL64" s="6"/>
-      <c r="AM64" s="6"/>
-      <c r="AN64" s="6"/>
-      <c r="AO64" s="6"/>
-      <c r="AP64" s="6"/>
-      <c r="AQ64" s="6"/>
-      <c r="AR64" s="6"/>
-      <c r="AS64" s="6"/>
-      <c r="AT64" s="6"/>
-      <c r="AU64" s="6"/>
-      <c r="AV64" s="6"/>
-      <c r="AW64" s="6"/>
-      <c r="AX64" s="6"/>
-      <c r="AY64" s="6"/>
-      <c r="AZ64" s="6"/>
-      <c r="BA64" s="6"/>
-      <c r="BB64" s="6"/>
-      <c r="BC64" s="6"/>
-      <c r="BD64" s="6"/>
-      <c r="BE64" s="6"/>
-      <c r="BF64" s="6"/>
-      <c r="BG64" s="6"/>
-      <c r="BH64" s="6"/>
-      <c r="BI64" s="6"/>
-      <c r="BJ64" s="6"/>
-      <c r="BK64" s="6"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
+      <c r="AR64" s="4"/>
+      <c r="AS64" s="4"/>
+      <c r="AT64" s="4"/>
+      <c r="AU64" s="4"/>
+      <c r="AV64" s="4"/>
+      <c r="AW64" s="4"/>
+      <c r="AX64" s="4"/>
+      <c r="AY64" s="4"/>
+      <c r="AZ64" s="4"/>
+      <c r="BA64" s="4"/>
+      <c r="BB64" s="4"/>
+      <c r="BC64" s="4"/>
+      <c r="BD64" s="4"/>
+      <c r="BE64" s="4"/>
+      <c r="BF64" s="4"/>
+      <c r="BG64" s="4"/>
+      <c r="BH64" s="4"/>
+      <c r="BI64" s="4"/>
+      <c r="BJ64" s="4"/>
+      <c r="BK64" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
     <mergeCell ref="E48:BJ49"/>
     <mergeCell ref="E53:BJ54"/>
     <mergeCell ref="C63:BK64"/>
@@ -6096,14 +6107,6 @@
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
     <mergeCell ref="E6:V7"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6134,13 +6137,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6173,13 +6176,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6190,382 +6193,382 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
     <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
     </row>
     <row r="35" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="6"/>
-      <c r="AR35" s="6"/>
-      <c r="AS35" s="6"/>
-      <c r="AT35" s="6"/>
-      <c r="AU35" s="6"/>
-      <c r="AV35" s="6"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="6"/>
-      <c r="AZ35" s="6"/>
-      <c r="BA35" s="6"/>
-      <c r="BB35" s="6"/>
-      <c r="BC35" s="6"/>
-      <c r="BD35" s="6"/>
-      <c r="BE35" s="6"/>
-      <c r="BF35" s="6"/>
-      <c r="BG35" s="6"/>
-      <c r="BH35" s="6"/>
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="6"/>
-      <c r="BK35" s="6"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="4"/>
+      <c r="AT35" s="4"/>
+      <c r="AU35" s="4"/>
+      <c r="AV35" s="4"/>
+      <c r="AW35" s="4"/>
+      <c r="AX35" s="4"/>
+      <c r="AY35" s="4"/>
+      <c r="AZ35" s="4"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
+      <c r="BF35" s="4"/>
+      <c r="BG35" s="4"/>
+      <c r="BH35" s="4"/>
+      <c r="BI35" s="4"/>
+      <c r="BJ35" s="4"/>
+      <c r="BK35" s="4"/>
     </row>
     <row r="36" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="6"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="6"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="6"/>
-      <c r="BK36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4"/>
+      <c r="AM36" s="4"/>
+      <c r="AN36" s="4"/>
+      <c r="AO36" s="4"/>
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="4"/>
+      <c r="AT36" s="4"/>
+      <c r="AU36" s="4"/>
+      <c r="AV36" s="4"/>
+      <c r="AW36" s="4"/>
+      <c r="AX36" s="4"/>
+      <c r="AY36" s="4"/>
+      <c r="AZ36" s="4"/>
+      <c r="BA36" s="4"/>
+      <c r="BB36" s="4"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="4"/>
+      <c r="BF36" s="4"/>
+      <c r="BG36" s="4"/>
+      <c r="BH36" s="4"/>
+      <c r="BI36" s="4"/>
+      <c r="BJ36" s="4"/>
+      <c r="BK36" s="4"/>
     </row>
     <row r="40" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="5"/>
-      <c r="AZ40" s="5"/>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="5"/>
-      <c r="BF40" s="5"/>
-      <c r="BG40" s="5"/>
-      <c r="BH40" s="5"/>
-      <c r="BI40" s="5"/>
-      <c r="BJ40" s="5"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AP40" s="3"/>
+      <c r="AQ40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AS40" s="3"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="3"/>
+      <c r="AW40" s="3"/>
+      <c r="AX40" s="3"/>
+      <c r="AY40" s="3"/>
+      <c r="AZ40" s="3"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
+      <c r="BE40" s="3"/>
+      <c r="BF40" s="3"/>
+      <c r="BG40" s="3"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="3"/>
     </row>
     <row r="41" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="5"/>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
-      <c r="BE41" s="5"/>
-      <c r="BF41" s="5"/>
-      <c r="BG41" s="5"/>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="5"/>
-      <c r="BJ41" s="5"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
@@ -6576,248 +6579,248 @@
       </c>
     </row>
     <row r="82" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
-      <c r="AM82" s="5"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="5"/>
-      <c r="AP82" s="5"/>
-      <c r="AQ82" s="5"/>
-      <c r="AR82" s="5"/>
-      <c r="AS82" s="5"/>
-      <c r="AT82" s="5"/>
-      <c r="AU82" s="5"/>
-      <c r="AV82" s="5"/>
-      <c r="AW82" s="5"/>
-      <c r="AX82" s="5"/>
-      <c r="AY82" s="5"/>
-      <c r="AZ82" s="5"/>
-      <c r="BA82" s="5"/>
-      <c r="BB82" s="5"/>
-      <c r="BC82" s="5"/>
-      <c r="BD82" s="5"/>
-      <c r="BE82" s="5"/>
-      <c r="BF82" s="5"/>
-      <c r="BG82" s="5"/>
-      <c r="BH82" s="5"/>
-      <c r="BI82" s="5"/>
-      <c r="BJ82" s="5"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+      <c r="AQ82" s="3"/>
+      <c r="AR82" s="3"/>
+      <c r="AS82" s="3"/>
+      <c r="AT82" s="3"/>
+      <c r="AU82" s="3"/>
+      <c r="AV82" s="3"/>
+      <c r="AW82" s="3"/>
+      <c r="AX82" s="3"/>
+      <c r="AY82" s="3"/>
+      <c r="AZ82" s="3"/>
+      <c r="BA82" s="3"/>
+      <c r="BB82" s="3"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="3"/>
+      <c r="BE82" s="3"/>
+      <c r="BF82" s="3"/>
+      <c r="BG82" s="3"/>
+      <c r="BH82" s="3"/>
+      <c r="BI82" s="3"/>
+      <c r="BJ82" s="3"/>
     </row>
     <row r="83" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
-      <c r="AS83" s="5"/>
-      <c r="AT83" s="5"/>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="5"/>
-      <c r="AZ83" s="5"/>
-      <c r="BA83" s="5"/>
-      <c r="BB83" s="5"/>
-      <c r="BC83" s="5"/>
-      <c r="BD83" s="5"/>
-      <c r="BE83" s="5"/>
-      <c r="BF83" s="5"/>
-      <c r="BG83" s="5"/>
-      <c r="BH83" s="5"/>
-      <c r="BI83" s="5"/>
-      <c r="BJ83" s="5"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="3"/>
+      <c r="AQ83" s="3"/>
+      <c r="AR83" s="3"/>
+      <c r="AS83" s="3"/>
+      <c r="AT83" s="3"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="3"/>
+      <c r="AX83" s="3"/>
+      <c r="AY83" s="3"/>
+      <c r="AZ83" s="3"/>
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
+      <c r="BC83" s="3"/>
+      <c r="BD83" s="3"/>
+      <c r="BE83" s="3"/>
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+      <c r="BI83" s="3"/>
+      <c r="BJ83" s="3"/>
     </row>
     <row r="113" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
-      <c r="AC113" s="5"/>
-      <c r="AD113" s="5"/>
-      <c r="AE113" s="5"/>
-      <c r="AF113" s="5"/>
-      <c r="AG113" s="5"/>
-      <c r="AH113" s="5"/>
-      <c r="AI113" s="5"/>
-      <c r="AJ113" s="5"/>
-      <c r="AK113" s="5"/>
-      <c r="AL113" s="5"/>
-      <c r="AM113" s="5"/>
-      <c r="AN113" s="5"/>
-      <c r="AO113" s="5"/>
-      <c r="AP113" s="5"/>
-      <c r="AQ113" s="5"/>
-      <c r="AR113" s="5"/>
-      <c r="AS113" s="5"/>
-      <c r="AT113" s="5"/>
-      <c r="AU113" s="5"/>
-      <c r="AV113" s="5"/>
-      <c r="AW113" s="5"/>
-      <c r="AX113" s="5"/>
-      <c r="AY113" s="5"/>
-      <c r="AZ113" s="5"/>
-      <c r="BA113" s="5"/>
-      <c r="BB113" s="5"/>
-      <c r="BC113" s="5"/>
-      <c r="BD113" s="5"/>
-      <c r="BE113" s="5"/>
-      <c r="BF113" s="5"/>
-      <c r="BG113" s="5"/>
-      <c r="BH113" s="5"/>
-      <c r="BI113" s="5"/>
-      <c r="BJ113" s="5"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+      <c r="AD113" s="3"/>
+      <c r="AE113" s="3"/>
+      <c r="AF113" s="3"/>
+      <c r="AG113" s="3"/>
+      <c r="AH113" s="3"/>
+      <c r="AI113" s="3"/>
+      <c r="AJ113" s="3"/>
+      <c r="AK113" s="3"/>
+      <c r="AL113" s="3"/>
+      <c r="AM113" s="3"/>
+      <c r="AN113" s="3"/>
+      <c r="AO113" s="3"/>
+      <c r="AP113" s="3"/>
+      <c r="AQ113" s="3"/>
+      <c r="AR113" s="3"/>
+      <c r="AS113" s="3"/>
+      <c r="AT113" s="3"/>
+      <c r="AU113" s="3"/>
+      <c r="AV113" s="3"/>
+      <c r="AW113" s="3"/>
+      <c r="AX113" s="3"/>
+      <c r="AY113" s="3"/>
+      <c r="AZ113" s="3"/>
+      <c r="BA113" s="3"/>
+      <c r="BB113" s="3"/>
+      <c r="BC113" s="3"/>
+      <c r="BD113" s="3"/>
+      <c r="BE113" s="3"/>
+      <c r="BF113" s="3"/>
+      <c r="BG113" s="3"/>
+      <c r="BH113" s="3"/>
+      <c r="BI113" s="3"/>
+      <c r="BJ113" s="3"/>
     </row>
     <row r="114" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
-      <c r="AC114" s="5"/>
-      <c r="AD114" s="5"/>
-      <c r="AE114" s="5"/>
-      <c r="AF114" s="5"/>
-      <c r="AG114" s="5"/>
-      <c r="AH114" s="5"/>
-      <c r="AI114" s="5"/>
-      <c r="AJ114" s="5"/>
-      <c r="AK114" s="5"/>
-      <c r="AL114" s="5"/>
-      <c r="AM114" s="5"/>
-      <c r="AN114" s="5"/>
-      <c r="AO114" s="5"/>
-      <c r="AP114" s="5"/>
-      <c r="AQ114" s="5"/>
-      <c r="AR114" s="5"/>
-      <c r="AS114" s="5"/>
-      <c r="AT114" s="5"/>
-      <c r="AU114" s="5"/>
-      <c r="AV114" s="5"/>
-      <c r="AW114" s="5"/>
-      <c r="AX114" s="5"/>
-      <c r="AY114" s="5"/>
-      <c r="AZ114" s="5"/>
-      <c r="BA114" s="5"/>
-      <c r="BB114" s="5"/>
-      <c r="BC114" s="5"/>
-      <c r="BD114" s="5"/>
-      <c r="BE114" s="5"/>
-      <c r="BF114" s="5"/>
-      <c r="BG114" s="5"/>
-      <c r="BH114" s="5"/>
-      <c r="BI114" s="5"/>
-      <c r="BJ114" s="5"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+      <c r="AG114" s="3"/>
+      <c r="AH114" s="3"/>
+      <c r="AI114" s="3"/>
+      <c r="AJ114" s="3"/>
+      <c r="AK114" s="3"/>
+      <c r="AL114" s="3"/>
+      <c r="AM114" s="3"/>
+      <c r="AN114" s="3"/>
+      <c r="AO114" s="3"/>
+      <c r="AP114" s="3"/>
+      <c r="AQ114" s="3"/>
+      <c r="AR114" s="3"/>
+      <c r="AS114" s="3"/>
+      <c r="AT114" s="3"/>
+      <c r="AU114" s="3"/>
+      <c r="AV114" s="3"/>
+      <c r="AW114" s="3"/>
+      <c r="AX114" s="3"/>
+      <c r="AY114" s="3"/>
+      <c r="AZ114" s="3"/>
+      <c r="BA114" s="3"/>
+      <c r="BB114" s="3"/>
+      <c r="BC114" s="3"/>
+      <c r="BD114" s="3"/>
+      <c r="BE114" s="3"/>
+      <c r="BF114" s="3"/>
+      <c r="BG114" s="3"/>
+      <c r="BH114" s="3"/>
+      <c r="BI114" s="3"/>
+      <c r="BJ114" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6879,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -6903,7 +6906,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -6914,7 +6917,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -6925,7 +6928,7 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -6936,10 +6939,10 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -6950,7 +6953,7 @@
         <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -6966,7 +6969,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -6974,7 +6977,7 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -6982,7 +6985,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -6990,7 +6993,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -6998,7 +7001,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -7006,7 +7009,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -7014,7 +7017,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -7022,7 +7025,7 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -7030,7 +7033,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -7038,7 +7041,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -7046,7 +7049,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -7054,7 +7057,7 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -7062,7 +7065,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -7070,7 +7073,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -7078,7 +7081,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -7103,13 +7106,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7120,516 +7123,516 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+      <c r="BK12" s="4"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="6"/>
-      <c r="BH13" s="6"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
     </row>
     <row r="17" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
     </row>
     <row r="22" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="6"/>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="6"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7658,13 +7661,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7697,13 +7700,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7714,132 +7717,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -7847,126 +7850,126 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BA15" s="3"/>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
     </row>
     <row r="17" spans="5:62" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
@@ -7980,248 +7983,248 @@
       </c>
     </row>
     <row r="28" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
     </row>
     <row r="29" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3"/>
+      <c r="AZ33" s="3"/>
+      <c r="BA33" s="3"/>
+      <c r="BB33" s="3"/>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
+      <c r="BE33" s="3"/>
+      <c r="BF33" s="3"/>
+      <c r="BG33" s="3"/>
+      <c r="BH33" s="3"/>
+      <c r="BI33" s="3"/>
+      <c r="BJ33" s="3"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
     </row>
     <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8253,13 +8256,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8292,13 +8295,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8331,13 +8334,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8370,13 +8373,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8401,21 +8404,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Z44" sqref="Z44"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8426,132 +8429,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -8564,132 +8567,132 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
-      <c r="BG15" s="6"/>
-      <c r="BH15" s="6"/>
-      <c r="BI15" s="6"/>
-      <c r="BJ15" s="6"/>
-      <c r="BK15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
     </row>
     <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
@@ -8846,334 +8849,334 @@
         <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="S42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="6:19" x14ac:dyDescent="0.4">
       <c r="J43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="S46" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J44" t="s">
-        <v>102</v>
-      </c>
-      <c r="S44" t="s">
+    <row r="54" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="4"/>
+      <c r="AY54" s="4"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+      <c r="BG54" s="4"/>
+      <c r="BH54" s="4"/>
+      <c r="BI54" s="4"/>
+      <c r="BJ54" s="4"/>
+      <c r="BK54" s="4"/>
+    </row>
+    <row r="55" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="4"/>
+      <c r="AO55" s="4"/>
+      <c r="AP55" s="4"/>
+      <c r="AQ55" s="4"/>
+      <c r="AR55" s="4"/>
+      <c r="AS55" s="4"/>
+      <c r="AT55" s="4"/>
+      <c r="AU55" s="4"/>
+      <c r="AV55" s="4"/>
+      <c r="AW55" s="4"/>
+      <c r="AX55" s="4"/>
+      <c r="AY55" s="4"/>
+      <c r="AZ55" s="4"/>
+      <c r="BA55" s="4"/>
+      <c r="BB55" s="4"/>
+      <c r="BC55" s="4"/>
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="4"/>
+      <c r="BF55" s="4"/>
+      <c r="BG55" s="4"/>
+      <c r="BH55" s="4"/>
+      <c r="BI55" s="4"/>
+      <c r="BJ55" s="4"/>
+      <c r="BK55" s="4"/>
+    </row>
+    <row r="58" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F58" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C52" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="6"/>
-      <c r="AG52" s="6"/>
-      <c r="AH52" s="6"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="6"/>
-      <c r="AK52" s="6"/>
-      <c r="AL52" s="6"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="6"/>
-      <c r="AO52" s="6"/>
-      <c r="AP52" s="6"/>
-      <c r="AQ52" s="6"/>
-      <c r="AR52" s="6"/>
-      <c r="AS52" s="6"/>
-      <c r="AT52" s="6"/>
-      <c r="AU52" s="6"/>
-      <c r="AV52" s="6"/>
-      <c r="AW52" s="6"/>
-      <c r="AX52" s="6"/>
-      <c r="AY52" s="6"/>
-      <c r="AZ52" s="6"/>
-      <c r="BA52" s="6"/>
-      <c r="BB52" s="6"/>
-      <c r="BC52" s="6"/>
-      <c r="BD52" s="6"/>
-      <c r="BE52" s="6"/>
-      <c r="BF52" s="6"/>
-      <c r="BG52" s="6"/>
-      <c r="BH52" s="6"/>
-      <c r="BI52" s="6"/>
-      <c r="BJ52" s="6"/>
-      <c r="BK52" s="6"/>
-    </row>
-    <row r="53" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="6"/>
-      <c r="AG53" s="6"/>
-      <c r="AH53" s="6"/>
-      <c r="AI53" s="6"/>
-      <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
-      <c r="AL53" s="6"/>
-      <c r="AM53" s="6"/>
-      <c r="AN53" s="6"/>
-      <c r="AO53" s="6"/>
-      <c r="AP53" s="6"/>
-      <c r="AQ53" s="6"/>
-      <c r="AR53" s="6"/>
-      <c r="AS53" s="6"/>
-      <c r="AT53" s="6"/>
-      <c r="AU53" s="6"/>
-      <c r="AV53" s="6"/>
-      <c r="AW53" s="6"/>
-      <c r="AX53" s="6"/>
-      <c r="AY53" s="6"/>
-      <c r="AZ53" s="6"/>
-      <c r="BA53" s="6"/>
-      <c r="BB53" s="6"/>
-      <c r="BC53" s="6"/>
-      <c r="BD53" s="6"/>
-      <c r="BE53" s="6"/>
-      <c r="BF53" s="6"/>
-      <c r="BG53" s="6"/>
-      <c r="BH53" s="6"/>
-      <c r="BI53" s="6"/>
-      <c r="BJ53" s="6"/>
-      <c r="BK53" s="6"/>
-    </row>
-    <row r="56" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="F56" t="s">
+      <c r="J58" t="s">
         <v>105</v>
       </c>
-      <c r="J56" t="s">
-        <v>106</v>
-      </c>
-      <c r="S56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="J57" t="s">
-        <v>107</v>
-      </c>
-      <c r="S57" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="J58" t="s">
-        <v>108</v>
-      </c>
       <c r="S58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="3:63" x14ac:dyDescent="0.4">
       <c r="J59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C77" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="J60" t="s">
+        <v>107</v>
+      </c>
+      <c r="S60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="J61" t="s">
+        <v>108</v>
+      </c>
+      <c r="S61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
+      <c r="AI79" s="4"/>
+      <c r="AJ79" s="4"/>
+      <c r="AK79" s="4"/>
+      <c r="AL79" s="4"/>
+      <c r="AM79" s="4"/>
+      <c r="AN79" s="4"/>
+      <c r="AO79" s="4"/>
+      <c r="AP79" s="4"/>
+      <c r="AQ79" s="4"/>
+      <c r="AR79" s="4"/>
+      <c r="AS79" s="4"/>
+      <c r="AT79" s="4"/>
+      <c r="AU79" s="4"/>
+      <c r="AV79" s="4"/>
+      <c r="AW79" s="4"/>
+      <c r="AX79" s="4"/>
+      <c r="AY79" s="4"/>
+      <c r="AZ79" s="4"/>
+      <c r="BA79" s="4"/>
+      <c r="BB79" s="4"/>
+      <c r="BC79" s="4"/>
+      <c r="BD79" s="4"/>
+      <c r="BE79" s="4"/>
+      <c r="BF79" s="4"/>
+      <c r="BG79" s="4"/>
+      <c r="BH79" s="4"/>
+      <c r="BI79" s="4"/>
+      <c r="BJ79" s="4"/>
+      <c r="BK79" s="4"/>
+    </row>
+    <row r="80" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
+      <c r="AI80" s="4"/>
+      <c r="AJ80" s="4"/>
+      <c r="AK80" s="4"/>
+      <c r="AL80" s="4"/>
+      <c r="AM80" s="4"/>
+      <c r="AN80" s="4"/>
+      <c r="AO80" s="4"/>
+      <c r="AP80" s="4"/>
+      <c r="AQ80" s="4"/>
+      <c r="AR80" s="4"/>
+      <c r="AS80" s="4"/>
+      <c r="AT80" s="4"/>
+      <c r="AU80" s="4"/>
+      <c r="AV80" s="4"/>
+      <c r="AW80" s="4"/>
+      <c r="AX80" s="4"/>
+      <c r="AY80" s="4"/>
+      <c r="AZ80" s="4"/>
+      <c r="BA80" s="4"/>
+      <c r="BB80" s="4"/>
+      <c r="BC80" s="4"/>
+      <c r="BD80" s="4"/>
+      <c r="BE80" s="4"/>
+      <c r="BF80" s="4"/>
+      <c r="BG80" s="4"/>
+      <c r="BH80" s="4"/>
+      <c r="BI80" s="4"/>
+      <c r="BJ80" s="4"/>
+      <c r="BK80" s="4"/>
+    </row>
+    <row r="83" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F83" t="s">
+        <v>126</v>
+      </c>
+      <c r="J83" t="s">
         <v>124</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
-      <c r="AA77" s="6"/>
-      <c r="AB77" s="6"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="6"/>
-      <c r="AE77" s="6"/>
-      <c r="AF77" s="6"/>
-      <c r="AG77" s="6"/>
-      <c r="AH77" s="6"/>
-      <c r="AI77" s="6"/>
-      <c r="AJ77" s="6"/>
-      <c r="AK77" s="6"/>
-      <c r="AL77" s="6"/>
-      <c r="AM77" s="6"/>
-      <c r="AN77" s="6"/>
-      <c r="AO77" s="6"/>
-      <c r="AP77" s="6"/>
-      <c r="AQ77" s="6"/>
-      <c r="AR77" s="6"/>
-      <c r="AS77" s="6"/>
-      <c r="AT77" s="6"/>
-      <c r="AU77" s="6"/>
-      <c r="AV77" s="6"/>
-      <c r="AW77" s="6"/>
-      <c r="AX77" s="6"/>
-      <c r="AY77" s="6"/>
-      <c r="AZ77" s="6"/>
-      <c r="BA77" s="6"/>
-      <c r="BB77" s="6"/>
-      <c r="BC77" s="6"/>
-      <c r="BD77" s="6"/>
-      <c r="BE77" s="6"/>
-      <c r="BF77" s="6"/>
-      <c r="BG77" s="6"/>
-      <c r="BH77" s="6"/>
-      <c r="BI77" s="6"/>
-      <c r="BJ77" s="6"/>
-      <c r="BK77" s="6"/>
-    </row>
-    <row r="78" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
-      <c r="AA78" s="6"/>
-      <c r="AB78" s="6"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
-      <c r="AE78" s="6"/>
-      <c r="AF78" s="6"/>
-      <c r="AG78" s="6"/>
-      <c r="AH78" s="6"/>
-      <c r="AI78" s="6"/>
-      <c r="AJ78" s="6"/>
-      <c r="AK78" s="6"/>
-      <c r="AL78" s="6"/>
-      <c r="AM78" s="6"/>
-      <c r="AN78" s="6"/>
-      <c r="AO78" s="6"/>
-      <c r="AP78" s="6"/>
-      <c r="AQ78" s="6"/>
-      <c r="AR78" s="6"/>
-      <c r="AS78" s="6"/>
-      <c r="AT78" s="6"/>
-      <c r="AU78" s="6"/>
-      <c r="AV78" s="6"/>
-      <c r="AW78" s="6"/>
-      <c r="AX78" s="6"/>
-      <c r="AY78" s="6"/>
-      <c r="AZ78" s="6"/>
-      <c r="BA78" s="6"/>
-      <c r="BB78" s="6"/>
-      <c r="BC78" s="6"/>
-      <c r="BD78" s="6"/>
-      <c r="BE78" s="6"/>
-      <c r="BF78" s="6"/>
-      <c r="BG78" s="6"/>
-      <c r="BH78" s="6"/>
-      <c r="BI78" s="6"/>
-      <c r="BJ78" s="6"/>
-      <c r="BK78" s="6"/>
-    </row>
-    <row r="81" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="F81" t="s">
-        <v>127</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="S83" t="s">
         <v>125</v>
-      </c>
-      <c r="S81" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C77:BK78"/>
-    <mergeCell ref="C52:BK53"/>
+    <mergeCell ref="C79:BK80"/>
+    <mergeCell ref="C54:BK55"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="C7:BK8"/>
     <mergeCell ref="A4:E4"/>

--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0.仕様書概要" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
   <si>
     <t>1.2チームメンバー</t>
     <phoneticPr fontId="2"/>
@@ -1020,6 +1020,24 @@
     <rPh sb="4" eb="6">
       <t>キホン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHubにて記録しているので、そちらを参照してください</t>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URL:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://github.com/crazymarks/SamuraiSushiPlan.git</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1254,12 +1272,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1268,12 +1292,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,6 +1314,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - アクセント 6" xfId="3" builtinId="52"/>
@@ -1827,8 +1846,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8250555" y="3958100"/>
-          <a:ext cx="2503170" cy="2028972"/>
+          <a:off x="8315325" y="4120025"/>
+          <a:ext cx="2524125" cy="2114697"/>
           <a:chOff x="8315325" y="4120025"/>
           <a:chExt cx="2524125" cy="2114697"/>
         </a:xfrm>
@@ -2003,8 +2022,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11548110" y="3948575"/>
-          <a:ext cx="2503170" cy="2028972"/>
+          <a:off x="11639550" y="4110500"/>
+          <a:ext cx="2524125" cy="2114697"/>
           <a:chOff x="8315325" y="4120025"/>
           <a:chExt cx="2524125" cy="2114697"/>
         </a:xfrm>
@@ -4594,21 +4613,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E6" s="8" t="s">
         <v>9</v>
@@ -4652,314 +4671,314 @@
       <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
     </row>
     <row r="19" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
     </row>
     <row r="21" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
@@ -4967,248 +4986,248 @@
       </c>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
     </row>
     <row r="24" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
     </row>
     <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
     </row>
     <row r="31" spans="3:63" x14ac:dyDescent="0.4">
       <c r="H31" t="s">
@@ -5216,884 +5235,889 @@
       </c>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
     </row>
     <row r="38" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
-      <c r="AQ38" s="3"/>
-      <c r="AR38" s="3"/>
-      <c r="AS38" s="3"/>
-      <c r="AT38" s="3"/>
-      <c r="AU38" s="3"/>
-      <c r="AV38" s="3"/>
-      <c r="AW38" s="3"/>
-      <c r="AX38" s="3"/>
-      <c r="AY38" s="3"/>
-      <c r="AZ38" s="3"/>
-      <c r="BA38" s="3"/>
-      <c r="BB38" s="3"/>
-      <c r="BC38" s="3"/>
-      <c r="BD38" s="3"/>
-      <c r="BE38" s="3"/>
-      <c r="BF38" s="3"/>
-      <c r="BG38" s="3"/>
-      <c r="BH38" s="3"/>
-      <c r="BI38" s="3"/>
-      <c r="BJ38" s="3"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
     </row>
     <row r="39" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
-      <c r="AU39" s="3"/>
-      <c r="AV39" s="3"/>
-      <c r="AW39" s="3"/>
-      <c r="AX39" s="3"/>
-      <c r="AY39" s="3"/>
-      <c r="AZ39" s="3"/>
-      <c r="BA39" s="3"/>
-      <c r="BB39" s="3"/>
-      <c r="BC39" s="3"/>
-      <c r="BD39" s="3"/>
-      <c r="BE39" s="3"/>
-      <c r="BF39" s="3"/>
-      <c r="BG39" s="3"/>
-      <c r="BH39" s="3"/>
-      <c r="BI39" s="3"/>
-      <c r="BJ39" s="3"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
     </row>
     <row r="43" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="3"/>
-      <c r="AR43" s="3"/>
-      <c r="AS43" s="3"/>
-      <c r="AT43" s="3"/>
-      <c r="AU43" s="3"/>
-      <c r="AV43" s="3"/>
-      <c r="AW43" s="3"/>
-      <c r="AX43" s="3"/>
-      <c r="AY43" s="3"/>
-      <c r="AZ43" s="3"/>
-      <c r="BA43" s="3"/>
-      <c r="BB43" s="3"/>
-      <c r="BC43" s="3"/>
-      <c r="BD43" s="3"/>
-      <c r="BE43" s="3"/>
-      <c r="BF43" s="3"/>
-      <c r="BG43" s="3"/>
-      <c r="BH43" s="3"/>
-      <c r="BI43" s="3"/>
-      <c r="BJ43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
     </row>
     <row r="44" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="3"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="3"/>
-      <c r="AS44" s="3"/>
-      <c r="AT44" s="3"/>
-      <c r="AU44" s="3"/>
-      <c r="AV44" s="3"/>
-      <c r="AW44" s="3"/>
-      <c r="AX44" s="3"/>
-      <c r="AY44" s="3"/>
-      <c r="AZ44" s="3"/>
-      <c r="BA44" s="3"/>
-      <c r="BB44" s="3"/>
-      <c r="BC44" s="3"/>
-      <c r="BD44" s="3"/>
-      <c r="BE44" s="3"/>
-      <c r="BF44" s="3"/>
-      <c r="BG44" s="3"/>
-      <c r="BH44" s="3"/>
-      <c r="BI44" s="3"/>
-      <c r="BJ44" s="3"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
     </row>
     <row r="48" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
-      <c r="AW48" s="3"/>
-      <c r="AX48" s="3"/>
-      <c r="AY48" s="3"/>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="3"/>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="3"/>
-      <c r="BD48" s="3"/>
-      <c r="BE48" s="3"/>
-      <c r="BF48" s="3"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="3"/>
-      <c r="BI48" s="3"/>
-      <c r="BJ48" s="3"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
     </row>
     <row r="49" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="3"/>
-      <c r="AQ49" s="3"/>
-      <c r="AR49" s="3"/>
-      <c r="AS49" s="3"/>
-      <c r="AT49" s="3"/>
-      <c r="AU49" s="3"/>
-      <c r="AV49" s="3"/>
-      <c r="AW49" s="3"/>
-      <c r="AX49" s="3"/>
-      <c r="AY49" s="3"/>
-      <c r="AZ49" s="3"/>
-      <c r="BA49" s="3"/>
-      <c r="BB49" s="3"/>
-      <c r="BC49" s="3"/>
-      <c r="BD49" s="3"/>
-      <c r="BE49" s="3"/>
-      <c r="BF49" s="3"/>
-      <c r="BG49" s="3"/>
-      <c r="BH49" s="3"/>
-      <c r="BI49" s="3"/>
-      <c r="BJ49" s="3"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
     </row>
     <row r="53" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
-      <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
-      <c r="AN53" s="3"/>
-      <c r="AO53" s="3"/>
-      <c r="AP53" s="3"/>
-      <c r="AQ53" s="3"/>
-      <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="3"/>
-      <c r="AU53" s="3"/>
-      <c r="AV53" s="3"/>
-      <c r="AW53" s="3"/>
-      <c r="AX53" s="3"/>
-      <c r="AY53" s="3"/>
-      <c r="AZ53" s="3"/>
-      <c r="BA53" s="3"/>
-      <c r="BB53" s="3"/>
-      <c r="BC53" s="3"/>
-      <c r="BD53" s="3"/>
-      <c r="BE53" s="3"/>
-      <c r="BF53" s="3"/>
-      <c r="BG53" s="3"/>
-      <c r="BH53" s="3"/>
-      <c r="BI53" s="3"/>
-      <c r="BJ53" s="3"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
     </row>
     <row r="54" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
-      <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="3"/>
-      <c r="AP54" s="3"/>
-      <c r="AQ54" s="3"/>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
-      <c r="AU54" s="3"/>
-      <c r="AV54" s="3"/>
-      <c r="AW54" s="3"/>
-      <c r="AX54" s="3"/>
-      <c r="AY54" s="3"/>
-      <c r="AZ54" s="3"/>
-      <c r="BA54" s="3"/>
-      <c r="BB54" s="3"/>
-      <c r="BC54" s="3"/>
-      <c r="BD54" s="3"/>
-      <c r="BE54" s="3"/>
-      <c r="BF54" s="3"/>
-      <c r="BG54" s="3"/>
-      <c r="BH54" s="3"/>
-      <c r="BI54" s="3"/>
-      <c r="BJ54" s="3"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-      <c r="AG58" s="4"/>
-      <c r="AH58" s="4"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="4"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="4"/>
-      <c r="AO58" s="4"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="4"/>
-      <c r="AR58" s="4"/>
-      <c r="AS58" s="4"/>
-      <c r="AT58" s="4"/>
-      <c r="AU58" s="4"/>
-      <c r="AV58" s="4"/>
-      <c r="AW58" s="4"/>
-      <c r="AX58" s="4"/>
-      <c r="AY58" s="4"/>
-      <c r="AZ58" s="4"/>
-      <c r="BA58" s="4"/>
-      <c r="BB58" s="4"/>
-      <c r="BC58" s="4"/>
-      <c r="BD58" s="4"/>
-      <c r="BE58" s="4"/>
-      <c r="BF58" s="4"/>
-      <c r="BG58" s="4"/>
-      <c r="BH58" s="4"/>
-      <c r="BI58" s="4"/>
-      <c r="BJ58" s="4"/>
-      <c r="BK58" s="4"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="6"/>
+      <c r="AQ58" s="6"/>
+      <c r="AR58" s="6"/>
+      <c r="AS58" s="6"/>
+      <c r="AT58" s="6"/>
+      <c r="AU58" s="6"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="6"/>
+      <c r="AX58" s="6"/>
+      <c r="AY58" s="6"/>
+      <c r="AZ58" s="6"/>
+      <c r="BA58" s="6"/>
+      <c r="BB58" s="6"/>
+      <c r="BC58" s="6"/>
+      <c r="BD58" s="6"/>
+      <c r="BE58" s="6"/>
+      <c r="BF58" s="6"/>
+      <c r="BG58" s="6"/>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="6"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="6"/>
     </row>
     <row r="59" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
-      <c r="AS59" s="4"/>
-      <c r="AT59" s="4"/>
-      <c r="AU59" s="4"/>
-      <c r="AV59" s="4"/>
-      <c r="AW59" s="4"/>
-      <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
-      <c r="AZ59" s="4"/>
-      <c r="BA59" s="4"/>
-      <c r="BB59" s="4"/>
-      <c r="BC59" s="4"/>
-      <c r="BD59" s="4"/>
-      <c r="BE59" s="4"/>
-      <c r="BF59" s="4"/>
-      <c r="BG59" s="4"/>
-      <c r="BH59" s="4"/>
-      <c r="BI59" s="4"/>
-      <c r="BJ59" s="4"/>
-      <c r="BK59" s="4"/>
-    </row>
-    <row r="63" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C63" s="4" t="s">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="6"/>
+      <c r="AO59" s="6"/>
+      <c r="AP59" s="6"/>
+      <c r="AQ59" s="6"/>
+      <c r="AR59" s="6"/>
+      <c r="AS59" s="6"/>
+      <c r="AT59" s="6"/>
+      <c r="AU59" s="6"/>
+      <c r="AV59" s="6"/>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="6"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="6"/>
+      <c r="BA59" s="6"/>
+      <c r="BB59" s="6"/>
+      <c r="BC59" s="6"/>
+      <c r="BD59" s="6"/>
+      <c r="BE59" s="6"/>
+      <c r="BF59" s="6"/>
+      <c r="BG59" s="6"/>
+      <c r="BH59" s="6"/>
+      <c r="BI59" s="6"/>
+      <c r="BJ59" s="6"/>
+      <c r="BK59" s="6"/>
+    </row>
+    <row r="61" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="4"/>
-      <c r="AH63" s="4"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="4"/>
-      <c r="AO63" s="4"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
-      <c r="AS63" s="4"/>
-      <c r="AT63" s="4"/>
-      <c r="AU63" s="4"/>
-      <c r="AV63" s="4"/>
-      <c r="AW63" s="4"/>
-      <c r="AX63" s="4"/>
-      <c r="AY63" s="4"/>
-      <c r="AZ63" s="4"/>
-      <c r="BA63" s="4"/>
-      <c r="BB63" s="4"/>
-      <c r="BC63" s="4"/>
-      <c r="BD63" s="4"/>
-      <c r="BE63" s="4"/>
-      <c r="BF63" s="4"/>
-      <c r="BG63" s="4"/>
-      <c r="BH63" s="4"/>
-      <c r="BI63" s="4"/>
-      <c r="BJ63" s="4"/>
-      <c r="BK63" s="4"/>
-    </row>
-    <row r="64" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-      <c r="AG64" s="4"/>
-      <c r="AH64" s="4"/>
-      <c r="AI64" s="4"/>
-      <c r="AJ64" s="4"/>
-      <c r="AK64" s="4"/>
-      <c r="AL64" s="4"/>
-      <c r="AM64" s="4"/>
-      <c r="AN64" s="4"/>
-      <c r="AO64" s="4"/>
-      <c r="AP64" s="4"/>
-      <c r="AQ64" s="4"/>
-      <c r="AR64" s="4"/>
-      <c r="AS64" s="4"/>
-      <c r="AT64" s="4"/>
-      <c r="AU64" s="4"/>
-      <c r="AV64" s="4"/>
-      <c r="AW64" s="4"/>
-      <c r="AX64" s="4"/>
-      <c r="AY64" s="4"/>
-      <c r="AZ64" s="4"/>
-      <c r="BA64" s="4"/>
-      <c r="BB64" s="4"/>
-      <c r="BC64" s="4"/>
-      <c r="BD64" s="4"/>
-      <c r="BE64" s="4"/>
-      <c r="BF64" s="4"/>
-      <c r="BG64" s="4"/>
-      <c r="BH64" s="4"/>
-      <c r="BI64" s="4"/>
-      <c r="BJ64" s="4"/>
-      <c r="BK64" s="4"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+      <c r="AN65" s="6"/>
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="6"/>
+      <c r="AQ65" s="6"/>
+      <c r="AR65" s="6"/>
+      <c r="AS65" s="6"/>
+      <c r="AT65" s="6"/>
+      <c r="AU65" s="6"/>
+      <c r="AV65" s="6"/>
+      <c r="AW65" s="6"/>
+      <c r="AX65" s="6"/>
+      <c r="AY65" s="6"/>
+      <c r="AZ65" s="6"/>
+      <c r="BA65" s="6"/>
+      <c r="BB65" s="6"/>
+      <c r="BC65" s="6"/>
+      <c r="BD65" s="6"/>
+      <c r="BE65" s="6"/>
+      <c r="BF65" s="6"/>
+      <c r="BG65" s="6"/>
+      <c r="BH65" s="6"/>
+      <c r="BI65" s="6"/>
+      <c r="BJ65" s="6"/>
+      <c r="BK65" s="6"/>
+    </row>
+    <row r="66" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6"/>
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="6"/>
+      <c r="AQ66" s="6"/>
+      <c r="AR66" s="6"/>
+      <c r="AS66" s="6"/>
+      <c r="AT66" s="6"/>
+      <c r="AU66" s="6"/>
+      <c r="AV66" s="6"/>
+      <c r="AW66" s="6"/>
+      <c r="AX66" s="6"/>
+      <c r="AY66" s="6"/>
+      <c r="AZ66" s="6"/>
+      <c r="BA66" s="6"/>
+      <c r="BB66" s="6"/>
+      <c r="BC66" s="6"/>
+      <c r="BD66" s="6"/>
+      <c r="BE66" s="6"/>
+      <c r="BF66" s="6"/>
+      <c r="BG66" s="6"/>
+      <c r="BH66" s="6"/>
+      <c r="BI66" s="6"/>
+      <c r="BJ66" s="6"/>
+      <c r="BK66" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
     <mergeCell ref="E48:BJ49"/>
     <mergeCell ref="E53:BJ54"/>
-    <mergeCell ref="C63:BK64"/>
+    <mergeCell ref="C65:BK66"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="C18:BK19"/>
     <mergeCell ref="C58:BK59"/>
@@ -6107,6 +6131,14 @@
     <mergeCell ref="E12:J13"/>
     <mergeCell ref="E14:J15"/>
     <mergeCell ref="E6:V7"/>
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -6121,9 +6153,10 @@
     <hyperlink ref="Q12:V13" location="'10.画面仕様'!A1" display="10.画面仕様"/>
     <hyperlink ref="Q10:V11" location="'9.フロチャート'!A1" display="9.フロチャート"/>
     <hyperlink ref="Q8:V9" location="'8.命名規則'!A1" display="8.命名規則"/>
+    <hyperlink ref="H62" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6137,13 +6170,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6176,13 +6209,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -6193,382 +6226,382 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="35" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-      <c r="BF35" s="4"/>
-      <c r="BG35" s="4"/>
-      <c r="BH35" s="4"/>
-      <c r="BI35" s="4"/>
-      <c r="BJ35" s="4"/>
-      <c r="BK35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="6"/>
+      <c r="BF35" s="6"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6"/>
+      <c r="BK35" s="6"/>
     </row>
     <row r="36" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="4"/>
-      <c r="BF36" s="4"/>
-      <c r="BG36" s="4"/>
-      <c r="BH36" s="4"/>
-      <c r="BI36" s="4"/>
-      <c r="BJ36" s="4"/>
-      <c r="BK36" s="4"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
     </row>
     <row r="40" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-      <c r="AW40" s="3"/>
-      <c r="AX40" s="3"/>
-      <c r="AY40" s="3"/>
-      <c r="AZ40" s="3"/>
-      <c r="BA40" s="3"/>
-      <c r="BB40" s="3"/>
-      <c r="BC40" s="3"/>
-      <c r="BD40" s="3"/>
-      <c r="BE40" s="3"/>
-      <c r="BF40" s="3"/>
-      <c r="BG40" s="3"/>
-      <c r="BH40" s="3"/>
-      <c r="BI40" s="3"/>
-      <c r="BJ40" s="3"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
     </row>
     <row r="41" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
-      <c r="BH41" s="3"/>
-      <c r="BI41" s="3"/>
-      <c r="BJ41" s="3"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
@@ -6579,248 +6612,248 @@
       </c>
     </row>
     <row r="82" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-      <c r="AF82" s="3"/>
-      <c r="AG82" s="3"/>
-      <c r="AH82" s="3"/>
-      <c r="AI82" s="3"/>
-      <c r="AJ82" s="3"/>
-      <c r="AK82" s="3"/>
-      <c r="AL82" s="3"/>
-      <c r="AM82" s="3"/>
-      <c r="AN82" s="3"/>
-      <c r="AO82" s="3"/>
-      <c r="AP82" s="3"/>
-      <c r="AQ82" s="3"/>
-      <c r="AR82" s="3"/>
-      <c r="AS82" s="3"/>
-      <c r="AT82" s="3"/>
-      <c r="AU82" s="3"/>
-      <c r="AV82" s="3"/>
-      <c r="AW82" s="3"/>
-      <c r="AX82" s="3"/>
-      <c r="AY82" s="3"/>
-      <c r="AZ82" s="3"/>
-      <c r="BA82" s="3"/>
-      <c r="BB82" s="3"/>
-      <c r="BC82" s="3"/>
-      <c r="BD82" s="3"/>
-      <c r="BE82" s="3"/>
-      <c r="BF82" s="3"/>
-      <c r="BG82" s="3"/>
-      <c r="BH82" s="3"/>
-      <c r="BI82" s="3"/>
-      <c r="BJ82" s="3"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+      <c r="W82" s="5"/>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5"/>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
+      <c r="AS82" s="5"/>
+      <c r="AT82" s="5"/>
+      <c r="AU82" s="5"/>
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="5"/>
+      <c r="AX82" s="5"/>
+      <c r="AY82" s="5"/>
+      <c r="AZ82" s="5"/>
+      <c r="BA82" s="5"/>
+      <c r="BB82" s="5"/>
+      <c r="BC82" s="5"/>
+      <c r="BD82" s="5"/>
+      <c r="BE82" s="5"/>
+      <c r="BF82" s="5"/>
+      <c r="BG82" s="5"/>
+      <c r="BH82" s="5"/>
+      <c r="BI82" s="5"/>
+      <c r="BJ82" s="5"/>
     </row>
     <row r="83" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
-      <c r="AG83" s="3"/>
-      <c r="AH83" s="3"/>
-      <c r="AI83" s="3"/>
-      <c r="AJ83" s="3"/>
-      <c r="AK83" s="3"/>
-      <c r="AL83" s="3"/>
-      <c r="AM83" s="3"/>
-      <c r="AN83" s="3"/>
-      <c r="AO83" s="3"/>
-      <c r="AP83" s="3"/>
-      <c r="AQ83" s="3"/>
-      <c r="AR83" s="3"/>
-      <c r="AS83" s="3"/>
-      <c r="AT83" s="3"/>
-      <c r="AU83" s="3"/>
-      <c r="AV83" s="3"/>
-      <c r="AW83" s="3"/>
-      <c r="AX83" s="3"/>
-      <c r="AY83" s="3"/>
-      <c r="AZ83" s="3"/>
-      <c r="BA83" s="3"/>
-      <c r="BB83" s="3"/>
-      <c r="BC83" s="3"/>
-      <c r="BD83" s="3"/>
-      <c r="BE83" s="3"/>
-      <c r="BF83" s="3"/>
-      <c r="BG83" s="3"/>
-      <c r="BH83" s="3"/>
-      <c r="BI83" s="3"/>
-      <c r="BJ83" s="3"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+      <c r="W83" s="5"/>
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+      <c r="AG83" s="5"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+      <c r="AK83" s="5"/>
+      <c r="AL83" s="5"/>
+      <c r="AM83" s="5"/>
+      <c r="AN83" s="5"/>
+      <c r="AO83" s="5"/>
+      <c r="AP83" s="5"/>
+      <c r="AQ83" s="5"/>
+      <c r="AR83" s="5"/>
+      <c r="AS83" s="5"/>
+      <c r="AT83" s="5"/>
+      <c r="AU83" s="5"/>
+      <c r="AV83" s="5"/>
+      <c r="AW83" s="5"/>
+      <c r="AX83" s="5"/>
+      <c r="AY83" s="5"/>
+      <c r="AZ83" s="5"/>
+      <c r="BA83" s="5"/>
+      <c r="BB83" s="5"/>
+      <c r="BC83" s="5"/>
+      <c r="BD83" s="5"/>
+      <c r="BE83" s="5"/>
+      <c r="BF83" s="5"/>
+      <c r="BG83" s="5"/>
+      <c r="BH83" s="5"/>
+      <c r="BI83" s="5"/>
+      <c r="BJ83" s="5"/>
     </row>
     <row r="113" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="3"/>
-      <c r="T113" s="3"/>
-      <c r="U113" s="3"/>
-      <c r="V113" s="3"/>
-      <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-      <c r="AF113" s="3"/>
-      <c r="AG113" s="3"/>
-      <c r="AH113" s="3"/>
-      <c r="AI113" s="3"/>
-      <c r="AJ113" s="3"/>
-      <c r="AK113" s="3"/>
-      <c r="AL113" s="3"/>
-      <c r="AM113" s="3"/>
-      <c r="AN113" s="3"/>
-      <c r="AO113" s="3"/>
-      <c r="AP113" s="3"/>
-      <c r="AQ113" s="3"/>
-      <c r="AR113" s="3"/>
-      <c r="AS113" s="3"/>
-      <c r="AT113" s="3"/>
-      <c r="AU113" s="3"/>
-      <c r="AV113" s="3"/>
-      <c r="AW113" s="3"/>
-      <c r="AX113" s="3"/>
-      <c r="AY113" s="3"/>
-      <c r="AZ113" s="3"/>
-      <c r="BA113" s="3"/>
-      <c r="BB113" s="3"/>
-      <c r="BC113" s="3"/>
-      <c r="BD113" s="3"/>
-      <c r="BE113" s="3"/>
-      <c r="BF113" s="3"/>
-      <c r="BG113" s="3"/>
-      <c r="BH113" s="3"/>
-      <c r="BI113" s="3"/>
-      <c r="BJ113" s="3"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+      <c r="AG113" s="5"/>
+      <c r="AH113" s="5"/>
+      <c r="AI113" s="5"/>
+      <c r="AJ113" s="5"/>
+      <c r="AK113" s="5"/>
+      <c r="AL113" s="5"/>
+      <c r="AM113" s="5"/>
+      <c r="AN113" s="5"/>
+      <c r="AO113" s="5"/>
+      <c r="AP113" s="5"/>
+      <c r="AQ113" s="5"/>
+      <c r="AR113" s="5"/>
+      <c r="AS113" s="5"/>
+      <c r="AT113" s="5"/>
+      <c r="AU113" s="5"/>
+      <c r="AV113" s="5"/>
+      <c r="AW113" s="5"/>
+      <c r="AX113" s="5"/>
+      <c r="AY113" s="5"/>
+      <c r="AZ113" s="5"/>
+      <c r="BA113" s="5"/>
+      <c r="BB113" s="5"/>
+      <c r="BC113" s="5"/>
+      <c r="BD113" s="5"/>
+      <c r="BE113" s="5"/>
+      <c r="BF113" s="5"/>
+      <c r="BG113" s="5"/>
+      <c r="BH113" s="5"/>
+      <c r="BI113" s="5"/>
+      <c r="BJ113" s="5"/>
     </row>
     <row r="114" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
-      <c r="T114" s="3"/>
-      <c r="U114" s="3"/>
-      <c r="V114" s="3"/>
-      <c r="W114" s="3"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-      <c r="AF114" s="3"/>
-      <c r="AG114" s="3"/>
-      <c r="AH114" s="3"/>
-      <c r="AI114" s="3"/>
-      <c r="AJ114" s="3"/>
-      <c r="AK114" s="3"/>
-      <c r="AL114" s="3"/>
-      <c r="AM114" s="3"/>
-      <c r="AN114" s="3"/>
-      <c r="AO114" s="3"/>
-      <c r="AP114" s="3"/>
-      <c r="AQ114" s="3"/>
-      <c r="AR114" s="3"/>
-      <c r="AS114" s="3"/>
-      <c r="AT114" s="3"/>
-      <c r="AU114" s="3"/>
-      <c r="AV114" s="3"/>
-      <c r="AW114" s="3"/>
-      <c r="AX114" s="3"/>
-      <c r="AY114" s="3"/>
-      <c r="AZ114" s="3"/>
-      <c r="BA114" s="3"/>
-      <c r="BB114" s="3"/>
-      <c r="BC114" s="3"/>
-      <c r="BD114" s="3"/>
-      <c r="BE114" s="3"/>
-      <c r="BF114" s="3"/>
-      <c r="BG114" s="3"/>
-      <c r="BH114" s="3"/>
-      <c r="BI114" s="3"/>
-      <c r="BJ114" s="3"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+      <c r="AG114" s="5"/>
+      <c r="AH114" s="5"/>
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+      <c r="AK114" s="5"/>
+      <c r="AL114" s="5"/>
+      <c r="AM114" s="5"/>
+      <c r="AN114" s="5"/>
+      <c r="AO114" s="5"/>
+      <c r="AP114" s="5"/>
+      <c r="AQ114" s="5"/>
+      <c r="AR114" s="5"/>
+      <c r="AS114" s="5"/>
+      <c r="AT114" s="5"/>
+      <c r="AU114" s="5"/>
+      <c r="AV114" s="5"/>
+      <c r="AW114" s="5"/>
+      <c r="AX114" s="5"/>
+      <c r="AY114" s="5"/>
+      <c r="AZ114" s="5"/>
+      <c r="BA114" s="5"/>
+      <c r="BB114" s="5"/>
+      <c r="BC114" s="5"/>
+      <c r="BD114" s="5"/>
+      <c r="BE114" s="5"/>
+      <c r="BF114" s="5"/>
+      <c r="BG114" s="5"/>
+      <c r="BH114" s="5"/>
+      <c r="BI114" s="5"/>
+      <c r="BJ114" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7100,19 +7133,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7123,516 +7156,516 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
     </row>
     <row r="17" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
     </row>
     <row r="22" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6"/>
+      <c r="BK22" s="6"/>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="6"/>
+      <c r="BF23" s="6"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="6"/>
+      <c r="BJ23" s="6"/>
+      <c r="BK23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7661,13 +7694,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7700,13 +7733,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -7717,132 +7750,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -7850,126 +7883,126 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
     </row>
     <row r="17" spans="5:62" x14ac:dyDescent="0.4">
       <c r="H17" t="s">
@@ -7983,248 +8016,248 @@
       </c>
     </row>
     <row r="28" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
-      <c r="BC28" s="3"/>
-      <c r="BD28" s="3"/>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="3"/>
-      <c r="BG28" s="3"/>
-      <c r="BH28" s="3"/>
-      <c r="BI28" s="3"/>
-      <c r="BJ28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
     </row>
     <row r="29" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
     </row>
     <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8256,13 +8289,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8295,13 +8328,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8334,13 +8367,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8373,13 +8406,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8406,19 +8439,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>34</v>
@@ -8429,132 +8462,132 @@
       <c r="E4" s="14"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="4"/>
-      <c r="BH7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="4"/>
-      <c r="BH8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
@@ -8567,132 +8600,132 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4"/>
-      <c r="BK14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
     </row>
     <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
@@ -8872,132 +8905,132 @@
       </c>
     </row>
     <row r="54" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="4"/>
-      <c r="AH54" s="4"/>
-      <c r="AI54" s="4"/>
-      <c r="AJ54" s="4"/>
-      <c r="AK54" s="4"/>
-      <c r="AL54" s="4"/>
-      <c r="AM54" s="4"/>
-      <c r="AN54" s="4"/>
-      <c r="AO54" s="4"/>
-      <c r="AP54" s="4"/>
-      <c r="AQ54" s="4"/>
-      <c r="AR54" s="4"/>
-      <c r="AS54" s="4"/>
-      <c r="AT54" s="4"/>
-      <c r="AU54" s="4"/>
-      <c r="AV54" s="4"/>
-      <c r="AW54" s="4"/>
-      <c r="AX54" s="4"/>
-      <c r="AY54" s="4"/>
-      <c r="AZ54" s="4"/>
-      <c r="BA54" s="4"/>
-      <c r="BB54" s="4"/>
-      <c r="BC54" s="4"/>
-      <c r="BD54" s="4"/>
-      <c r="BE54" s="4"/>
-      <c r="BF54" s="4"/>
-      <c r="BG54" s="4"/>
-      <c r="BH54" s="4"/>
-      <c r="BI54" s="4"/>
-      <c r="BJ54" s="4"/>
-      <c r="BK54" s="4"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6"/>
+      <c r="AN54" s="6"/>
+      <c r="AO54" s="6"/>
+      <c r="AP54" s="6"/>
+      <c r="AQ54" s="6"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="6"/>
+      <c r="AT54" s="6"/>
+      <c r="AU54" s="6"/>
+      <c r="AV54" s="6"/>
+      <c r="AW54" s="6"/>
+      <c r="AX54" s="6"/>
+      <c r="AY54" s="6"/>
+      <c r="AZ54" s="6"/>
+      <c r="BA54" s="6"/>
+      <c r="BB54" s="6"/>
+      <c r="BC54" s="6"/>
+      <c r="BD54" s="6"/>
+      <c r="BE54" s="6"/>
+      <c r="BF54" s="6"/>
+      <c r="BG54" s="6"/>
+      <c r="BH54" s="6"/>
+      <c r="BI54" s="6"/>
+      <c r="BJ54" s="6"/>
+      <c r="BK54" s="6"/>
     </row>
     <row r="55" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="4"/>
-      <c r="AM55" s="4"/>
-      <c r="AN55" s="4"/>
-      <c r="AO55" s="4"/>
-      <c r="AP55" s="4"/>
-      <c r="AQ55" s="4"/>
-      <c r="AR55" s="4"/>
-      <c r="AS55" s="4"/>
-      <c r="AT55" s="4"/>
-      <c r="AU55" s="4"/>
-      <c r="AV55" s="4"/>
-      <c r="AW55" s="4"/>
-      <c r="AX55" s="4"/>
-      <c r="AY55" s="4"/>
-      <c r="AZ55" s="4"/>
-      <c r="BA55" s="4"/>
-      <c r="BB55" s="4"/>
-      <c r="BC55" s="4"/>
-      <c r="BD55" s="4"/>
-      <c r="BE55" s="4"/>
-      <c r="BF55" s="4"/>
-      <c r="BG55" s="4"/>
-      <c r="BH55" s="4"/>
-      <c r="BI55" s="4"/>
-      <c r="BJ55" s="4"/>
-      <c r="BK55" s="4"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="6"/>
+      <c r="AQ55" s="6"/>
+      <c r="AR55" s="6"/>
+      <c r="AS55" s="6"/>
+      <c r="AT55" s="6"/>
+      <c r="AU55" s="6"/>
+      <c r="AV55" s="6"/>
+      <c r="AW55" s="6"/>
+      <c r="AX55" s="6"/>
+      <c r="AY55" s="6"/>
+      <c r="AZ55" s="6"/>
+      <c r="BA55" s="6"/>
+      <c r="BB55" s="6"/>
+      <c r="BC55" s="6"/>
+      <c r="BD55" s="6"/>
+      <c r="BE55" s="6"/>
+      <c r="BF55" s="6"/>
+      <c r="BG55" s="6"/>
+      <c r="BH55" s="6"/>
+      <c r="BI55" s="6"/>
+      <c r="BJ55" s="6"/>
+      <c r="BK55" s="6"/>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F58" t="s">
@@ -9035,132 +9068,132 @@
       </c>
     </row>
     <row r="79" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-      <c r="AG79" s="4"/>
-      <c r="AH79" s="4"/>
-      <c r="AI79" s="4"/>
-      <c r="AJ79" s="4"/>
-      <c r="AK79" s="4"/>
-      <c r="AL79" s="4"/>
-      <c r="AM79" s="4"/>
-      <c r="AN79" s="4"/>
-      <c r="AO79" s="4"/>
-      <c r="AP79" s="4"/>
-      <c r="AQ79" s="4"/>
-      <c r="AR79" s="4"/>
-      <c r="AS79" s="4"/>
-      <c r="AT79" s="4"/>
-      <c r="AU79" s="4"/>
-      <c r="AV79" s="4"/>
-      <c r="AW79" s="4"/>
-      <c r="AX79" s="4"/>
-      <c r="AY79" s="4"/>
-      <c r="AZ79" s="4"/>
-      <c r="BA79" s="4"/>
-      <c r="BB79" s="4"/>
-      <c r="BC79" s="4"/>
-      <c r="BD79" s="4"/>
-      <c r="BE79" s="4"/>
-      <c r="BF79" s="4"/>
-      <c r="BG79" s="4"/>
-      <c r="BH79" s="4"/>
-      <c r="BI79" s="4"/>
-      <c r="BJ79" s="4"/>
-      <c r="BK79" s="4"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="6"/>
+      <c r="AR79" s="6"/>
+      <c r="AS79" s="6"/>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="6"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="6"/>
+      <c r="AY79" s="6"/>
+      <c r="AZ79" s="6"/>
+      <c r="BA79" s="6"/>
+      <c r="BB79" s="6"/>
+      <c r="BC79" s="6"/>
+      <c r="BD79" s="6"/>
+      <c r="BE79" s="6"/>
+      <c r="BF79" s="6"/>
+      <c r="BG79" s="6"/>
+      <c r="BH79" s="6"/>
+      <c r="BI79" s="6"/>
+      <c r="BJ79" s="6"/>
+      <c r="BK79" s="6"/>
     </row>
     <row r="80" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-      <c r="AG80" s="4"/>
-      <c r="AH80" s="4"/>
-      <c r="AI80" s="4"/>
-      <c r="AJ80" s="4"/>
-      <c r="AK80" s="4"/>
-      <c r="AL80" s="4"/>
-      <c r="AM80" s="4"/>
-      <c r="AN80" s="4"/>
-      <c r="AO80" s="4"/>
-      <c r="AP80" s="4"/>
-      <c r="AQ80" s="4"/>
-      <c r="AR80" s="4"/>
-      <c r="AS80" s="4"/>
-      <c r="AT80" s="4"/>
-      <c r="AU80" s="4"/>
-      <c r="AV80" s="4"/>
-      <c r="AW80" s="4"/>
-      <c r="AX80" s="4"/>
-      <c r="AY80" s="4"/>
-      <c r="AZ80" s="4"/>
-      <c r="BA80" s="4"/>
-      <c r="BB80" s="4"/>
-      <c r="BC80" s="4"/>
-      <c r="BD80" s="4"/>
-      <c r="BE80" s="4"/>
-      <c r="BF80" s="4"/>
-      <c r="BG80" s="4"/>
-      <c r="BH80" s="4"/>
-      <c r="BI80" s="4"/>
-      <c r="BJ80" s="4"/>
-      <c r="BK80" s="4"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="6"/>
+      <c r="AN80" s="6"/>
+      <c r="AO80" s="6"/>
+      <c r="AP80" s="6"/>
+      <c r="AQ80" s="6"/>
+      <c r="AR80" s="6"/>
+      <c r="AS80" s="6"/>
+      <c r="AT80" s="6"/>
+      <c r="AU80" s="6"/>
+      <c r="AV80" s="6"/>
+      <c r="AW80" s="6"/>
+      <c r="AX80" s="6"/>
+      <c r="AY80" s="6"/>
+      <c r="AZ80" s="6"/>
+      <c r="BA80" s="6"/>
+      <c r="BB80" s="6"/>
+      <c r="BC80" s="6"/>
+      <c r="BD80" s="6"/>
+      <c r="BE80" s="6"/>
+      <c r="BF80" s="6"/>
+      <c r="BG80" s="6"/>
+      <c r="BH80" s="6"/>
+      <c r="BI80" s="6"/>
+      <c r="BJ80" s="6"/>
+      <c r="BK80" s="6"/>
     </row>
     <row r="83" spans="6:19" x14ac:dyDescent="0.4">
       <c r="F83" t="s">

--- a/侍寿司屋_仕様書.xlsx
+++ b/侍寿司屋_仕様書.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="166">
   <si>
     <t>1.2チームメンバー</t>
     <phoneticPr fontId="2"/>
@@ -1038,6 +1038,247 @@
   </si>
   <si>
     <t>https://github.com/crazymarks/SamuraiSushiPlan.git</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイ人数</t>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャッチコピー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用ソフト</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制作体制</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>侍すし屋</t>
+    <rPh sb="0" eb="1">
+      <t>サムライ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２D刀アクション</t>
+    <rPh sb="2" eb="3">
+      <t>カタナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1人</t>
+    <rPh sb="1" eb="2">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>侍とすしの出会いを刀で語る</t>
+    <rPh sb="0" eb="1">
+      <t>サムライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unity5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーム制作</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>専攻</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学年</t>
+    <rPh sb="0" eb="2">
+      <t>ガクネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プランナー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラマー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２Dデザイナー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タン　カ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リャン　ヨンシン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リョウ　シショウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム企画・シナリオ</t>
+    <rPh sb="3" eb="5">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時は江戸、剣術を極めた侍がいた。</t>
+    <rPh sb="0" eb="1">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンジュツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サムライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>されど大名はこの侍の才能を嫉妬し、彼を追放した。</t>
+    <rPh sb="3" eb="5">
+      <t>ダイミョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サムライ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シット</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ツイホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その侍は自分の剣術で何かをやると思って……</t>
+    <rPh sb="2" eb="3">
+      <t>サムライ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンジュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すし屋を開いた。</t>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それはなんと、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刀ですしを作ることだと</t>
+    <rPh sb="0" eb="1">
+      <t>カタナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1137,7 +1378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,8 +1413,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1258,6 +1505,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1272,18 +1639,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1292,6 +1654,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,7 +1682,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - アクセント 6" xfId="3" builtinId="52"/>
@@ -1337,6 +1716,127 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>216675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>94308</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4979175" y="7086600"/>
+          <a:ext cx="1726426" cy="2075508"/>
+          <a:chOff x="4998224" y="7058024"/>
+          <a:chExt cx="2155051" cy="2590801"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5097992" y="7701714"/>
+            <a:ext cx="2055283" cy="1947111"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="18866369">
+            <a:off x="5238750" y="7058024"/>
+            <a:ext cx="914400" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="16614980">
+            <a:off x="4998224" y="7474725"/>
+            <a:ext cx="914400" cy="914400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2285,7 +2785,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4621,364 +5121,364 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
     </row>
     <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
     </row>
     <row r="19" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AK19" s="6"/>
-      <c r="AL19" s="6"/>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="6"/>
-      <c r="BB19" s="6"/>
-      <c r="BC19" s="6"/>
-      <c r="BD19" s="6"/>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="6"/>
-      <c r="BH19" s="6"/>
-      <c r="BI19" s="6"/>
-      <c r="BJ19" s="6"/>
-      <c r="BK19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
     </row>
     <row r="21" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F21" t="s">
@@ -4986,190 +5486,2618 @@
       </c>
     </row>
     <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
     </row>
     <row r="24" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
     </row>
     <row r="28" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+      <c r="BH28" s="4"/>
+      <c r="BI28" s="4"/>
+      <c r="BJ28" s="4"/>
     </row>
     <row r="29" spans="3:63" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
+    </row>
+    <row r="31" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
+    </row>
+    <row r="34" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+    </row>
+    <row r="38" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="4"/>
+      <c r="AO38" s="4"/>
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="4"/>
+      <c r="AT38" s="4"/>
+      <c r="AU38" s="4"/>
+      <c r="AV38" s="4"/>
+      <c r="AW38" s="4"/>
+      <c r="AX38" s="4"/>
+      <c r="AY38" s="4"/>
+      <c r="AZ38" s="4"/>
+      <c r="BA38" s="4"/>
+      <c r="BB38" s="4"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="4"/>
+      <c r="BF38" s="4"/>
+      <c r="BG38" s="4"/>
+      <c r="BH38" s="4"/>
+      <c r="BI38" s="4"/>
+      <c r="BJ38" s="4"/>
+    </row>
+    <row r="39" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="4"/>
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="4"/>
+      <c r="BH39" s="4"/>
+      <c r="BI39" s="4"/>
+      <c r="BJ39" s="4"/>
+    </row>
+    <row r="43" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="4"/>
+      <c r="AO43" s="4"/>
+      <c r="AP43" s="4"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="4"/>
+      <c r="AT43" s="4"/>
+      <c r="AU43" s="4"/>
+      <c r="AV43" s="4"/>
+      <c r="AW43" s="4"/>
+      <c r="AX43" s="4"/>
+      <c r="AY43" s="4"/>
+      <c r="AZ43" s="4"/>
+      <c r="BA43" s="4"/>
+      <c r="BB43" s="4"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
+      <c r="BF43" s="4"/>
+      <c r="BG43" s="4"/>
+      <c r="BH43" s="4"/>
+      <c r="BI43" s="4"/>
+      <c r="BJ43" s="4"/>
+    </row>
+    <row r="44" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+      <c r="AW44" s="4"/>
+      <c r="AX44" s="4"/>
+      <c r="AY44" s="4"/>
+      <c r="AZ44" s="4"/>
+      <c r="BA44" s="4"/>
+      <c r="BB44" s="4"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
+      <c r="BF44" s="4"/>
+      <c r="BG44" s="4"/>
+      <c r="BH44" s="4"/>
+      <c r="BI44" s="4"/>
+      <c r="BJ44" s="4"/>
+    </row>
+    <row r="48" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="4"/>
+      <c r="AK48" s="4"/>
+      <c r="AL48" s="4"/>
+      <c r="AM48" s="4"/>
+      <c r="AN48" s="4"/>
+      <c r="AO48" s="4"/>
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="4"/>
+      <c r="AT48" s="4"/>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AY48" s="4"/>
+      <c r="AZ48" s="4"/>
+      <c r="BA48" s="4"/>
+      <c r="BB48" s="4"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="4"/>
+      <c r="BG48" s="4"/>
+      <c r="BH48" s="4"/>
+      <c r="BI48" s="4"/>
+      <c r="BJ48" s="4"/>
+    </row>
+    <row r="49" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
+      <c r="AJ49" s="4"/>
+      <c r="AK49" s="4"/>
+      <c r="AL49" s="4"/>
+      <c r="AM49" s="4"/>
+      <c r="AN49" s="4"/>
+      <c r="AO49" s="4"/>
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="4"/>
+      <c r="AT49" s="4"/>
+      <c r="AU49" s="4"/>
+      <c r="AV49" s="4"/>
+      <c r="AW49" s="4"/>
+      <c r="AX49" s="4"/>
+      <c r="AY49" s="4"/>
+      <c r="AZ49" s="4"/>
+      <c r="BA49" s="4"/>
+      <c r="BB49" s="4"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="4"/>
+      <c r="BG49" s="4"/>
+      <c r="BH49" s="4"/>
+      <c r="BI49" s="4"/>
+      <c r="BJ49" s="4"/>
+    </row>
+    <row r="53" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="4"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="4"/>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
+      <c r="BF53" s="4"/>
+      <c r="BG53" s="4"/>
+      <c r="BH53" s="4"/>
+      <c r="BI53" s="4"/>
+      <c r="BJ53" s="4"/>
+    </row>
+    <row r="54" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="4"/>
+      <c r="AY54" s="4"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+      <c r="BB54" s="4"/>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+      <c r="BG54" s="4"/>
+      <c r="BH54" s="4"/>
+      <c r="BI54" s="4"/>
+      <c r="BJ54" s="4"/>
+    </row>
+    <row r="58" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
+      <c r="AS58" s="5"/>
+      <c r="AT58" s="5"/>
+      <c r="AU58" s="5"/>
+      <c r="AV58" s="5"/>
+      <c r="AW58" s="5"/>
+      <c r="AX58" s="5"/>
+      <c r="AY58" s="5"/>
+      <c r="AZ58" s="5"/>
+      <c r="BA58" s="5"/>
+      <c r="BB58" s="5"/>
+      <c r="BC58" s="5"/>
+      <c r="BD58" s="5"/>
+      <c r="BE58" s="5"/>
+      <c r="BF58" s="5"/>
+      <c r="BG58" s="5"/>
+      <c r="BH58" s="5"/>
+      <c r="BI58" s="5"/>
+      <c r="BJ58" s="5"/>
+      <c r="BK58" s="5"/>
+    </row>
+    <row r="59" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="5"/>
+      <c r="AS59" s="5"/>
+      <c r="AT59" s="5"/>
+      <c r="AU59" s="5"/>
+      <c r="AV59" s="5"/>
+      <c r="AW59" s="5"/>
+      <c r="AX59" s="5"/>
+      <c r="AY59" s="5"/>
+      <c r="AZ59" s="5"/>
+      <c r="BA59" s="5"/>
+      <c r="BB59" s="5"/>
+      <c r="BC59" s="5"/>
+      <c r="BD59" s="5"/>
+      <c r="BE59" s="5"/>
+      <c r="BF59" s="5"/>
+      <c r="BG59" s="5"/>
+      <c r="BH59" s="5"/>
+      <c r="BI59" s="5"/>
+      <c r="BJ59" s="5"/>
+      <c r="BK59" s="5"/>
+    </row>
+    <row r="61" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
+      <c r="AR65" s="5"/>
+      <c r="AS65" s="5"/>
+      <c r="AT65" s="5"/>
+      <c r="AU65" s="5"/>
+      <c r="AV65" s="5"/>
+      <c r="AW65" s="5"/>
+      <c r="AX65" s="5"/>
+      <c r="AY65" s="5"/>
+      <c r="AZ65" s="5"/>
+      <c r="BA65" s="5"/>
+      <c r="BB65" s="5"/>
+      <c r="BC65" s="5"/>
+      <c r="BD65" s="5"/>
+      <c r="BE65" s="5"/>
+      <c r="BF65" s="5"/>
+      <c r="BG65" s="5"/>
+      <c r="BH65" s="5"/>
+      <c r="BI65" s="5"/>
+      <c r="BJ65" s="5"/>
+      <c r="BK65" s="5"/>
+    </row>
+    <row r="66" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="5"/>
+      <c r="AU66" s="5"/>
+      <c r="AV66" s="5"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="5"/>
+      <c r="BE66" s="5"/>
+      <c r="BF66" s="5"/>
+      <c r="BG66" s="5"/>
+      <c r="BH66" s="5"/>
+      <c r="BI66" s="5"/>
+      <c r="BJ66" s="5"/>
+      <c r="BK66" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="K8:P9"/>
+    <mergeCell ref="Q8:V9"/>
+    <mergeCell ref="Q14:V15"/>
+    <mergeCell ref="Q10:V11"/>
+    <mergeCell ref="Q12:V13"/>
+    <mergeCell ref="K14:P15"/>
+    <mergeCell ref="K10:P11"/>
+    <mergeCell ref="K12:P13"/>
+    <mergeCell ref="E48:BJ49"/>
+    <mergeCell ref="E53:BJ54"/>
+    <mergeCell ref="C65:BK66"/>
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="C18:BK19"/>
+    <mergeCell ref="C58:BK59"/>
+    <mergeCell ref="E23:BJ24"/>
+    <mergeCell ref="E28:BJ29"/>
+    <mergeCell ref="E33:BJ34"/>
+    <mergeCell ref="E38:BJ39"/>
+    <mergeCell ref="E43:BJ44"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="E10:J11"/>
+    <mergeCell ref="E12:J13"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="E6:V7"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="E8:J9" location="'0.仕様書概要'!A1" display="0.仕様書概要"/>
+    <hyperlink ref="K14:P15" location="'7.SE・BGM'!A1" display="7.SE・BGM"/>
+    <hyperlink ref="K12:P13" location="'6.エフェクト'!A1" display="6.エフェクト"/>
+    <hyperlink ref="K10:P11" location="'5.忍者仕様'!A1" display="5.忍者仕様"/>
+    <hyperlink ref="K8:P9" location="'4.町人仕様'!A1" display="4.町人仕様"/>
+    <hyperlink ref="E14:J15" location="'3.すし仕様'!A1" display="3.魚仕様"/>
+    <hyperlink ref="E12:J13" location="'2.基本操作'!A1" display="2.基本操作"/>
+    <hyperlink ref="E10:J11" location="'1.企画概要'!A1" display="1.企画概要"/>
+    <hyperlink ref="Q12:V13" location="'10.画面仕様'!A1" display="10.画面仕様"/>
+    <hyperlink ref="Q10:V11" location="'9.フロチャート'!A1" display="9.フロチャート"/>
+    <hyperlink ref="Q8:V9" location="'8.命名規則'!A1" display="8.命名規則"/>
+    <hyperlink ref="H62" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:BJ41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+    </row>
+    <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+    </row>
+    <row r="35" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+    </row>
+    <row r="36" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+    </row>
+    <row r="40" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+      <c r="BA40" s="4"/>
+      <c r="BB40" s="4"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="4"/>
+      <c r="BF40" s="4"/>
+      <c r="BG40" s="4"/>
+      <c r="BH40" s="4"/>
+      <c r="BI40" s="4"/>
+      <c r="BJ40" s="4"/>
+    </row>
+    <row r="41" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+      <c r="BA41" s="4"/>
+      <c r="BB41" s="4"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="4"/>
+      <c r="BG41" s="4"/>
+      <c r="BH41" s="4"/>
+      <c r="BI41" s="4"/>
+      <c r="BJ41" s="4"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E82" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AL82" s="4"/>
+      <c r="AM82" s="4"/>
+      <c r="AN82" s="4"/>
+      <c r="AO82" s="4"/>
+      <c r="AP82" s="4"/>
+      <c r="AQ82" s="4"/>
+      <c r="AR82" s="4"/>
+      <c r="AS82" s="4"/>
+      <c r="AT82" s="4"/>
+      <c r="AU82" s="4"/>
+      <c r="AV82" s="4"/>
+      <c r="AW82" s="4"/>
+      <c r="AX82" s="4"/>
+      <c r="AY82" s="4"/>
+      <c r="AZ82" s="4"/>
+      <c r="BA82" s="4"/>
+      <c r="BB82" s="4"/>
+      <c r="BC82" s="4"/>
+      <c r="BD82" s="4"/>
+      <c r="BE82" s="4"/>
+      <c r="BF82" s="4"/>
+      <c r="BG82" s="4"/>
+      <c r="BH82" s="4"/>
+      <c r="BI82" s="4"/>
+      <c r="BJ82" s="4"/>
+    </row>
+    <row r="83" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
+      <c r="AI83" s="4"/>
+      <c r="AJ83" s="4"/>
+      <c r="AK83" s="4"/>
+      <c r="AL83" s="4"/>
+      <c r="AM83" s="4"/>
+      <c r="AN83" s="4"/>
+      <c r="AO83" s="4"/>
+      <c r="AP83" s="4"/>
+      <c r="AQ83" s="4"/>
+      <c r="AR83" s="4"/>
+      <c r="AS83" s="4"/>
+      <c r="AT83" s="4"/>
+      <c r="AU83" s="4"/>
+      <c r="AV83" s="4"/>
+      <c r="AW83" s="4"/>
+      <c r="AX83" s="4"/>
+      <c r="AY83" s="4"/>
+      <c r="AZ83" s="4"/>
+      <c r="BA83" s="4"/>
+      <c r="BB83" s="4"/>
+      <c r="BC83" s="4"/>
+      <c r="BD83" s="4"/>
+      <c r="BE83" s="4"/>
+      <c r="BF83" s="4"/>
+      <c r="BG83" s="4"/>
+      <c r="BH83" s="4"/>
+      <c r="BI83" s="4"/>
+      <c r="BJ83" s="4"/>
+    </row>
+    <row r="113" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E113" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+      <c r="AD113" s="4"/>
+      <c r="AE113" s="4"/>
+      <c r="AF113" s="4"/>
+      <c r="AG113" s="4"/>
+      <c r="AH113" s="4"/>
+      <c r="AI113" s="4"/>
+      <c r="AJ113" s="4"/>
+      <c r="AK113" s="4"/>
+      <c r="AL113" s="4"/>
+      <c r="AM113" s="4"/>
+      <c r="AN113" s="4"/>
+      <c r="AO113" s="4"/>
+      <c r="AP113" s="4"/>
+      <c r="AQ113" s="4"/>
+      <c r="AR113" s="4"/>
+      <c r="AS113" s="4"/>
+      <c r="AT113" s="4"/>
+      <c r="AU113" s="4"/>
+      <c r="AV113" s="4"/>
+      <c r="AW113" s="4"/>
+      <c r="AX113" s="4"/>
+      <c r="AY113" s="4"/>
+      <c r="AZ113" s="4"/>
+      <c r="BA113" s="4"/>
+      <c r="BB113" s="4"/>
+      <c r="BC113" s="4"/>
+      <c r="BD113" s="4"/>
+      <c r="BE113" s="4"/>
+      <c r="BF113" s="4"/>
+      <c r="BG113" s="4"/>
+      <c r="BH113" s="4"/>
+      <c r="BI113" s="4"/>
+      <c r="BJ113" s="4"/>
+    </row>
+    <row r="114" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="4"/>
+      <c r="AE114" s="4"/>
+      <c r="AF114" s="4"/>
+      <c r="AG114" s="4"/>
+      <c r="AH114" s="4"/>
+      <c r="AI114" s="4"/>
+      <c r="AJ114" s="4"/>
+      <c r="AK114" s="4"/>
+      <c r="AL114" s="4"/>
+      <c r="AM114" s="4"/>
+      <c r="AN114" s="4"/>
+      <c r="AO114" s="4"/>
+      <c r="AP114" s="4"/>
+      <c r="AQ114" s="4"/>
+      <c r="AR114" s="4"/>
+      <c r="AS114" s="4"/>
+      <c r="AT114" s="4"/>
+      <c r="AU114" s="4"/>
+      <c r="AV114" s="4"/>
+      <c r="AW114" s="4"/>
+      <c r="AX114" s="4"/>
+      <c r="AY114" s="4"/>
+      <c r="AZ114" s="4"/>
+      <c r="BA114" s="4"/>
+      <c r="BB114" s="4"/>
+      <c r="BC114" s="4"/>
+      <c r="BD114" s="4"/>
+      <c r="BE114" s="4"/>
+      <c r="BF114" s="4"/>
+      <c r="BG114" s="4"/>
+      <c r="BH114" s="4"/>
+      <c r="BI114" s="4"/>
+      <c r="BJ114" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E113:BJ114"/>
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="C7:BK8"/>
+    <mergeCell ref="C35:BK36"/>
+    <mergeCell ref="E40:BJ41"/>
+    <mergeCell ref="E82:BJ83"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+    </row>
+    <row r="9" spans="1:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F11" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F12" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="24"/>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F13" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="18"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F14" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="24"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F15" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="18"/>
+    </row>
+    <row r="16" spans="1:63" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="27"/>
+    </row>
+    <row r="19" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+    </row>
+    <row r="20" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+    </row>
+    <row r="22" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>151</v>
+      </c>
+      <c r="X22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -5228,563 +8156,1487 @@
       <c r="BH29" s="5"/>
       <c r="BI29" s="5"/>
       <c r="BJ29" s="5"/>
-    </row>
-    <row r="31" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="H31" t="s">
-        <v>33</v>
-      </c>
+      <c r="BK29" s="5"/>
+    </row>
+    <row r="30" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="5"/>
+      <c r="BG30" s="5"/>
+      <c r="BH30" s="5"/>
+      <c r="BI30" s="5"/>
+      <c r="BJ30" s="5"/>
+      <c r="BK30" s="5"/>
+    </row>
+    <row r="32" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="F37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+    </row>
+    <row r="41" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="K13:S13"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="K15:S15"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="C7:BK8"/>
+    <mergeCell ref="C19:BK20"/>
+    <mergeCell ref="C29:BK30"/>
+    <mergeCell ref="C40:BK41"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="K11:S11"/>
+    <mergeCell ref="K12:S12"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+    </row>
+    <row r="17" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+      <c r="BH28" s="4"/>
+      <c r="BI28" s="4"/>
+      <c r="BJ28" s="4"/>
+    </row>
+    <row r="29" spans="5:62" x14ac:dyDescent="0.4">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
     </row>
     <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="4"/>
+      <c r="AO33" s="4"/>
+      <c r="AP33" s="4"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="4"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+      <c r="AV33" s="4"/>
+      <c r="AW33" s="4"/>
+      <c r="AX33" s="4"/>
+      <c r="AY33" s="4"/>
+      <c r="AZ33" s="4"/>
+      <c r="BA33" s="4"/>
+      <c r="BB33" s="4"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="4"/>
+      <c r="BF33" s="4"/>
+      <c r="BG33" s="4"/>
+      <c r="BH33" s="4"/>
+      <c r="BI33" s="4"/>
+      <c r="BJ33" s="4"/>
     </row>
     <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
-    </row>
-    <row r="38" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="5"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="5"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="5"/>
-      <c r="AZ38" s="5"/>
-      <c r="BA38" s="5"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="5"/>
-      <c r="BD38" s="5"/>
-      <c r="BE38" s="5"/>
-      <c r="BF38" s="5"/>
-      <c r="BG38" s="5"/>
-      <c r="BH38" s="5"/>
-      <c r="BI38" s="5"/>
-      <c r="BJ38" s="5"/>
-    </row>
-    <row r="39" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="5"/>
-      <c r="AZ39" s="5"/>
-      <c r="BA39" s="5"/>
-      <c r="BB39" s="5"/>
-      <c r="BC39" s="5"/>
-      <c r="BD39" s="5"/>
-      <c r="BE39" s="5"/>
-      <c r="BF39" s="5"/>
-      <c r="BG39" s="5"/>
-      <c r="BH39" s="5"/>
-      <c r="BI39" s="5"/>
-      <c r="BJ39" s="5"/>
-    </row>
-    <row r="43" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-      <c r="AT43" s="5"/>
-      <c r="AU43" s="5"/>
-      <c r="AV43" s="5"/>
-      <c r="AW43" s="5"/>
-      <c r="AX43" s="5"/>
-      <c r="AY43" s="5"/>
-      <c r="AZ43" s="5"/>
-      <c r="BA43" s="5"/>
-      <c r="BB43" s="5"/>
-      <c r="BC43" s="5"/>
-      <c r="BD43" s="5"/>
-      <c r="BE43" s="5"/>
-      <c r="BF43" s="5"/>
-      <c r="BG43" s="5"/>
-      <c r="BH43" s="5"/>
-      <c r="BI43" s="5"/>
-      <c r="BJ43" s="5"/>
-    </row>
-    <row r="44" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="5"/>
-      <c r="AV44" s="5"/>
-      <c r="AW44" s="5"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="5"/>
-      <c r="AZ44" s="5"/>
-      <c r="BA44" s="5"/>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="5"/>
-      <c r="BD44" s="5"/>
-      <c r="BE44" s="5"/>
-      <c r="BF44" s="5"/>
-      <c r="BG44" s="5"/>
-      <c r="BH44" s="5"/>
-      <c r="BI44" s="5"/>
-      <c r="BJ44" s="5"/>
-    </row>
-    <row r="48" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
-      <c r="AZ48" s="5"/>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="5"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="5"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
-      <c r="BJ48" s="5"/>
-    </row>
-    <row r="49" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-      <c r="AT49" s="5"/>
-      <c r="AU49" s="5"/>
-      <c r="AV49" s="5"/>
-      <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
-      <c r="AZ49" s="5"/>
-      <c r="BA49" s="5"/>
-      <c r="BB49" s="5"/>
-      <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
-      <c r="BE49" s="5"/>
-      <c r="BF49" s="5"/>
-      <c r="BG49" s="5"/>
-      <c r="BH49" s="5"/>
-      <c r="BI49" s="5"/>
-      <c r="BJ49" s="5"/>
-    </row>
-    <row r="53" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-      <c r="BH53" s="5"/>
-      <c r="BI53" s="5"/>
-      <c r="BJ53" s="5"/>
-    </row>
-    <row r="54" spans="3:63" x14ac:dyDescent="0.4">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="4"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="4"/>
+      <c r="AT34" s="4"/>
+      <c r="AU34" s="4"/>
+      <c r="AV34" s="4"/>
+      <c r="AW34" s="4"/>
+      <c r="AX34" s="4"/>
+      <c r="AY34" s="4"/>
+      <c r="AZ34" s="4"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
+      <c r="BF34" s="4"/>
+      <c r="BG34" s="4"/>
+      <c r="BH34" s="4"/>
+      <c r="BI34" s="4"/>
+      <c r="BJ34" s="4"/>
+    </row>
+    <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="C7:BK8"/>
+    <mergeCell ref="E14:BJ15"/>
+    <mergeCell ref="E28:BJ29"/>
+    <mergeCell ref="E33:BJ34"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD3"/>
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+    </row>
+    <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J18" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="S19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J25" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J27" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J28" t="s">
+        <v>87</v>
+      </c>
+      <c r="S28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+      <c r="S31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
+        <v>90</v>
+      </c>
+      <c r="S32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+      <c r="S33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+      <c r="S34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+      <c r="S38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
+      <c r="S39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="F42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" t="s">
+        <v>128</v>
+      </c>
+      <c r="S42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="S43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" x14ac:dyDescent="0.4">
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+      <c r="S46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C54" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -5843,3194 +9695,70 @@
       <c r="BH54" s="5"/>
       <c r="BI54" s="5"/>
       <c r="BJ54" s="5"/>
-    </row>
-    <row r="58" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C58" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="6"/>
-      <c r="AM58" s="6"/>
-      <c r="AN58" s="6"/>
-      <c r="AO58" s="6"/>
-      <c r="AP58" s="6"/>
-      <c r="AQ58" s="6"/>
-      <c r="AR58" s="6"/>
-      <c r="AS58" s="6"/>
-      <c r="AT58" s="6"/>
-      <c r="AU58" s="6"/>
-      <c r="AV58" s="6"/>
-      <c r="AW58" s="6"/>
-      <c r="AX58" s="6"/>
-      <c r="AY58" s="6"/>
-      <c r="AZ58" s="6"/>
-      <c r="BA58" s="6"/>
-      <c r="BB58" s="6"/>
-      <c r="BC58" s="6"/>
-      <c r="BD58" s="6"/>
-      <c r="BE58" s="6"/>
-      <c r="BF58" s="6"/>
-      <c r="BG58" s="6"/>
-      <c r="BH58" s="6"/>
-      <c r="BI58" s="6"/>
-      <c r="BJ58" s="6"/>
-      <c r="BK58" s="6"/>
-    </row>
-    <row r="59" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-      <c r="AI59" s="6"/>
-      <c r="AJ59" s="6"/>
-      <c r="AK59" s="6"/>
-      <c r="AL59" s="6"/>
-      <c r="AM59" s="6"/>
-      <c r="AN59" s="6"/>
-      <c r="AO59" s="6"/>
-      <c r="AP59" s="6"/>
-      <c r="AQ59" s="6"/>
-      <c r="AR59" s="6"/>
-      <c r="AS59" s="6"/>
-      <c r="AT59" s="6"/>
-      <c r="AU59" s="6"/>
-      <c r="AV59" s="6"/>
-      <c r="AW59" s="6"/>
-      <c r="AX59" s="6"/>
-      <c r="AY59" s="6"/>
-      <c r="AZ59" s="6"/>
-      <c r="BA59" s="6"/>
-      <c r="BB59" s="6"/>
-      <c r="BC59" s="6"/>
-      <c r="BD59" s="6"/>
-      <c r="BE59" s="6"/>
-      <c r="BF59" s="6"/>
-      <c r="BG59" s="6"/>
-      <c r="BH59" s="6"/>
-      <c r="BI59" s="6"/>
-      <c r="BJ59" s="6"/>
-      <c r="BK59" s="6"/>
-    </row>
-    <row r="61" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="F61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="F62" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
-      <c r="AH65" s="6"/>
-      <c r="AI65" s="6"/>
-      <c r="AJ65" s="6"/>
-      <c r="AK65" s="6"/>
-      <c r="AL65" s="6"/>
-      <c r="AM65" s="6"/>
-      <c r="AN65" s="6"/>
-      <c r="AO65" s="6"/>
-      <c r="AP65" s="6"/>
-      <c r="AQ65" s="6"/>
-      <c r="AR65" s="6"/>
-      <c r="AS65" s="6"/>
-      <c r="AT65" s="6"/>
-      <c r="AU65" s="6"/>
-      <c r="AV65" s="6"/>
-      <c r="AW65" s="6"/>
-      <c r="AX65" s="6"/>
-      <c r="AY65" s="6"/>
-      <c r="AZ65" s="6"/>
-      <c r="BA65" s="6"/>
-      <c r="BB65" s="6"/>
-      <c r="BC65" s="6"/>
-      <c r="BD65" s="6"/>
-      <c r="BE65" s="6"/>
-      <c r="BF65" s="6"/>
-      <c r="BG65" s="6"/>
-      <c r="BH65" s="6"/>
-      <c r="BI65" s="6"/>
-      <c r="BJ65" s="6"/>
-      <c r="BK65" s="6"/>
-    </row>
-    <row r="66" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="6"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="6"/>
-      <c r="AJ66" s="6"/>
-      <c r="AK66" s="6"/>
-      <c r="AL66" s="6"/>
-      <c r="AM66" s="6"/>
-      <c r="AN66" s="6"/>
-      <c r="AO66" s="6"/>
-      <c r="AP66" s="6"/>
-      <c r="AQ66" s="6"/>
-      <c r="AR66" s="6"/>
-      <c r="AS66" s="6"/>
-      <c r="AT66" s="6"/>
-      <c r="AU66" s="6"/>
-      <c r="AV66" s="6"/>
-      <c r="AW66" s="6"/>
-      <c r="AX66" s="6"/>
-      <c r="AY66" s="6"/>
-      <c r="AZ66" s="6"/>
-      <c r="BA66" s="6"/>
-      <c r="BB66" s="6"/>
-      <c r="BC66" s="6"/>
-      <c r="BD66" s="6"/>
-      <c r="BE66" s="6"/>
-      <c r="BF66" s="6"/>
-      <c r="BG66" s="6"/>
-      <c r="BH66" s="6"/>
-      <c r="BI66" s="6"/>
-      <c r="BJ66" s="6"/>
-      <c r="BK66" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E48:BJ49"/>
-    <mergeCell ref="E53:BJ54"/>
-    <mergeCell ref="C65:BK66"/>
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="C18:BK19"/>
-    <mergeCell ref="C58:BK59"/>
-    <mergeCell ref="E23:BJ24"/>
-    <mergeCell ref="E28:BJ29"/>
-    <mergeCell ref="E33:BJ34"/>
-    <mergeCell ref="E38:BJ39"/>
-    <mergeCell ref="E43:BJ44"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="E10:J11"/>
-    <mergeCell ref="E12:J13"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="E6:V7"/>
-    <mergeCell ref="K8:P9"/>
-    <mergeCell ref="Q8:V9"/>
-    <mergeCell ref="Q14:V15"/>
-    <mergeCell ref="Q10:V11"/>
-    <mergeCell ref="Q12:V13"/>
-    <mergeCell ref="K14:P15"/>
-    <mergeCell ref="K10:P11"/>
-    <mergeCell ref="K12:P13"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="E8:J9" location="'0.仕様書概要'!A1" display="0.仕様書概要"/>
-    <hyperlink ref="K14:P15" location="'7.SE・BGM'!A1" display="7.SE・BGM"/>
-    <hyperlink ref="K12:P13" location="'6.エフェクト'!A1" display="6.エフェクト"/>
-    <hyperlink ref="K10:P11" location="'5.忍者仕様'!A1" display="5.忍者仕様"/>
-    <hyperlink ref="K8:P9" location="'4.町人仕様'!A1" display="4.町人仕様"/>
-    <hyperlink ref="E14:J15" location="'3.すし仕様'!A1" display="3.魚仕様"/>
-    <hyperlink ref="E12:J13" location="'2.基本操作'!A1" display="2.基本操作"/>
-    <hyperlink ref="E10:J11" location="'1.企画概要'!A1" display="1.企画概要"/>
-    <hyperlink ref="Q12:V13" location="'10.画面仕様'!A1" display="10.画面仕様"/>
-    <hyperlink ref="Q10:V11" location="'9.フロチャート'!A1" display="9.フロチャート"/>
-    <hyperlink ref="Q8:V9" location="'8.命名規則'!A1" display="8.命名規則"/>
-    <hyperlink ref="H62" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK114"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:BJ41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="7" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-    </row>
-    <row r="35" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="6"/>
-      <c r="AR35" s="6"/>
-      <c r="AS35" s="6"/>
-      <c r="AT35" s="6"/>
-      <c r="AU35" s="6"/>
-      <c r="AV35" s="6"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="6"/>
-      <c r="AZ35" s="6"/>
-      <c r="BA35" s="6"/>
-      <c r="BB35" s="6"/>
-      <c r="BC35" s="6"/>
-      <c r="BD35" s="6"/>
-      <c r="BE35" s="6"/>
-      <c r="BF35" s="6"/>
-      <c r="BG35" s="6"/>
-      <c r="BH35" s="6"/>
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="6"/>
-      <c r="BK35" s="6"/>
-    </row>
-    <row r="36" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="6"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="6"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="6"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="6"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="6"/>
-      <c r="BK36" s="6"/>
-    </row>
-    <row r="40" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="5"/>
-      <c r="AZ40" s="5"/>
-      <c r="BA40" s="5"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="5"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="5"/>
-      <c r="BF40" s="5"/>
-      <c r="BG40" s="5"/>
-      <c r="BH40" s="5"/>
-      <c r="BI40" s="5"/>
-      <c r="BJ40" s="5"/>
-    </row>
-    <row r="41" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="5"/>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
-      <c r="BE41" s="5"/>
-      <c r="BF41" s="5"/>
-      <c r="BG41" s="5"/>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="5"/>
-      <c r="BJ41" s="5"/>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
-      <c r="I65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E82" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="5"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="5"/>
-      <c r="AL82" s="5"/>
-      <c r="AM82" s="5"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="5"/>
-      <c r="AP82" s="5"/>
-      <c r="AQ82" s="5"/>
-      <c r="AR82" s="5"/>
-      <c r="AS82" s="5"/>
-      <c r="AT82" s="5"/>
-      <c r="AU82" s="5"/>
-      <c r="AV82" s="5"/>
-      <c r="AW82" s="5"/>
-      <c r="AX82" s="5"/>
-      <c r="AY82" s="5"/>
-      <c r="AZ82" s="5"/>
-      <c r="BA82" s="5"/>
-      <c r="BB82" s="5"/>
-      <c r="BC82" s="5"/>
-      <c r="BD82" s="5"/>
-      <c r="BE82" s="5"/>
-      <c r="BF82" s="5"/>
-      <c r="BG82" s="5"/>
-      <c r="BH82" s="5"/>
-      <c r="BI82" s="5"/>
-      <c r="BJ82" s="5"/>
-    </row>
-    <row r="83" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
-      <c r="AE83" s="5"/>
-      <c r="AF83" s="5"/>
-      <c r="AG83" s="5"/>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
-      <c r="AJ83" s="5"/>
-      <c r="AK83" s="5"/>
-      <c r="AL83" s="5"/>
-      <c r="AM83" s="5"/>
-      <c r="AN83" s="5"/>
-      <c r="AO83" s="5"/>
-      <c r="AP83" s="5"/>
-      <c r="AQ83" s="5"/>
-      <c r="AR83" s="5"/>
-      <c r="AS83" s="5"/>
-      <c r="AT83" s="5"/>
-      <c r="AU83" s="5"/>
-      <c r="AV83" s="5"/>
-      <c r="AW83" s="5"/>
-      <c r="AX83" s="5"/>
-      <c r="AY83" s="5"/>
-      <c r="AZ83" s="5"/>
-      <c r="BA83" s="5"/>
-      <c r="BB83" s="5"/>
-      <c r="BC83" s="5"/>
-      <c r="BD83" s="5"/>
-      <c r="BE83" s="5"/>
-      <c r="BF83" s="5"/>
-      <c r="BG83" s="5"/>
-      <c r="BH83" s="5"/>
-      <c r="BI83" s="5"/>
-      <c r="BJ83" s="5"/>
-    </row>
-    <row r="113" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E113" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
-      <c r="AC113" s="5"/>
-      <c r="AD113" s="5"/>
-      <c r="AE113" s="5"/>
-      <c r="AF113" s="5"/>
-      <c r="AG113" s="5"/>
-      <c r="AH113" s="5"/>
-      <c r="AI113" s="5"/>
-      <c r="AJ113" s="5"/>
-      <c r="AK113" s="5"/>
-      <c r="AL113" s="5"/>
-      <c r="AM113" s="5"/>
-      <c r="AN113" s="5"/>
-      <c r="AO113" s="5"/>
-      <c r="AP113" s="5"/>
-      <c r="AQ113" s="5"/>
-      <c r="AR113" s="5"/>
-      <c r="AS113" s="5"/>
-      <c r="AT113" s="5"/>
-      <c r="AU113" s="5"/>
-      <c r="AV113" s="5"/>
-      <c r="AW113" s="5"/>
-      <c r="AX113" s="5"/>
-      <c r="AY113" s="5"/>
-      <c r="AZ113" s="5"/>
-      <c r="BA113" s="5"/>
-      <c r="BB113" s="5"/>
-      <c r="BC113" s="5"/>
-      <c r="BD113" s="5"/>
-      <c r="BE113" s="5"/>
-      <c r="BF113" s="5"/>
-      <c r="BG113" s="5"/>
-      <c r="BH113" s="5"/>
-      <c r="BI113" s="5"/>
-      <c r="BJ113" s="5"/>
-    </row>
-    <row r="114" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
-      <c r="AC114" s="5"/>
-      <c r="AD114" s="5"/>
-      <c r="AE114" s="5"/>
-      <c r="AF114" s="5"/>
-      <c r="AG114" s="5"/>
-      <c r="AH114" s="5"/>
-      <c r="AI114" s="5"/>
-      <c r="AJ114" s="5"/>
-      <c r="AK114" s="5"/>
-      <c r="AL114" s="5"/>
-      <c r="AM114" s="5"/>
-      <c r="AN114" s="5"/>
-      <c r="AO114" s="5"/>
-      <c r="AP114" s="5"/>
-      <c r="AQ114" s="5"/>
-      <c r="AR114" s="5"/>
-      <c r="AS114" s="5"/>
-      <c r="AT114" s="5"/>
-      <c r="AU114" s="5"/>
-      <c r="AV114" s="5"/>
-      <c r="AW114" s="5"/>
-      <c r="AX114" s="5"/>
-      <c r="AY114" s="5"/>
-      <c r="AZ114" s="5"/>
-      <c r="BA114" s="5"/>
-      <c r="BB114" s="5"/>
-      <c r="BC114" s="5"/>
-      <c r="BD114" s="5"/>
-      <c r="BE114" s="5"/>
-      <c r="BF114" s="5"/>
-      <c r="BG114" s="5"/>
-      <c r="BH114" s="5"/>
-      <c r="BI114" s="5"/>
-      <c r="BJ114" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E113:BJ114"/>
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="C7:BK8"/>
-    <mergeCell ref="C35:BK36"/>
-    <mergeCell ref="E40:BJ41"/>
-    <mergeCell ref="E82:BJ83"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
-      <c r="AP12" s="6"/>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-      <c r="AT12" s="6"/>
-      <c r="AU12" s="6"/>
-      <c r="AV12" s="6"/>
-      <c r="AW12" s="6"/>
-      <c r="AX12" s="6"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="6"/>
-      <c r="BB12" s="6"/>
-      <c r="BC12" s="6"/>
-      <c r="BD12" s="6"/>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="6"/>
-      <c r="BH12" s="6"/>
-      <c r="BI12" s="6"/>
-      <c r="BJ12" s="6"/>
-      <c r="BK12" s="6"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
-      <c r="AP13" s="6"/>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
-      <c r="BC13" s="6"/>
-      <c r="BD13" s="6"/>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="6"/>
-      <c r="BH13" s="6"/>
-      <c r="BI13" s="6"/>
-      <c r="BJ13" s="6"/>
-      <c r="BK13" s="6"/>
-    </row>
-    <row r="17" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AK17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AN17" s="6"/>
-      <c r="AO17" s="6"/>
-      <c r="AP17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="6"/>
-      <c r="AT17" s="6"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="6"/>
-      <c r="BB17" s="6"/>
-      <c r="BC17" s="6"/>
-      <c r="BD17" s="6"/>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="6"/>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="6"/>
-      <c r="BK17" s="6"/>
-    </row>
-    <row r="18" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-      <c r="AO18" s="6"/>
-      <c r="AP18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="6"/>
-      <c r="AT18" s="6"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="6"/>
-      <c r="BD18" s="6"/>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="6"/>
-      <c r="BH18" s="6"/>
-      <c r="BI18" s="6"/>
-      <c r="BJ18" s="6"/>
-      <c r="BK18" s="6"/>
-    </row>
-    <row r="22" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="6"/>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-      <c r="AO22" s="6"/>
-      <c r="AP22" s="6"/>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-      <c r="AT22" s="6"/>
-      <c r="AU22" s="6"/>
-      <c r="AV22" s="6"/>
-      <c r="AW22" s="6"/>
-      <c r="AX22" s="6"/>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="6"/>
-      <c r="BB22" s="6"/>
-      <c r="BC22" s="6"/>
-      <c r="BD22" s="6"/>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="6"/>
-      <c r="BH22" s="6"/>
-      <c r="BI22" s="6"/>
-      <c r="BJ22" s="6"/>
-      <c r="BK22" s="6"/>
-    </row>
-    <row r="23" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-      <c r="AT23" s="6"/>
-      <c r="AU23" s="6"/>
-      <c r="AV23" s="6"/>
-      <c r="AW23" s="6"/>
-      <c r="AX23" s="6"/>
-      <c r="AY23" s="6"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="6"/>
-      <c r="BF23" s="6"/>
-      <c r="BG23" s="6"/>
-      <c r="BH23" s="6"/>
-      <c r="BI23" s="6"/>
-      <c r="BJ23" s="6"/>
-      <c r="BK23" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="C7:BK8"/>
-    <mergeCell ref="C12:BK13"/>
-    <mergeCell ref="C17:BK18"/>
-    <mergeCell ref="C22:BK23"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
-      <c r="AZ15" s="5"/>
-      <c r="BA15" s="5"/>
-      <c r="BB15" s="5"/>
-      <c r="BC15" s="5"/>
-      <c r="BD15" s="5"/>
-      <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
-      <c r="BG15" s="5"/>
-      <c r="BH15" s="5"/>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
-    </row>
-    <row r="17" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-    </row>
-    <row r="29" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
-    </row>
-    <row r="33" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
-    </row>
-    <row r="34" spans="5:62" x14ac:dyDescent="0.4">
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
-    </row>
-    <row r="38" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="5:62" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="C7:BK8"/>
-    <mergeCell ref="E14:BJ15"/>
-    <mergeCell ref="E28:BJ29"/>
-    <mergeCell ref="E33:BJ34"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:XFD3"/>
-    <mergeCell ref="A4:E4"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A4:E4" location="'0.仕様書概要'!A1" display="BACK.仕様目録"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK83"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="A4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="6"/>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="6"/>
-      <c r="BH8" s="6"/>
-      <c r="BI8" s="6"/>
-      <c r="BJ8" s="6"/>
-      <c r="BK8" s="6"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="6"/>
-      <c r="BJ14" s="6"/>
-      <c r="BK14" s="6"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-      <c r="AM15" s="6"/>
-      <c r="AN15" s="6"/>
-      <c r="AO15" s="6"/>
-      <c r="AP15" s="6"/>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="6"/>
-      <c r="BB15" s="6"/>
-      <c r="BC15" s="6"/>
-      <c r="BD15" s="6"/>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
-      <c r="BG15" s="6"/>
-      <c r="BH15" s="6"/>
-      <c r="BI15" s="6"/>
-      <c r="BJ15" s="6"/>
-      <c r="BK15" s="6"/>
-    </row>
-    <row r="17" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" t="s">
-        <v>65</v>
-      </c>
-      <c r="S17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J18" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J19" t="s">
-        <v>75</v>
-      </c>
-      <c r="S19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="S20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J21" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" t="s">
-        <v>67</v>
-      </c>
-      <c r="S24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J25" t="s">
-        <v>82</v>
-      </c>
-      <c r="S25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J26" t="s">
-        <v>84</v>
-      </c>
-      <c r="S26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J27" t="s">
-        <v>86</v>
-      </c>
-      <c r="S27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J28" t="s">
-        <v>87</v>
-      </c>
-      <c r="S28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J31" t="s">
-        <v>89</v>
-      </c>
-      <c r="S31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J32" t="s">
-        <v>90</v>
-      </c>
-      <c r="S32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J33" t="s">
-        <v>91</v>
-      </c>
-      <c r="S33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J34" t="s">
-        <v>92</v>
-      </c>
-      <c r="S34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="F38" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" t="s">
-        <v>71</v>
-      </c>
-      <c r="S38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J39" t="s">
-        <v>97</v>
-      </c>
-      <c r="S39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="F42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J42" t="s">
-        <v>128</v>
-      </c>
-      <c r="S42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J43" t="s">
-        <v>130</v>
-      </c>
-      <c r="S43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.4">
-      <c r="J46" t="s">
-        <v>102</v>
-      </c>
-      <c r="S46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
-      <c r="AH54" s="6"/>
-      <c r="AI54" s="6"/>
-      <c r="AJ54" s="6"/>
-      <c r="AK54" s="6"/>
-      <c r="AL54" s="6"/>
-      <c r="AM54" s="6"/>
-      <c r="AN54" s="6"/>
-      <c r="AO54" s="6"/>
-      <c r="AP54" s="6"/>
-      <c r="AQ54" s="6"/>
-      <c r="AR54" s="6"/>
-      <c r="AS54" s="6"/>
-      <c r="AT54" s="6"/>
-      <c r="AU54" s="6"/>
-      <c r="AV54" s="6"/>
-      <c r="AW54" s="6"/>
-      <c r="AX54" s="6"/>
-      <c r="AY54" s="6"/>
-      <c r="AZ54" s="6"/>
-      <c r="BA54" s="6"/>
-      <c r="BB54" s="6"/>
-      <c r="BC54" s="6"/>
-      <c r="BD54" s="6"/>
-      <c r="BE54" s="6"/>
-      <c r="BF54" s="6"/>
-      <c r="BG54" s="6"/>
-      <c r="BH54" s="6"/>
-      <c r="BI54" s="6"/>
-      <c r="BJ54" s="6"/>
-      <c r="BK54" s="6"/>
+      <c r="BK54" s="5"/>
     </row>
     <row r="55" spans="3:63" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
-      <c r="AB55" s="6"/>
-      <c r="AC55" s="6"/>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="6"/>
-      <c r="AG55" s="6"/>
-      <c r="AH55" s="6"/>
-      <c r="AI55" s="6"/>
-      <c r="AJ55" s="6"/>
-      <c r="AK55" s="6"/>
-      <c r="AL55" s="6"/>
-      <c r="AM55" s="6"/>
-      <c r="AN55" s="6"/>
-      <c r="AO55" s="6"/>
-      <c r="AP55" s="6"/>
-      <c r="AQ55" s="6"/>
-      <c r="AR55" s="6"/>
-      <c r="AS55" s="6"/>
-      <c r="AT55" s="6"/>
-      <c r="AU55" s="6"/>
-      <c r="AV55" s="6"/>
-      <c r="AW55" s="6"/>
-      <c r="AX55" s="6"/>
-      <c r="AY55" s="6"/>
-      <c r="AZ55" s="6"/>
-      <c r="BA55" s="6"/>
-      <c r="BB55" s="6"/>
-      <c r="BC55" s="6"/>
-      <c r="BD55" s="6"/>
-      <c r="BE55" s="6"/>
-      <c r="BF55" s="6"/>
-      <c r="BG55" s="6"/>
-      <c r="BH55" s="6"/>
-      <c r="BI55" s="6"/>
-      <c r="BJ55" s="6"/>
-      <c r="BK55" s="6"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
+      <c r="AS55" s="5"/>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="5"/>
+      <c r="AV55" s="5"/>
+      <c r="AW55" s="5"/>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="5"/>
+      <c r="BA55" s="5"/>
+      <c r="BB55" s="5"/>
+      <c r="BC55" s="5"/>
+      <c r="BD55" s="5"/>
+      <c r="BE55" s="5"/>
+      <c r="BF55" s="5"/>
+      <c r="BG55" s="5"/>
+      <c r="BH55" s="5"/>
+      <c r="BI55" s="5"/>
+      <c r="BJ55" s="5"/>
+      <c r="BK55" s="5"/>
     </row>
     <row r="58" spans="3:63" x14ac:dyDescent="0.4">
       <c r="F58" t="s">
@@ -9068,132 +9796,132 @@
       </c>
     </row>
     <row r="79" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="6"/>
-      <c r="AH79" s="6"/>
-      <c r="AI79" s="6"/>
-      <c r="AJ79" s="6"/>
-      <c r="AK79" s="6"/>
-      <c r="AL79" s="6"/>
-      <c r="AM79" s="6"/>
-      <c r="AN79" s="6"/>
-      <c r="AO79" s="6"/>
-      <c r="AP79" s="6"/>
-      <c r="AQ79" s="6"/>
-      <c r="AR79" s="6"/>
-      <c r="AS79" s="6"/>
-      <c r="AT79" s="6"/>
-      <c r="AU79" s="6"/>
-      <c r="AV79" s="6"/>
-      <c r="AW79" s="6"/>
-      <c r="AX79" s="6"/>
-      <c r="AY79" s="6"/>
-      <c r="AZ79" s="6"/>
-      <c r="BA79" s="6"/>
-      <c r="BB79" s="6"/>
-      <c r="BC79" s="6"/>
-      <c r="BD79" s="6"/>
-      <c r="BE79" s="6"/>
-      <c r="BF79" s="6"/>
-      <c r="BG79" s="6"/>
-      <c r="BH79" s="6"/>
-      <c r="BI79" s="6"/>
-      <c r="BJ79" s="6"/>
-      <c r="BK79" s="6"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+      <c r="W79" s="5"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="5"/>
+      <c r="AP79" s="5"/>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="5"/>
+      <c r="AS79" s="5"/>
+      <c r="AT79" s="5"/>
+      <c r="AU79" s="5"/>
+      <c r="AV79" s="5"/>
+      <c r="AW79" s="5"/>
+      <c r="AX79" s="5"/>
+      <c r="AY79" s="5"/>
+      <c r="AZ79" s="5"/>
+      <c r="BA79" s="5"/>
+      <c r="BB79" s="5"/>
+      <c r="BC79" s="5"/>
+      <c r="BD79" s="5"/>
+      <c r="BE79" s="5"/>
+      <c r="BF79" s="5"/>
+      <c r="BG79" s="5"/>
+      <c r="BH79" s="5"/>
+      <c r="BI79" s="5"/>
+      <c r="BJ79" s="5"/>
+      <c r="BK79" s="5"/>
     </row>
     <row r="80" spans="3:63" x14ac:dyDescent="0.4">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
-      <c r="AA80" s="6"/>
-      <c r="AB80" s="6"/>
-      <c r="AC80" s="6"/>
-      <c r="AD80" s="6"/>
-      <c r="AE80" s="6"/>
-      <c r="AF80" s="6"/>
-      <c r="AG80" s="6"/>
-      <c r="AH80" s="6"/>
-      <c r="AI80" s="6"/>
-      <c r="AJ80" s="6"/>
-      <c r="AK80" s="6"/>
-      <c r="AL80" s="6"/>
-      <c r="AM80" s="6"/>
-      <c r="AN80" s="6"/>
-      <c r="AO80" s="6"/>
-      <c r="AP80" s="6"/>
-      <c r="AQ80" s="6"/>
-      <c r="AR80" s="6"/>
-      <c r="AS80" s="6"/>
-      <c r="AT80" s="6"/>
-      <c r="AU80" s="6"/>
-      <c r="AV80" s="6"/>
-      <c r="AW80" s="6"/>
-      <c r="AX80" s="6"/>
-      <c r="AY80" s="6"/>
-      <c r="AZ80" s="6"/>
-      <c r="BA80" s="6"/>
-      <c r="BB80" s="6"/>
-      <c r="BC80" s="6"/>
-      <c r="BD80" s="6"/>
-      <c r="BE80" s="6"/>
-      <c r="BF80" s="6"/>
-      <c r="BG80" s="6"/>
-      <c r="BH80" s="6"/>
-      <c r="BI80" s="6"/>
-      <c r="BJ80" s="6"/>
-      <c r="BK80" s="6"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+      <c r="AG80" s="5"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="5"/>
+      <c r="AP80" s="5"/>
+      <c r="AQ80" s="5"/>
+      <c r="AR80" s="5"/>
+      <c r="AS80" s="5"/>
+      <c r="AT80" s="5"/>
+      <c r="AU80" s="5"/>
+      <c r="AV80" s="5"/>
+      <c r="AW80" s="5"/>
+      <c r="AX80" s="5"/>
+      <c r="AY80" s="5"/>
+      <c r="AZ80" s="5"/>
+      <c r="BA80" s="5"/>
+      <c r="BB80" s="5"/>
+      <c r="BC80" s="5"/>
+      <c r="BD80" s="5"/>
+      <c r="BE80" s="5"/>
+      <c r="BF80" s="5"/>
+      <c r="BG80" s="5"/>
+      <c r="BH80" s="5"/>
+      <c r="BI80" s="5"/>
+      <c r="BJ80" s="5"/>
+      <c r="BK80" s="5"/>
     </row>
     <row r="83" spans="6:19" x14ac:dyDescent="0.4">
       <c r="F83" t="s">
